--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -1,84 +1,719 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\UiPath\Extraction\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>msg</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+  <x:si>
+    <x:t>url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>msg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/valentina-shah-printed-peacoat-w-tags-fposi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
+Possible solutions:
+ •  Ensure application is opened and the UI element is visible on the screen at execution time
+ •  Edit the Target of the UI activity and use Validation to debug the issue.
+ •  If needed, re-indicate the element as its properties might have changed
+ •  Use "Check state" activity to check the application state before executing the action
+ •  Increase the "Delay before" value to allow time to the application to render entirely and become responsive
+   at UiPath.UIAutomationNext.Activities.TargetCommonLogic.GetSearchResultAsync(IRuntimeContext runtimeContext, ITargetAnchorable target, CancellationToken token)
+   at UiPath.UIAutomationNext.Activities.TargetBase.SearchNodeAsync(IRuntimeContext runtimeContext, ITargetAnchorable target, CancellationToken token)
+   at UiPath.UIAutomationNext.Activities.NGetText.ExecuteAsync(AsyncCodeActivityContext context, CancellationToken token)
+   at UiPath.Shared.Activities.AsyncTaskCodeActivityImplementation.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
+   at UiPath.Shared.Activities.AsyncTaskCodeActivity.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
+   at UiPath.Shared.Activities.ContinuableAsyncCodeActivity.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/ted-baker-peacoat-fqgpw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/pajar-parka-foewm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/unsigned-animal-print-faux-fur-coat-fm96a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System.IO.IOException: The process cannot access the file 'C:\Users\Dell\Documents\UiPath\Extraction\assets\output_file.xlsx' because it is being used by another process.
+   at Microsoft.Win32.SafeHandles.SafeFileHandle.CreateFile(String fullPath, FileMode mode, FileAccess access, FileShare share, FileOptions options)
+   at Microsoft.Win32.SafeHandles.SafeFileHandle.Open(String fullPath, FileMode mode, FileAccess access, FileShare share, FileOptions options, Int64 preallocationSize)
+   at System.IO.Strategies.OSFileStreamStrategy..ctor(String path, FileMode mode, FileAccess access, FileShare share, FileOptions options, Int64 preallocationSize)
+   at System.IO.Strategies.FileStreamHelpers.ChooseStrategy(FileStream fileStream, String path, FileMode mode, FileAccess access, FileShare share, Int32 bufferSize, FileOptions options, Int64 preallocationSize)
+   at System.IO.FileStream..ctor(String path, FileMode mode, FileAccess access, FileShare share)
+   at System.IO.Packaging.ZipPackage..ctor(String path, FileMode packageFileMode, FileAccess packageFileAccess, FileShare share)
+   at System.IO.Packaging.Package.Open(String path, FileMode packageMode, FileAccess packageAccess, FileShare packageShare)
+   at DocumentFormat.OpenXml.Packaging.OpenXmlPackage.OpenCore(String path, Boolean readWriteMode)
+   at DocumentFormat.OpenXml.Packaging.SpreadsheetDocument.Open(String path, Boolean isEditable, OpenSettings openSettings)
+   at DocumentFormat.OpenXml.Packaging.SpreadsheetDocument.Open(String path, Boolean isEditable)
+   at ClosedXML.Excel.XLWorkbook.LoadSheets(String fileName) in C:\projects\closedxml\ClosedXML\Excel\XLWorkbook_Load.cs:line 42
+   at ClosedXML.Excel.XLWorkbook.Load(String file) in C:\projects\closedxml\ClosedXML\Excel\XLWorkbook_Load.cs:line 32
+   at ClosedXML.Excel.XLWorkbook..ctor(String file, XLEventTracking eventTracking) in C:\projects\closedxml\ClosedXML\Excel\XLWorkbook.cs:line 717
+   at ClosedXML.Excel.XLWorkbook..ctor(String file) in C:\projects\closedxml\ClosedXML\Excel\XLWorkbook.cs:line 707
+   at UiPath.Excel.WorkbookFile.InitializeExistingWorbookFile()
+   at UiPath.Excel.WorkbookFile..ctor(String workbookPath, String password, Boolean createNew)
+   at UiPath.Excel.Activities.WorkbookActivity`1.ConstructWorkbook(String path, String password, Boolean createNew)
+   at UiPath.Excel.Activities.WorkbookActivity`1.BeginExecute(AsyncCodeActivityContext context, AsyncCallback callback, Object state)
+   at System.Activities.AsyncCodeActivity.InternalExecute(ActivityInstance instance, ActivityExecutor executor, BookmarkManager bookmarkManager)
+   at System.Activities.ActivityInstance.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)
+   at System.Activities.Runtime.ActivityExecutor.ExecuteActivityWorkItem.ExecuteBody(ActivityExecutor executor, BookmarkManager bookmarkManager, Location resultLocation)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/isabel-marant-trench-coat-flmet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System.IO.IOException: The process cannot access the file 'C:\Users\Dell\Documents\UiPath\Extraction\assets\output_file.xlsx' because it is being used by another process.
+   at Microsoft.Win32.SafeHandles.SafeFileHandle.CreateFile(String fullPath, FileMode mode, FileAccess access, FileShare share, FileOptions options)
+   at Microsoft.Win32.SafeHandles.SafeFileHandle.Open(String fullPath, FileMode mode, FileAccess access, FileShare share, FileOptions options, Int64 preallocationSize)
+   at System.IO.Strategies.OSFileStreamStrategy..ctor(String path, FileMode mode, FileAccess access, FileShare share, FileOptions options, Int64 preallocationSize)
+   at System.IO.Strategies.FileStreamHelpers.ChooseStrategy(FileStream fileStream, String path, FileMode mode, FileAccess access, FileShare share, Int32 bufferSize, FileOptions options, Int64 preallocationSize)
+   at System.IO.FileStream..ctor(String path, FileMode mode, FileAccess access, FileShare share)
+   at System.IO.Packaging.ZipPackage..ctor(String path, FileMode packageFileMode, FileAccess packageFileAccess, FileShare share)
+   at System.IO.Packaging.Package.Open(String path, FileMode packageMode, FileAccess packageAccess, FileShare packageShare)
+   at DocumentFormat.OpenXml.Packaging.OpenXmlPackage.OpenCore(String path, Boolean readWriteMode)
+   at DocumentFormat.OpenXml.Packaging.SpreadsheetDocument.Open(String path, Boolean isEditable, OpenSettings openSettings)
+   at DocumentFormat.OpenXml.Packaging.SpreadsheetDocument.Open(String path, Boolean isEditable)
+   at ClosedXML.Excel.XLWorkbook.LoadSheets(String fileName) in C:\projects\closedxml\ClosedXML\Excel\XLWorkbook_Load.cs:line 42
+   at ClosedXML.Excel.XLWorkbook.Load(String file) in C:\projects\closedxml\ClosedXML\Excel\XLWorkbook_Load.cs:line 32
+   at ClosedXML.Excel.XLWorkbook..ctor(String file, XLEventTracking eventTracking) in C:\projects\closedxml\ClosedXML\Excel\XLWorkbook.cs:line 717
+   at ClosedXML.Excel.XLWorkbook..ctor(String file) in C:\projects\closedxml\ClosedXML\Excel\XLWorkbook.cs:line 707
+   at UiPath.Excel.WorkbookFile.InitializeExistingWorbookFile()
+   at UiPath.Excel.WorkbookFile..ctor(String workbookPath, String password, Boolean createNew)
+   at UiPath.Excel.Activities.WorkbookActivity`1.ConstructWorkbook(String path, String password, Boolean createNew)
+   at UiPath.Excel.Activities.WorkbookActivity`1.BeginExecute(AsyncCodeActivityContext context, AsyncCallback callback, Object state)
+   at System.Activities.AsyncCodeActivity.InternalExecute(ActivityInstance instance, ActivityExecutor executor, BookmarkManager bookmarkManager)
+   at System.Activities.Runtime.ActivityExecutor.ExecuteActivityWorkItem.ExecuteBody(ActivityExecutor executor, BookmarkManager bookmarkManager, Location resultLocation)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-fur-coat-w-tags-fpm71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/monse-trench-coat-w-tags-fh9fh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-parka-fj4vd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/s-max-mara-virgin-wool-coat-fbppe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
+Possible solutions:
+ •  Ensure application is opened and the UI element is visible on the screen at execution time
+ •  Edit the Target of the UI activity and use Validation to debug the issue.
+ •  If needed, re-indicate the element as its properties might have changed
+ •  Use "Check state" activity to check the application state before executing the action
+ •  Increase the "Delay before" value to allow time to the application to render entirely and become responsive
+   at UiPath.UIAutomationNext.Activities.TargetCommonLogic.GetSearchResultAsync(IRuntimeContext runtimeContext, ITargetAnchorable target, CancellationToken token)
+   at UiPath.UIAutomationNext.Activities.TargetBase.SearchNodeAsync(IRuntimeContext runtimeContext, ITargetAnchorable target, CancellationToken token)
+   at UiPath.UIAutomationNext.Activities.NGetText.ExecuteAsync(AsyncCodeActivityContext context, CancellationToken token)
+   at UiPath.Shared.Activities.AsyncTaskCodeActivityImplementation.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
+   at UiPath.Shared.Activities.AsyncTaskCodeActivity.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
+   at UiPath.Shared.Activities.ContinuableAsyncCodeActivity.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
+   at System.Activities.AsyncCodeActivity.System.Activities.IAsyncCodeActivity.FinishExecution(AsyncCodeActivityContext context, IAsyncResult result)
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/luisa-spagnoli-virgin-wool-peacoat-fdesk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/saint-laurent-peacoat-f7ziz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/intermix-plaid-print-coat-ffsgw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/frances-valentine-animal-print-faux-fur-coat-w-tags-fl7mv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/sandro-coat-f1fx9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/fendi-fur-coat-ffwz6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/parajumpers-parka-ffhvy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-down-coat-flv2t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/the-north-face-parka-fkg31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/moncler-vintage-down-coat-f78kt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-trench-coat-fivha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/yves-saint-laurent-rive-gauche-vintage-2001-trench-coat-fbmrh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-trench-coat-w-tags-fhiqn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/leonard-vintage-1980-s-evening-jacket-fctqr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/louis-vuitton-2020-silk-trench-coat-w-tags-fa2p4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/etoile-isabel-marant-virgin-wool-peacoat-f8nok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/birger-christensen-lambswool-faux-fur-coat-fgs9g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/rains-trench-coat-faqgy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/max-mara-vintage-virgin-wool-peacoat-f49o9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/kate-spade-new-york-peacoat-fdhv0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/michele-negri-shearling-fur-coat-d0d6s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/missoni-plaid-print-faux-fur-coat-ffkl6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/birger-christensen-fur-coat-fjfhm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/belstaff-peacoat-fe8c5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-trench-coat-f98b3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/chanel-vintage-1999-faux-fur-coat-fbzab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/baum-und-pferdgarten-coat-w-tags-es218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/chloe-virgin-wool-coat-feyd4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/moncler-down-coat-faar8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/ch-carolina-herrera-trench-coat-eratl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/sies-marjan-tweed-pattern-faux-fur-coat-f5ctr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/giorgio-armani-cashmere-coat-f669f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/burberry-trench-coat-f5np1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/hobbs-london-trench-coat-f2x6y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/etoile-isabel-marant-fox-animal-print-fur-coat-eqexo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-peacoat-eg57y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/barbour-coat-f2jcf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/tory-burch-down-coat-ewma5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/yigal-azrouel-coat-euf2l</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/karen-millen-virgin-wool-trench-coat-er44u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/fendi-virgin-wool-peacoat-exojw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/band-of-outsiders-animal-print-faux-fur-coat-eupoj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-parka-eunzx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/sandro-fur-coat-ejht4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/rochas-patterned-coat-est7k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/mackage-down-coat-ed94i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/vince-faux-fur-coat-edutw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/pam-gela-animal-print-faux-fur-coat-e7n9p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/moncler-down-coat-e7j12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/oof-wear-faux-fur-coat-e6dzl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-virgin-wool-peacoat-dtd6h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/michael-kors-coat-de3qp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/dolce-gabbana-wool-coat-dkawm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/sachi-wool-coat-cdlc4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/post-card-parka-ceysw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/opifix-shearling-fur-coat-cddk9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/yves-salomon-down-coat-w-tags-8rv9j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/moncler-parka-fopcl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/herno-down-coat-fv6vc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/vince-coat-fq5yh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/coat-printed-cape-e0nno</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/a-l-c-trench-coat-fn9la</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/avec-les-filles-faux-fur-coat-w-tags-fwxb5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/kate-spade-new-york-trench-coat-w-tags-fwx54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/soia-kyo-coat-fwx2n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/soia-kyo-coat-fwwzf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/max-mara-cashmere-coat-fwuzu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/moncler-down-coat-fwkta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/marc-le-bihan-coat-fwjt6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/akris-punto-trench-coat-fwjdz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/london-fog-trench-coat-fwg1a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/donna-karan-faux-fur-coat-fwfh4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/giorgio-armani-coat-fweq0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/utzon-reversible-lambskin-faux-fur-coat-fwcoi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/etoile-isabel-marant-tweed-pattern-coat-fwbrg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/dries-van-noten-printed-coat-fw9gf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/saga-furs-fur-coat-fw6sk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/herno-coat-fmoh3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/burberry-s-trench-coat-fl9dx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/burberry-trench-coat-w-tags-fvg6e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/la-doublej-printed-coat-w-tags-fv8qp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/moncler-down-coat-ftrj8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/fur-shearling-animal-print-fur-coat-fvz48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/moncler-parka-fvugc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-cape-fvuf6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/black-crane-coat-fvch2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/prada-coat-fvar8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/vintage-unbranded-faux-fur-coat-fv9z1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/frame-trench-coat-fv9m1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/prada-virgin-wool-coat-fv0el</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/celine-peacoat-fur79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/dennis-basso-fur-coat-frh5d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/acne-studios-coat-foyxa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/rains-printed-parka-f9uxu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/max-mara-alpaca-faux-fur-coat-fozk9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-cashmere-coat-ftth2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/moncler-genevriette-down-coat-fl2hn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/max-mara-alpaca-faux-fur-coat-frstu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/yves-salomon-reversible-lamb-fur-fur-coat-w-tags-fw85k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/meteo-by-yves-salomon-lambskin-faux-fur-coat-fv3zc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/the-elder-statesman-coat-w-tags-fuye5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/valentino-virgin-wool-graphic-print-coat-fw4t6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-trench-coat-fvggj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/the-row-lambskin-trench-coat-fvgee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/tory-burch-striped-coat-fv2ij</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/burberry-brit-peacoat-fv1a8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-trench-coat-fuguu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/max-mara-virgin-wool-coat-w-tags-ftc6w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/marni-2014-lamb-leather-faux-fur-coat-fu3c5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-peacoat-fpj5r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/weekend-max-mara-parka-fmhb7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/max-mara-camel-hair-trench-coat-fqxxc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/marvin-richards-down-coat-w-tags-fvj6s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/max-mara-virgin-wool-faux-fur-coat-fwfpi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/denimaxx-cape-fwams</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/moncler-moka-down-coat-fwa37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/adrienne-landau-animal-print-fur-coat-fwa28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-cashmere-coat-fw7s1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/max-mara-virgin-wool-peacoat-fvk0k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/etoile-isabel-marant-tweed-pattern-faux-fur-coat-fvjyy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/oblique-creations-coat-fvig3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/blumarine-animal-print-coat-fvg9i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/momoni-faux-fur-coat-fvace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/lafayette-148-tweed-pattern-faux-fur-coat-fv1lu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/mackage-coat-fv0ne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/bonwit-teller-fur-coat-fuxa7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/burberry-prorsum-peacoat-fu7ju</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/gucci-wool-w-tags-c57pf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/calvin-klein-collection-2013-animal-print-trench-coat-fvk4q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/msgm-coat-w-tags-fvmwe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/derek-lam-virgin-wool-coat-fvwuu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/costume-national-trench-coat-fvs95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/a-l-c-faux-fur-coat-fpx5q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/akris-x-bergdorf-goodman-cashmere-coat-fi6lb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/maje-cape-fj4q3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/moncler-bady-down-coat-w-tags-fq8c4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/valentino-parka-fvazk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/max-mara-virgin-wool-coat-fv8pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/moncler-tinuv-down-coat-fv880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/narciso-rodriguez-leather-fur-coat-fv7r0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/mackage-fur-coat-ftjoo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/max-mara-studio-fur-coat-fqxa5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/acne-studios-down-coat-fmmj1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/vivienne-hu-tweed-pattern-coat-w-tags-fvtaz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/chloe-2019-virgin-wool-cape-w-tags-fttg5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/duvetica-faux-fur-coat-fvv3v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/burberry-s-lambswool-trench-coat-fvi4i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/burberry-brit-coat-fvemr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/saks-potts-shearling-fur-coat-frllj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/mackage-down-coat-fya2c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/soia-kyo-parka-fw0l5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/maison-martin-margiela-vintage-2004-coat-ffrfe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/alexander-mcqueen-trench-coat-ff79b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/rebecca-taylor-animal-print-faux-fur-coat-fw27r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/isabel-marant-plaid-print-coat-fw11a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/unsigned-mink-fur-coat-fhb4n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/jacket-coat-eeohj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/coat-leather-fur-coat-e7vu8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/blk-dnm-peacoat-ft52n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/intuition-paris-lamb-leather-fur-coat-fqdzi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/ralph-lauren-peacoat-ftgv6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/rta-denim-fur-coat-f6epu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/gucci-vintage-leather-jacket-frktk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-utility-jacket-fqy7x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/escada-virgin-wool-plaid-print-blazer-fqwya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/marni-mohair-vest-fqlnh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
+Possible solutions:
+ •  Ensure application is opened and the UI element is visible on the screen at execution time
+ •  Edit the Target of the UI activity and use Validation to debug the issue.
+ •  If needed, re-indicate the element as its properties might have changed
+ •  Use "Check state" activity to check the application state before executing the action
+ •  Increase the "Delay before" value to allow time to the application to render entirely and become responsive
+   at UiPath.UIAutomationNext.Activities.TargetCommonLogic.GetSearchResultAsync(IRuntimeContext runtimeContext, ITargetAnchorable target, CancellationToken token)
+   at UiPath.UIAutomationNext.Activities.TargetBase.SearchNodeAsync(IRuntimeContext runtimeContext, ITargetAnchorable target, CancellationToken token)
+   at UiPath.UIAutomationNext.Activities.NGetText.ExecuteAsync(AsyncCodeActivityContext context, CancellationToken token)
+   at UiPath.Shared.Activities.AsyncTaskCodeActivityImplementation.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
+   at UiPath.Shared.Activities.AsyncTaskCodeActivity.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
+   at UiPath.Shared.Activities.ContinuableAsyncCodeActivity.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,33 +1002,1437 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="14" width="30" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B175"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <x:selection activeCell="A163" sqref="A163"/>
+      <x:selection pane="bottomLeft" activeCell="A163" sqref="A163"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="14" width="30" style="0" customWidth="1"/>
+    <x:col min="15" max="16384" width="9.140625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A16" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A19" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A20" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A22" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A23" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A25" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A26" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A27" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A28" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A29" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A30" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A31" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A32" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A33" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A34" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A35" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A36" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A37" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A38" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A39" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A40" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A41" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A42" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A43" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A44" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A45" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A46" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A47" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A48" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A49" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A50" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A51" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A52" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A53" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A54" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A55" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A56" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A57" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A58" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A59" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A60" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A61" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A62" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A63" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A64" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A65" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A66" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A67" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A68" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A69" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A70" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A71" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A72" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A73" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A74" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A75" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A76" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A77" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A78" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A79" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A80" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A81" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A82" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A83" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A84" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A85" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A86" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A87" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A88" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A89" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A90" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A91" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A92" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A93" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A94" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A95" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A96" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A97" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A98" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A99" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A100" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A101" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A102" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A103" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A104" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A105" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A106" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A107" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A108" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A109" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A110" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A111" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A112" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A113" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A114" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A115" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A116" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A117" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A118" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A119" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A120" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A121" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A122" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A123" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A124" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A125" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A126" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A127" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A128" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A129" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A130" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A131" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A132" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A133" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A134" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A135" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A136" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A137" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A138" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A139" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A140" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A141" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A142" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A143" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A144" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A145" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A146" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A147" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A148" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A149" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A150" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A151" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A152" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A153" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A154" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A155" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A156" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A157" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A158" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A159" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A160" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A161" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A162" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A163" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A164" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A165" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A166" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A167" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A168" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A169" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A170" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A171" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A172" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A173" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A174" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A175" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:14">
+      <x:c r="A177" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B177" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:14">
+      <x:c r="A178" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B178" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:14">
+      <x:c r="A179" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B179" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:14">
+      <x:c r="A180" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B180" s="3" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -631,6 +631,12 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/clothing/jackets/marni-mohair-vest-fqlnh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/dana-stein-fur-jacket-fplib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fp14g</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -2425,7 +2431,23 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B180" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:14">
+      <x:c r="A181" s="0" t="s">
         <x:v>181</x:v>
+      </x:c>
+      <x:c r="B181" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:14">
+      <x:c r="A182" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B182" s="3" t="s">
+        <x:v>183</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -637,6 +637,165 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fp14g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/pendleton-virgin-wool-biker-jacket-f76bm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/marcell-von-berlin-lambskin-biker-jacket-w-tags-ftm6o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/capulet-ddusv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/weekend-max-mara-virgin-wool-jacket-fz2ch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/sandro-faux-fur-jacket-fr4pn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-2022-damier-azur-denim-jacket-f9iuh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-virgin-wool-blazer-ftqa4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-tweed-pattern-jacket-fmx6c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/alberto-makali-fox-fur-jacket-fpnoe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-floral-print-blazer-fritm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/akris-plaid-print-blazer-fr0i5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-ftnaw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/jil-sander-navy-lamb-leather-evening-jacket-frn4l</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/mother-jacket-fnpsq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-utility-jacket-fmwwh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/diane-von-furstenberg-tweed-pattern-evening-jacket-w-tags-fpftk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-printed-faux-fur-jacket-w-tags-fkm2b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-fur-printed-fur-jacket-fi5i6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/sprwmn-leather-blazer-fhqws</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-cashmere-blazer-fw9fa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/hyein-seo-vest-w-tags-fvqyo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-virgin-wool-blazer-fvpt0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-virgin-wool-blazer-fvfwk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fve2e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-jacket-w-tags-fv8uh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-goat-leather-biker-jacket-fv6co</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/st-john-couture-evening-jacket-w-tags-fv6p2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/st-john-couture-patterned-evening-jacket-fv6kd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/michael-kors-collection-virgin-wool-blazer-fuwvh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/apparis-tweed-pattern-jacket-fuvq6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/escada-tweed-pattern-jacket-fw732</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/perfecto-brand-by-schott-nyc-leather-biker-jacket-fw4dw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/moncler-2016-down-jacket-fw12w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/reformation-biker-jacket-fvhfy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-evening-jacket-fvg0x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-plaid-print-faux-fur-jacket-fvfgo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-faux-fur-jacket-fveog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/marni-evening-jacket-fv3pa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/vanessa-bruno-faux-fur-jacket-fuwp5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/oscar-de-la-renta-2013-silk-evening-jacket-ftsta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/etro-floral-print-down-jacket-fthki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/bisang-alpine-bolero-fr1wb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/ganni-floral-print-evening-jacket-fpmpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/gerard-darel-suede-blazer-fpv5v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/acne-studios-jacket-fyzfp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-leather-biker-jacket-w-tags-fm1qq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/akris-cashmere-blazer-fro0p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-shearling-jacket-fqapb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2019-printed-blazer-fkemu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-blazer-fo0sw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/valentino-sub-zero-couture-fur-jacket-flx48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/marc-jacobs-colorblock-pattern-bomber-jacket-fv073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/tory-burch-blazer-fs0np</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -1012,7 +1171,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B175"/>
+  <x:dimension ref="A1:B233"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -2402,52 +2561,476 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="177" spans="1:14">
+    <x:row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A177" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="B177" s="3" t="s">
+      <x:c r="B177" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="178" spans="1:14">
+    <x:row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A178" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="B178" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="179" spans="1:14">
+      <x:c r="B178" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A179" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
-      <x:c r="B179" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="180" spans="1:14">
+      <x:c r="B179" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A180" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="B180" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="181" spans="1:14">
+      <x:c r="B180" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A181" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="B181" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="182" spans="1:14">
+      <x:c r="B181" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A182" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="B182" s="3" t="s">
+      <x:c r="B182" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A184" s="0" t="s">
         <x:v>183</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A185" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A186" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A187" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A188" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A189" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A190" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A191" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A192" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A193" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A194" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A195" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A196" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A197" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A198" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A199" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A200" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A201" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A202" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A203" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A204" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A205" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A206" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A207" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A208" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A209" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A210" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A211" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A212" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A213" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A214" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A215" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A216" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A217" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A218" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A219" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A220" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B220" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A221" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A222" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A223" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A224" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A225" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A226" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A227" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A228" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A229" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A230" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A231" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A232" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A233" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="235" spans="1:14">
+      <x:c r="A235" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B235" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="236" spans="1:14">
+      <x:c r="A236" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B236" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="237" spans="1:14">
+      <x:c r="A237" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B237" s="3" t="s">
+        <x:v>236</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="478">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="652">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -1519,6 +1519,528 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/clothing/dresses/retrofete-cowl-neck-mini-dress-fwb6z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/ba-sh-animal-print-mini-dress-fwata</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/ba-sh-crew-neck-midi-length-dress-fwaqc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/victoria-beckham-mock-neck-mini-dress-fw9cu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/sandro-mini-dress-fw8jk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/jigsaw-striped-knee-length-dress-fw8b6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/reformation-scoop-neck-midi-length-dress-fw78n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/versace-collection-printed-mini-dress-fvoos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/3-1-phillip-lim-crew-neck-long-dress-fvmuk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/jonathan-simkhai-crew-neck-mini-dress-fvmck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/diane-von-furstenberg-polka-dot-print-long-dress-fvl5j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/sue-wong-silk-long-dress-fvkgp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/ieena-for-mac-duggal-v-neck-long-dress-fv8yz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/album-di-famiglia-bateau-neckline-knee-length-dress-fv6ef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/raquel-allegra-crew-neck-long-dress-fv5rb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/mac-duggal-lace-pattern-long-dress-w-tags-fpz2d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/for-love-lemons-floral-print-mini-dress-ftamr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/issey-miyake-printed-mini-dress-w-tags-fn7wn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/ema-savahl-printed-mini-dress-fulcb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/la-perla-silk-midi-length-dress-fuj5v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/helmut-lang-colorblock-pattern-midi-length-dress-fud1g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/missoni-printed-long-dress-fucmv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/diane-von-furstenberg-silk-mini-dress-fu8zj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/ulla-johnson-floral-print-knee-length-dress-ftvcg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/reformation-floral-print-midi-length-dress-ftm5q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/loro-piana-crew-neck-knee-length-dress-ftkws</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/chanel-vintage-knee-length-dress-ftgx5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/rosie-assoulin-striped-midi-length-dress-fsj7s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/kate-spade-new-york-silk-knee-length-dress-fryv4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/halston-heritage-one-shoulder-mini-dress-frhx0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/etro-floral-print-mini-dress-frf9g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/alexis-floral-print-mini-dress-fpcdj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/realisation-par-silk-mini-dress-bu6gy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/zimmermann-v-neck-long-dress-fm1r5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/alexander-mcqueen-crew-neck-knee-length-dress-fphgq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/xirena-v-neck-midi-length-dress-ftjtc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/milly-silk-midi-length-dress-fou3m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/etro-paisley-print-long-dress-ftr5o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/vivienne-westwood-asymmetrical-midi-length-dress-fn9d0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/rene-ruiz-off-the-shoulder-long-dress-fizfr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/ulla-johnson-floral-print-long-dress-fdc17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/la-petite-robe-di-chiara-boni-v-neck-mini-dress-w-tags-fs3qm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/cut25-by-yigal-azrouel-silk-knee-length-dress-fo3fm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/etoile-isabel-marant-mock-neck-mini-dress-fljlm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/diane-von-furstenberg-asymmetrical-long-dress-fpeoe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/issey-miyake-vintage-knee-length-dress-flktj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/narciso-rodriguez-cowl-neck-midi-length-dress-fpa06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/matin-paisley-print-long-dress-fnbus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/lanvin-printed-midi-length-dress-fvd37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/roberto-cavalli-virgin-wool-mini-dress-w-tags-fv680</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/lanvin-crew-neck-knee-length-dress-fv25l</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/casablanca-strapless-long-dress-w-tags-foxec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/zac-posen-printed-knee-length-dress-fw23h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/monse-striped-long-dress-fvlde</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/halston-heritage-floral-print-long-dress-fvjv2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/alice-olivia-silk-long-dress-fvg64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/caroline-constas-silk-long-dress-fvd77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/vince-halterneck-knee-length-dress-fv70c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-square-neckline-knee-length-dress-fv6bm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/derek-lam-10-crosby-square-neckline-midi-length-dress-fv63v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/emilia-wickstead-v-neck-midi-length-dress-fv5zp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/self-portrait-floral-print-knee-length-dress-fuqg3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/rene-ruiz-silk-long-dress-funx5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/hemanta-nandita-floral-print-long-dress-fuic7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/dolce-gabbana-floral-print-mini-dress-frhf0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/jacquemus-halterneck-mini-dress-fqx12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/la-femme-v-neck-long-dress-fogo1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/dolce-gabbana-floral-print-knee-length-dress-feh5r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/sandro-patterned-mini-dress-fou31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/chanel-2014-knee-length-dress-w-tags-fi8qg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/helmut-lang-turtleneck-knee-length-dress-fhp2r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/ulla-johnson-printed-knee-length-dress-w-tags-fqy05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/badgley-mischka-strapless-long-dress-fjeii</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/veronica-beard-silk-mini-dress-frspx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/staud-v-neck-long-dress-fmmrp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/parker-silk-long-dress-fnndt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/cinq-a-sept-silk-knee-length-dress-w-tags-fvvww</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/mac-duggal-one-shoulder-long-dress-w-tags-frgnj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/narciso-rodriguez-colorblock-pattern-midi-length-dress-fwdol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/lafayette-148-printed-midi-length-dress-fw7tl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-crew-neck-knee-length-dress-fw67v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/vince-bateau-neckline-mini-dress-fvvl5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/isabel-marant-merino-wool-knee-length-dress-fvnxd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/victoria-beckham-mock-neck-long-dress-fvlcw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/zac-posen-halterneck-long-dress-fvk1r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/st-john-collection-silk-midi-length-dress-fvg8n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/halston-heritage-halterneck-long-dress-fv8hj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/jay-godfrey-silk-long-dress-fv6oy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/zimmermann-v-neck-mini-dress-fs5vi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/mac-duggal-v-neck-long-dress-ftyhm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/chloe-virgin-wool-mini-dress-fnw1g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/cinq-a-sept-off-the-shoulder-mini-dress-fjx4j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/alaia-virgin-wool-knee-length-dress-fr0sg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/sandro-crew-neck-mini-dress-fp4du</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/lafayette-148-scoop-neck-midi-length-dress-w-tags-fwclr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/lanvin-crew-neck-long-dress-fvop6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/a-l-c-plunge-neckline-long-dress-w-tags-fv493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/herve-leger-scoop-neck-long-dress-w-tags-fv1e8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-long-dress-w-tags-fua70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/sachin-babi-strapless-midi-length-dress-ft84e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/diane-von-furstenberg-silk-midi-length-dress-fwm1f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/diane-von-furstenberg-silk-mini-dress-fwljj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-scoop-neck-knee-length-dress-fwhu8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/vera-wang-silk-midi-length-dress-fvlh5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/herve-leger-vintage-long-dress-fvjkd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/diane-von-furstenberg-silk-long-dress-fv2f3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/acheval-pampa-off-the-shoulder-knee-length-dress-fu98b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/ann-mashburn-striped-long-dress-ftfel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/zac-posen-one-shoulder-long-dress-w-tags-fg20h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/reformation-off-the-shoulder-mini-dress-fmq88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/nili-lotan-silk-midi-length-dress-fuhtp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/jovani-v-neck-mini-dress-fgir0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/max-mara-studio-bateau-neckline-knee-length-dress-fpkpx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/maria-lucia-hohan-silk-long-dress-w-tags-frajk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/tibi-strapless-knee-length-dress-fuf8s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/joslin-v-neck-long-dress-funtc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/junya-watanabe-comme-des-garcons-2020-knee-length-dress-w-tags-fqdjd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/alice-olivia-floral-print-mini-dress-fvvu9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/paule-ka-crew-neck-midi-length-dress-fvv3m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/neiman-marcus-turtleneck-knee-length-dress-fvi95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/narciso-rodriguez-v-neck-midi-length-dress-fuy6f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/loro-piana-cashmere-midi-length-dress-fuwz5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/milly-silk-mini-dress-fuika</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/iro-cowl-neck-mini-dress-fu1c9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/three-graces-striped-long-dress-ftk7i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/giorgio-armani-v-neck-knee-length-dress-ftcob</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/t-by-alexander-wang-v-neck-knee-length-dress-fr0c4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/intermix-halterneck-long-dress-d9ymt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/chanel-vintage-long-dress-fnzdv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/hache-striped-mini-dress-fqnez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/brunello-cucinelli-v-neck-midi-length-dress-fo43w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/norma-kamali-one-shoulder-long-dress-fg603</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/vince-silk-knee-length-dress-fpdjv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/herve-leger-lace-pattern-mini-dress-w-tags-fvrye</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/nike-x-jacquemus-crew-neck-mini-dress-fu54y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/saint-laurent-2019-mini-dress-w-tags-fu4ka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/derek-lam-10-crosby-floral-print-long-dress-fw0aa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/ba-sh-printed-mini-dress-fvzba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/sandro-crew-neck-mini-dress-fvz7d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/dolce-gabbana-floral-print-mini-dress-fvj53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/milly-scoop-neck-mini-dress-fvhza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/reformation-turtleneck-mini-dress-fvhen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/cinq-a-sept-square-neckline-knee-length-dress-fv9pi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/shushu-tong-crew-neck-knee-length-dress-fv7vb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/allsaints-v-neck-mini-dress-fv7qu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/diane-von-furstenberg-v-neck-knee-length-dress-fv3ks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/diane-von-furstenberg-v-neck-mini-dress-fuqai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/aje-striped-mini-dress-fu81r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/mm6-maison-margiela-turtleneck-knee-length-dress-fnlwd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/monique-lhuillier-floral-print-long-dress-fr9ia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/see-by-chloe-crew-neck-midi-length-dress-fdpgs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/fendi-silk-long-dress-fpjl1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/agua-bendita-square-neckline-mini-dress-ft09k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/haute-hippie-floral-print-long-dress-ft8av</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/t-by-alexander-wang-merino-wool-midi-length-dress-fst86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/a-l-c-silk-midi-length-dress-fnbd1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/roksanda-crew-neck-midi-length-dress-fnrlr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/rachel-zoe-v-neck-long-dress-fohaz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/roberto-cavalli-v-neck-long-dress-fsdzd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/gucci-interlocking-gg-mini-dress-w-tags-fv6i4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/ted-baker-crew-neck-midi-length-dress-fvpci</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/marc-by-marc-jacobs-silk-mini-dress-fvn2i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/joie-v-neck-mini-dress-fvgzf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/yves-saint-laurent-silk-midi-length-dress-fvczw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/donna-karan-v-neck-long-dress-fv906</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/ciao-lucia-square-neckline-mini-dress-fv297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/zero-maria-cornejo-silk-knee-length-dress-fu1t7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/lafayette-148-bateau-neckline-mini-dress-ftuhh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/alice-olivia-mini-dress-ftrdl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/kenzo-printed-mini-dress-ftl2y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/roberto-cavalli-vintage-knee-length-dress-fs5rv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/rick-owens-v-neck-midi-length-dress-fe4fa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/roland-mouret-one-shoulder-long-dress-foqdv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/alice-olivia-lace-pattern-mini-dress-fl9vm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/dolce-gabbana-vintage-mini-dress-fkvpv</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -5681,7 +6203,1407 @@
         <x:v>476</x:v>
       </x:c>
       <x:c r="B480" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="482" spans="1:14">
+      <x:c r="A482" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="B482" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="484" spans="1:14">
+      <x:c r="A484" s="0" t="s">
         <x:v>477</x:v>
+      </x:c>
+      <x:c r="B484" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="485" spans="1:14">
+      <x:c r="A485" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="B485" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="486" spans="1:14">
+      <x:c r="A486" s="0" t="s">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c r="B486" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="487" spans="1:14">
+      <x:c r="A487" s="0" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="B487" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="488" spans="1:14">
+      <x:c r="A488" s="0" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="B488" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="489" spans="1:14">
+      <x:c r="A489" s="0" t="s">
+        <x:v>482</x:v>
+      </x:c>
+      <x:c r="B489" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="490" spans="1:14">
+      <x:c r="A490" s="0" t="s">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="B490" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="491" spans="1:14">
+      <x:c r="A491" s="0" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="B491" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="492" spans="1:14">
+      <x:c r="A492" s="0" t="s">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="B492" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="493" spans="1:14">
+      <x:c r="A493" s="0" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="B493" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="494" spans="1:14">
+      <x:c r="A494" s="0" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="B494" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="495" spans="1:14">
+      <x:c r="A495" s="0" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="B495" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="496" spans="1:14">
+      <x:c r="A496" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="B496" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="497" spans="1:14">
+      <x:c r="A497" s="0" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="B497" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="498" spans="1:14">
+      <x:c r="A498" s="0" t="s">
+        <x:v>491</x:v>
+      </x:c>
+      <x:c r="B498" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="499" spans="1:14">
+      <x:c r="A499" s="0" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="B499" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="500" spans="1:14">
+      <x:c r="A500" s="0" t="s">
+        <x:v>493</x:v>
+      </x:c>
+      <x:c r="B500" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="501" spans="1:14">
+      <x:c r="A501" s="0" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="B501" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="502" spans="1:14">
+      <x:c r="A502" s="0" t="s">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c r="B502" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="503" spans="1:14">
+      <x:c r="A503" s="0" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="B503" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="504" spans="1:14">
+      <x:c r="A504" s="0" t="s">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c r="B504" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="505" spans="1:14">
+      <x:c r="A505" s="0" t="s">
+        <x:v>498</x:v>
+      </x:c>
+      <x:c r="B505" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="506" spans="1:14">
+      <x:c r="A506" s="0" t="s">
+        <x:v>499</x:v>
+      </x:c>
+      <x:c r="B506" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="507" spans="1:14">
+      <x:c r="A507" s="0" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="B507" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="508" spans="1:14">
+      <x:c r="A508" s="0" t="s">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c r="B508" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="509" spans="1:14">
+      <x:c r="A509" s="0" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="B509" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="510" spans="1:14">
+      <x:c r="A510" s="0" t="s">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="B510" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="511" spans="1:14">
+      <x:c r="A511" s="0" t="s">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="B511" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="512" spans="1:14">
+      <x:c r="A512" s="0" t="s">
+        <x:v>505</x:v>
+      </x:c>
+      <x:c r="B512" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="513" spans="1:14">
+      <x:c r="A513" s="0" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="B513" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="514" spans="1:14">
+      <x:c r="A514" s="0" t="s">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c r="B514" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="515" spans="1:14">
+      <x:c r="A515" s="0" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="B515" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="516" spans="1:14">
+      <x:c r="A516" s="0" t="s">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c r="B516" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="517" spans="1:14">
+      <x:c r="A517" s="0" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="B517" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="518" spans="1:14">
+      <x:c r="A518" s="0" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="B518" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="519" spans="1:14">
+      <x:c r="A519" s="0" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="B519" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="520" spans="1:14">
+      <x:c r="A520" s="0" t="s">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c r="B520" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="521" spans="1:14">
+      <x:c r="A521" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="B521" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="522" spans="1:14">
+      <x:c r="A522" s="0" t="s">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c r="B522" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="523" spans="1:14">
+      <x:c r="A523" s="0" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="B523" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="524" spans="1:14">
+      <x:c r="A524" s="0" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="B524" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="525" spans="1:14">
+      <x:c r="A525" s="0" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="B525" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="526" spans="1:14">
+      <x:c r="A526" s="0" t="s">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c r="B526" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="527" spans="1:14">
+      <x:c r="A527" s="0" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="B527" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="528" spans="1:14">
+      <x:c r="A528" s="0" t="s">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c r="B528" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="529" spans="1:14">
+      <x:c r="A529" s="0" t="s">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c r="B529" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="530" spans="1:14">
+      <x:c r="A530" s="0" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="B530" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="531" spans="1:14">
+      <x:c r="A531" s="0" t="s">
+        <x:v>524</x:v>
+      </x:c>
+      <x:c r="B531" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="532" spans="1:14">
+      <x:c r="A532" s="0" t="s">
+        <x:v>525</x:v>
+      </x:c>
+      <x:c r="B532" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="533" spans="1:14">
+      <x:c r="A533" s="0" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="B533" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="534" spans="1:14">
+      <x:c r="A534" s="0" t="s">
+        <x:v>527</x:v>
+      </x:c>
+      <x:c r="B534" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="535" spans="1:14">
+      <x:c r="A535" s="0" t="s">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="B535" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="536" spans="1:14">
+      <x:c r="A536" s="0" t="s">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="B536" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="537" spans="1:14">
+      <x:c r="A537" s="0" t="s">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="B537" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="538" spans="1:14">
+      <x:c r="A538" s="0" t="s">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c r="B538" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="539" spans="1:14">
+      <x:c r="A539" s="0" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="B539" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="540" spans="1:14">
+      <x:c r="A540" s="0" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="B540" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="541" spans="1:14">
+      <x:c r="A541" s="0" t="s">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c r="B541" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="542" spans="1:14">
+      <x:c r="A542" s="0" t="s">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c r="B542" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="543" spans="1:14">
+      <x:c r="A543" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="B543" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="544" spans="1:14">
+      <x:c r="A544" s="0" t="s">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c r="B544" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="545" spans="1:14">
+      <x:c r="A545" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="B545" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="546" spans="1:14">
+      <x:c r="A546" s="0" t="s">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="B546" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="547" spans="1:14">
+      <x:c r="A547" s="0" t="s">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="B547" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="548" spans="1:14">
+      <x:c r="A548" s="0" t="s">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="B548" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="549" spans="1:14">
+      <x:c r="A549" s="0" t="s">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="B549" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="550" spans="1:14">
+      <x:c r="A550" s="0" t="s">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c r="B550" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="551" spans="1:14">
+      <x:c r="A551" s="0" t="s">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c r="B551" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="552" spans="1:14">
+      <x:c r="A552" s="0" t="s">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c r="B552" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="553" spans="1:14">
+      <x:c r="A553" s="0" t="s">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c r="B553" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="554" spans="1:14">
+      <x:c r="A554" s="0" t="s">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="B554" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="555" spans="1:14">
+      <x:c r="A555" s="0" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="B555" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="556" spans="1:14">
+      <x:c r="A556" s="0" t="s">
+        <x:v>549</x:v>
+      </x:c>
+      <x:c r="B556" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="557" spans="1:14">
+      <x:c r="A557" s="0" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="B557" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="558" spans="1:14">
+      <x:c r="A558" s="0" t="s">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="B558" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="559" spans="1:14">
+      <x:c r="A559" s="0" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="B559" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="560" spans="1:14">
+      <x:c r="A560" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="B560" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="561" spans="1:14">
+      <x:c r="A561" s="0" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="B561" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="562" spans="1:14">
+      <x:c r="A562" s="0" t="s">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="B562" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="563" spans="1:14">
+      <x:c r="A563" s="0" t="s">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="B563" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="564" spans="1:14">
+      <x:c r="A564" s="0" t="s">
+        <x:v>557</x:v>
+      </x:c>
+      <x:c r="B564" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="565" spans="1:14">
+      <x:c r="A565" s="0" t="s">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="B565" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="566" spans="1:14">
+      <x:c r="A566" s="0" t="s">
+        <x:v>559</x:v>
+      </x:c>
+      <x:c r="B566" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="567" spans="1:14">
+      <x:c r="A567" s="0" t="s">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="B567" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="568" spans="1:14">
+      <x:c r="A568" s="0" t="s">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c r="B568" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="569" spans="1:14">
+      <x:c r="A569" s="0" t="s">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="B569" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="570" spans="1:14">
+      <x:c r="A570" s="0" t="s">
+        <x:v>563</x:v>
+      </x:c>
+      <x:c r="B570" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="571" spans="1:14">
+      <x:c r="A571" s="0" t="s">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="B571" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="572" spans="1:14">
+      <x:c r="A572" s="0" t="s">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c r="B572" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="573" spans="1:14">
+      <x:c r="A573" s="0" t="s">
+        <x:v>566</x:v>
+      </x:c>
+      <x:c r="B573" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="574" spans="1:14">
+      <x:c r="A574" s="0" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="B574" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="575" spans="1:14">
+      <x:c r="A575" s="0" t="s">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c r="B575" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="576" spans="1:14">
+      <x:c r="A576" s="0" t="s">
+        <x:v>569</x:v>
+      </x:c>
+      <x:c r="B576" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="577" spans="1:14">
+      <x:c r="A577" s="0" t="s">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="B577" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="578" spans="1:14">
+      <x:c r="A578" s="0" t="s">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c r="B578" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="579" spans="1:14">
+      <x:c r="A579" s="0" t="s">
+        <x:v>572</x:v>
+      </x:c>
+      <x:c r="B579" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="580" spans="1:14">
+      <x:c r="A580" s="0" t="s">
+        <x:v>573</x:v>
+      </x:c>
+      <x:c r="B580" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="581" spans="1:14">
+      <x:c r="A581" s="0" t="s">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="B581" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="582" spans="1:14">
+      <x:c r="A582" s="0" t="s">
+        <x:v>575</x:v>
+      </x:c>
+      <x:c r="B582" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="583" spans="1:14">
+      <x:c r="A583" s="0" t="s">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c r="B583" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="584" spans="1:14">
+      <x:c r="A584" s="0" t="s">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="B584" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="585" spans="1:14">
+      <x:c r="A585" s="0" t="s">
+        <x:v>578</x:v>
+      </x:c>
+      <x:c r="B585" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="586" spans="1:14">
+      <x:c r="A586" s="0" t="s">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="B586" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="587" spans="1:14">
+      <x:c r="A587" s="0" t="s">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="B587" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="588" spans="1:14">
+      <x:c r="A588" s="0" t="s">
+        <x:v>581</x:v>
+      </x:c>
+      <x:c r="B588" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="589" spans="1:14">
+      <x:c r="A589" s="0" t="s">
+        <x:v>582</x:v>
+      </x:c>
+      <x:c r="B589" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="590" spans="1:14">
+      <x:c r="A590" s="0" t="s">
+        <x:v>583</x:v>
+      </x:c>
+      <x:c r="B590" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="591" spans="1:14">
+      <x:c r="A591" s="0" t="s">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c r="B591" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="592" spans="1:14">
+      <x:c r="A592" s="0" t="s">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="B592" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="593" spans="1:14">
+      <x:c r="A593" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="B593" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="594" spans="1:14">
+      <x:c r="A594" s="0" t="s">
+        <x:v>587</x:v>
+      </x:c>
+      <x:c r="B594" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="595" spans="1:14">
+      <x:c r="A595" s="0" t="s">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="B595" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="596" spans="1:14">
+      <x:c r="A596" s="0" t="s">
+        <x:v>589</x:v>
+      </x:c>
+      <x:c r="B596" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="597" spans="1:14">
+      <x:c r="A597" s="0" t="s">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="B597" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="598" spans="1:14">
+      <x:c r="A598" s="0" t="s">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c r="B598" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="599" spans="1:14">
+      <x:c r="A599" s="0" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="B599" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="600" spans="1:14">
+      <x:c r="A600" s="0" t="s">
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="B600" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="601" spans="1:14">
+      <x:c r="A601" s="0" t="s">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="B601" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="602" spans="1:14">
+      <x:c r="A602" s="0" t="s">
+        <x:v>595</x:v>
+      </x:c>
+      <x:c r="B602" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="603" spans="1:14">
+      <x:c r="A603" s="0" t="s">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="B603" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="604" spans="1:14">
+      <x:c r="A604" s="0" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="B604" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="605" spans="1:14">
+      <x:c r="A605" s="0" t="s">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c r="B605" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="606" spans="1:14">
+      <x:c r="A606" s="0" t="s">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="B606" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="607" spans="1:14">
+      <x:c r="A607" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="B607" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="608" spans="1:14">
+      <x:c r="A608" s="0" t="s">
+        <x:v>601</x:v>
+      </x:c>
+      <x:c r="B608" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="609" spans="1:14">
+      <x:c r="A609" s="0" t="s">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="B609" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="610" spans="1:14">
+      <x:c r="A610" s="0" t="s">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c r="B610" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="611" spans="1:14">
+      <x:c r="A611" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="B611" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="612" spans="1:14">
+      <x:c r="A612" s="0" t="s">
+        <x:v>605</x:v>
+      </x:c>
+      <x:c r="B612" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="613" spans="1:14">
+      <x:c r="A613" s="0" t="s">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="B613" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="614" spans="1:14">
+      <x:c r="A614" s="0" t="s">
+        <x:v>607</x:v>
+      </x:c>
+      <x:c r="B614" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="615" spans="1:14">
+      <x:c r="A615" s="0" t="s">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="B615" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="616" spans="1:14">
+      <x:c r="A616" s="0" t="s">
+        <x:v>609</x:v>
+      </x:c>
+      <x:c r="B616" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="617" spans="1:14">
+      <x:c r="A617" s="0" t="s">
+        <x:v>610</x:v>
+      </x:c>
+      <x:c r="B617" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="618" spans="1:14">
+      <x:c r="A618" s="0" t="s">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="B618" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="619" spans="1:14">
+      <x:c r="A619" s="0" t="s">
+        <x:v>612</x:v>
+      </x:c>
+      <x:c r="B619" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="620" spans="1:14">
+      <x:c r="A620" s="0" t="s">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="B620" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="621" spans="1:14">
+      <x:c r="A621" s="0" t="s">
+        <x:v>614</x:v>
+      </x:c>
+      <x:c r="B621" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="622" spans="1:14">
+      <x:c r="A622" s="0" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="B622" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="623" spans="1:14">
+      <x:c r="A623" s="0" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="B623" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="624" spans="1:14">
+      <x:c r="A624" s="0" t="s">
+        <x:v>617</x:v>
+      </x:c>
+      <x:c r="B624" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="625" spans="1:14">
+      <x:c r="A625" s="0" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="B625" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="626" spans="1:14">
+      <x:c r="A626" s="0" t="s">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c r="B626" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="627" spans="1:14">
+      <x:c r="A627" s="0" t="s">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="B627" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="628" spans="1:14">
+      <x:c r="A628" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="B628" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="629" spans="1:14">
+      <x:c r="A629" s="0" t="s">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c r="B629" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="630" spans="1:14">
+      <x:c r="A630" s="0" t="s">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c r="B630" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="631" spans="1:14">
+      <x:c r="A631" s="0" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="B631" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="632" spans="1:14">
+      <x:c r="A632" s="0" t="s">
+        <x:v>625</x:v>
+      </x:c>
+      <x:c r="B632" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="633" spans="1:14">
+      <x:c r="A633" s="0" t="s">
+        <x:v>626</x:v>
+      </x:c>
+      <x:c r="B633" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="634" spans="1:14">
+      <x:c r="A634" s="0" t="s">
+        <x:v>627</x:v>
+      </x:c>
+      <x:c r="B634" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="635" spans="1:14">
+      <x:c r="A635" s="0" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="B635" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="636" spans="1:14">
+      <x:c r="A636" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="B636" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="637" spans="1:14">
+      <x:c r="A637" s="0" t="s">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="B637" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="638" spans="1:14">
+      <x:c r="A638" s="0" t="s">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="B638" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="639" spans="1:14">
+      <x:c r="A639" s="0" t="s">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="B639" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="640" spans="1:14">
+      <x:c r="A640" s="0" t="s">
+        <x:v>633</x:v>
+      </x:c>
+      <x:c r="B640" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="641" spans="1:14">
+      <x:c r="A641" s="0" t="s">
+        <x:v>634</x:v>
+      </x:c>
+      <x:c r="B641" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="642" spans="1:14">
+      <x:c r="A642" s="0" t="s">
+        <x:v>635</x:v>
+      </x:c>
+      <x:c r="B642" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="643" spans="1:14">
+      <x:c r="A643" s="0" t="s">
+        <x:v>636</x:v>
+      </x:c>
+      <x:c r="B643" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="644" spans="1:14">
+      <x:c r="A644" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="B644" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="645" spans="1:14">
+      <x:c r="A645" s="0" t="s">
+        <x:v>638</x:v>
+      </x:c>
+      <x:c r="B645" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="646" spans="1:14">
+      <x:c r="A646" s="0" t="s">
+        <x:v>639</x:v>
+      </x:c>
+      <x:c r="B646" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="647" spans="1:14">
+      <x:c r="A647" s="0" t="s">
+        <x:v>640</x:v>
+      </x:c>
+      <x:c r="B647" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="648" spans="1:14">
+      <x:c r="A648" s="0" t="s">
+        <x:v>641</x:v>
+      </x:c>
+      <x:c r="B648" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="649" spans="1:14">
+      <x:c r="A649" s="0" t="s">
+        <x:v>642</x:v>
+      </x:c>
+      <x:c r="B649" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="650" spans="1:14">
+      <x:c r="A650" s="0" t="s">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="B650" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="651" spans="1:14">
+      <x:c r="A651" s="0" t="s">
+        <x:v>644</x:v>
+      </x:c>
+      <x:c r="B651" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="652" spans="1:14">
+      <x:c r="A652" s="0" t="s">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c r="B652" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="653" spans="1:14">
+      <x:c r="A653" s="0" t="s">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="B653" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="654" spans="1:14">
+      <x:c r="A654" s="0" t="s">
+        <x:v>647</x:v>
+      </x:c>
+      <x:c r="B654" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="655" spans="1:14">
+      <x:c r="A655" s="0" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="B655" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="656" spans="1:14">
+      <x:c r="A656" s="0" t="s">
+        <x:v>649</x:v>
+      </x:c>
+      <x:c r="B656" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="657" spans="1:14">
+      <x:c r="A657" s="0" t="s">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="B657" s="3" t="s">
+        <x:v>651</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="652">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="1082">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -2041,6 +2041,1312 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/clothing/dresses/dolce-gabbana-vintage-mini-dress-fkvpv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-2015-interlocking-cc-logo-espadrilles-fvpru</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-2014-interlocking-cc-logo-ballet-flats-fx5s8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-2010-ligne-cambon-ballet-flats-fwxxn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-leather-ballet-flats-fwfbr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-vintage-interlocking-cc-logo-flats-fw3pe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-2018-interlocking-cc-logo-espadrilles-fx0fg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-leather-ballet-flats-fxbj5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/stuart-weitzman-bow-accents-loafers-fy781</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-horsebit-accent-suede-loafers-frbo5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/christian-louboutin-lace-trim-embellishment-flats-w-tags-fympf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/celine-leather-loafers-fys5f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-horsebit-accent-canvas-flats-fy0e1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-patent-leather-ballet-flats-fy4kc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/max-mara-patent-leather-fringe-trim-accent-loafers-frtr2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/stuart-weitzman-wool-bow-accents-loafers-fy56n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/aquatalia-suede-loafers-fpfgh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-patent-leather-loafers-ft12d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-python-animal-print-d-orsay-flats-foe83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/robert-clergerie-leather-mules-fchn8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-leather-ballet-flats-flh6r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/balmain-jolie-tweed-flats-fbwjj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/manolo-blahnik-leather-studded-accents-ballet-flats-f6pf0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/ulla-johnson-leather-mules-dvxf7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-patent-leather-crystal-embellishments-loafers-dsl8d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-canvas-printed-espadrilles-fyxca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/aquazzura-suede-pom-pom-embellishments-loafers-fz5ra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-ny-yankees-web-accent-slippers-w-tags-9x6tg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/lanvin-leather-ballet-flats-fwi7z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/loewe-leather-bow-accents-loafers-fxwbr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/khaite-leather-mules-fxaee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/hermes-carlotta-leather-mules-fx59y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-leather-ballet-flats-fxwey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-leather-colorblock-pattern-flats-fywry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/bottega-veneta-intrecciato-weave-leather-loafers-fya75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-gg-logo-canvas-flats-fnpgb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-lv-monogram-canvas-ballet-flats-fxtyx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-interlocking-g-logo-leather-oxfords-w-tags-fy0vw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-2016-embossed-ballet-flats-fxzgu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/aquatalia-leather-flats-w-tags-fxz9r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/aquazzura-suede-bow-accents-flats-fpewm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/aquatalia-suede-loafers-fpaea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/robert-clergerie-leather-fringe-trim-accent-loafers-fnp2t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/the-office-of-angela-scott-leather-loafers-fy0sk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System.InvalidOperationException: Can not assign 'info_tree.Split("/")(1)' to 'gender'.
+ ---&gt; System.IndexOutOfRangeException: Index was outside the bounds of the array.
+   at Namespace_aa74.real_real_data_extraction_Expressions.real_real_data_extraction_Expressions_TypedDataContext5_ForReadOnly.__Expr18Get()
+   at Namespace_aa74.real_real_data_extraction_Expressions.real_real_data_extraction_Expressions_TypedDataContext5_ForReadOnly.ValueType___Expr18Get()
+   at Namespace_aa74.real_real_data_extraction_Expressions.InvokeExpression(Int32 expressionId, IList`1 locations, ActivityContext activityContext)
+   at System.Activities.Expressions.CompiledExpressionInvoker.InvokeExpression(ActivityContext activityContext)
+   at Microsoft.VisualBasic.Activities.VisualBasicValue`1.Execute(CodeActivityContext context)
+   at System.Activities.Runtime.ActivityExecutor.ExecuteInResolutionContext[T](ActivityInstance parentInstance, Activity`1 expressionActivity)
+   at System.Activities.InArgument`1.TryPopulateValue(LocationEnvironment targetEnvironment, ActivityInstance activityInstance, ActivityExecutor executor)
+   at System.Activities.ActivityInstance.InternalTryPopulateArgumentValueOrScheduleExpression(RuntimeArgument argument, Int32 nextArgumentIndex, ActivityExecutor executor, IDictionary`2 argumentValueOverrides, Location resultLocation, Boolean isDynamicUpdate)
+   at System.Activities.ActivityInstance.ResolveArguments(ActivityExecutor executor, IDictionary`2 argumentValueOverrides, Location resultLocation, Int32 startIndex)
+   at System.Activities.Runtime.ActivityExecutor.ExecuteActivityWorkItem.ExecuteBody(ActivityExecutor executor, BookmarkManager bookmarkManager, Location resultLocation)
+   --- End of inner exception stack trace ---
+   at System.Activities.Statements.Throw.Execute(CodeActivityContext context)
+   at System.Activities.CodeActivity.InternalExecute(ActivityInstance instance, ActivityExecutor executor, BookmarkManager bookmarkManager)
+   at System.Activities.ActivityInstance.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)
+   at System.Activities.Runtime.ActivityExecutor.ExecuteActivityWorkItem.ExecuteBody(ActivityExecutor executor, BookmarkManager bookmarkManager, Location resultLocation)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/manolo-blahnik-leather-braided-accents-ballet-flats-fnpmu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-velvet-printed-mules-dt5we</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-lace-trim-embellishment-d600g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/nicholas-kirkwood-casati-d-orsay-leather-d-orsay-flats-fo2th</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tabitha-simmons-leather-mary-jane-flats-fo8yp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-leather-ballet-flats-fspxd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/prada-patent-leather-oxfords-fym5m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-leather-loafers-fycym</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/jimmy-choo-leather-ballet-flats-fydba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/prada-satin-embroidered-accent-loafers-fyret</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/stubbs-wootton-canvas-printed-loafers-fy68r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/birkenstock-suede-mules-fyrak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-gancini-logo-leather-loafers-fmxck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/burberry-nova-check-pattern-canvas-flats-fxl0w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-leather-flats-fvv91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-leather-espadrilles-fx4n7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/the-row-wool-mules-fxf7p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/ted-baker-leather-bow-accents-flats-fxciy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-princetown-gg-nylon-mules-fx6nu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-leather-ballet-flats-fxkcb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/stuart-weitzman-patent-leather-loafers-fwuc3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/rochas-velvet-graphic-print-mules-fwthi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-leather-mules-fx4qu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/ugg-suede-moccasins-w-tags-fws8c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/yves-saint-laurent-leather-loafers-fxpo5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/marsell-suede-flats-fxl81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/marni-leather-loafers-fxc64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/ugg-leather-loafers-fgk2i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/lanvin-satin-ballet-flats-fwpvn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-leather-loafers-fswtg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/valentino-rockstud-accents-patent-leather-flats-fxbp3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-leather-espadrilles-fx0em</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-princetown-horsebit-accent-mules-fxhhg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-lambskin-ballet-flats-fvk9x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/stubbs-wootton-printed-leather-trim-embellishment-loafers-fw3sc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/christian-louboutin-suede-studded-accents-flats-fvyyo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/ugg-suede-fur-trim-mules-fpfva</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-suede-loafers-frfye</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/manolo-blahnik-x-birkenstock-leather-mules-fwtet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/valentino-lambskin-ballet-flats-fyuu0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/hermes-feria-leather-mules-fmr2b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-striped-espadrilles-fwwe6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-leather-loafers-fwp6l</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/ralph-lauren-leather-ballet-flats-fwpgv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/prada-patent-leather-mary-jane-flats-fm9zu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/celine-leather-mules-fqoa5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-2015-interlocking-cc-logo-ballet-flats-fu2h2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/alexander-wang-leather-studded-accents-oxfords-ft7or</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-horsebit-accent-leather-loafers-fptxj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-1953-horsebit-horsebit-accent-loafers-fl45r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/lanvin-leather-colorblock-pattern-ballet-flats-fvjxt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/swedish-hasbeens-leather-mules-fv5zn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/yohji-yamamoto-leather-loafers-ffwa4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/aquatalia-suede-flats-fvqr8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-suede-mules-fte1u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-leather-tassel-accents-loafers-frg21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/hermes-oz-leather-mules-fv3vc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/saint-laurent-leather-espadrilles-fvtqy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-patent-leather-loafers-fw03e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-velvet-ballet-flats-ft2b7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-lambskin-mules-fsqrb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/aquazzura-leather-flats-w-tags-fupv7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-2013-interlocking-cc-logo-ballet-flats-fsr1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chloe-leather-slingback-flats-fv1pb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/ugg-suede-bow-accents-moccasins-fusp7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-leather-ballet-flats-ft3y1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-velvet-loafers-fuyfn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/prada-leather-loafers-ffkb0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-horsebit-accent-leather-loafers-fkiq3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-horsebit-accent-leather-loafers-fvfca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/mystique-velvet-crystal-embellishments-flats-ft56j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-suede-bow-accents-ballet-flats-fvg12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-floral-print-mules-w-tags-fkzr6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-vintage-interlocking-cc-logo-ballet-flats-fptiq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/stella-mccartney-vegetarian-leather-printed-oxfords-fp9s3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-leather-ballet-flats-fmju2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-2016-interlocking-cc-logo-loafers-fgxbq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/vince-suede-d-orsay-flats-fo4gc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-1955-horsebit-accent-leather-loafers-fulji</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-leather-bow-accents-ballet-flats-ftw0o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-nubuck-loafers-ftj66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/saint-laurent-leather-studded-accents-ballet-flats-fu2f1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/lanvin-satin-printed-ballet-flats-ftkmg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/roger-vivier-suede-flats-fu1if</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-leather-mary-jane-flats-fkltp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-patent-leather-ballet-flats-fu3ye</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/prada-leather-animal-print-loafers-fu1nn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-canvas-printed-moccasins-fufc7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/lanvin-suede-loafers-ft59i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-web-accent-leather-loafers-w-tags-fqvwe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-horsebit-accent-patent-leather-loafers-fbg1k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/ulla-johnson-canvas-printed-espadrilles-febb9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/nicholas-kirkwood-leather-oxfords-fkl5j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gianvito-rossi-ponyhair-animal-print-flats-fhldq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/jimmy-choo-suede-flats-fha6a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/malone-souliers-leather-printed-flats-fryd3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/valentino-patent-leather-ballet-flats-ftcwb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-leather-flats-fjza6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/vince-canvas-espadrilles-fl156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-suede-keyhole-accent-ballet-flats-fsdms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-web-accent-suede-loafers-ftrjq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-patent-leather-ballet-flats-frcqb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/joie-suede-ballet-flats-fq2by</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/jimmy-choo-suede-mesh-accents-d-orsay-flats-flzni</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-loafers-fqa74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chloe-suede-scalloped-accent-flats-fqmse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/christian-louboutin-spike-accents-bow-accents-flats-fnhfl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/jimmy-choo-suede-crystal-embellishments-espadrilles-fozmy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/stuart-weitzman-patent-leather-flats-fcfhb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/marni-leather-loafers-fr5aj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/flattered-suede-whipstitch-trim-loafers-fqflf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-leather-loafers-frwer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/valentino-rockstud-accents-leather-espadrilles-fojju</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/roger-vivier-patent-leather-ballet-flats-frv18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/merrell-leather-mules-fslh7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-horsebit-accent-loafers-w-tags-fezbu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/hermes-2011-royal-loafers-fkvvl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/lanvin-leather-grosgrain-trim-ballet-flats-fs0g0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/jimmy-choo-satin-crystal-embellishments-ballet-flats-frk1e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/prada-patent-leather-bow-accents-ballet-flats-fp6ph</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/mansur-gavriel-leather-loafers-foihk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/stuart-weitzman-ponyhair-animal-print-loafers-foefd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/manolo-blahnik-leather-loafers-fnio7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-brixton-skull-horsebit-accent-loafers-fiu7v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/roger-vivier-tweed-tweed-pattern-flats-w-tags-fp6y2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/anya-hindmarch-patent-leather-bow-accents-flats-forri</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-loafers-w-tags-fqx3q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-horsebit-accent-suede-loafers-fr4pz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-leather-loafers-fr05w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/loewe-leather-ballet-flats-ffsip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/repetto-satin-ballet-flats-fqx1j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/prada-leather-loafers-fn6ni</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/roger-vivier-patent-leather-ballet-flats-fnppo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-horsebit-accent-suede-loafers-fft33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-leather-floral-print-mules-ffqmw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-leather-colorblock-pattern-slingback-flats-fbpi2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-patent-leather-mules-fke54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-suede-loafers-fq6v3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-vintage-interlocking-cc-logo-ballet-flats-fm4rw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chloe-leather-ballet-flats-fnjwh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/bruno-magli-leather-flats-fnaua</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/alberta-ferretti-velvet-loafers-fnk5x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/celine-ponyhair-animal-print-ballet-flats-fnaab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/manolo-blahnik-suede-crystal-embellishments-ballet-flats-fo566</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/hunter-rubber-oxfords-fp50s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/martiniano-leather-ballet-flats-fj9sv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-daisy-sport-printed-espadrilles-fjfs4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/malone-souliers-x-deveaux-new-york-leather-printed-mules-fjftm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-leather-loafers-fn5bg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-leather-ballet-flats-fljg8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-patent-leather-colorblock-pattern-flats-fnqk8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-leather-moccasins-fnnjd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/ugg-suede-studded-accents-ballet-flats-fp07m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-horsebit-accent-leather-loafers-frc11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/lanvin-ballet-flats-fnb27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-leather-bow-accents-flats-fn9g0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/3-1-phillip-lim-suede-d-orsay-flats-fnej1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-2014-canvas-espadrilles-fmrhb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/castaner-canvas-colorblock-pattern-espadrilles-fnh8g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chloe-leather-fringe-trim-accent-loafers-fg0c6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-leather-floral-print-mules-f2rgd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/manolo-blahnik-satin-tassel-accents-mules-f245h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-leather-espadrilles-f3bqz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/vince-leather-cutout-accent-d-orsay-flats-fmo24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-snakeskin-ballet-flats-f1c8k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-leather-loafers-fbcxm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-leather-loafers-flws8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/lanvin-suede-animal-print-ballet-flats-fm9ym</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/jimmy-choo-patent-leather-animal-print-ballet-flats-fjbav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/robert-clergerie-loafers-fdacw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/the-office-of-angela-scott-leather-oxfords-fdfun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/jimmy-choo-leather-animal-print-sandals-fi2j1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/robert-clergerie-leather-oxfords-fl5qj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/ann-demeulemeester-suede-flats-fkt9l</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/nicholas-kirkwood-leather-mules-fkaqx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-kingsnake-leather-ballet-flats-f96fz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-satin-flats-ff1wc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/stuart-weitzman-snakeskin-animal-print-flats-ffpkf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/manolo-blahnik-leather-ballet-flats-ffa32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-crystal-embellishments-ballet-flats-f0lg3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/prada-suede-bow-accents-loafers-fbdd7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-horsebit-accent-canvas-loafers-fd3np</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/valentino-rockstud-accents-leather-flats-fir9o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/jil-sander-leather-slingback-flats-fj71q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-leather-oxfords-fitzs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-floral-print-loafers-f1xmk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/stuart-weitzman-suede-loafers-fbcpm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/valentino-studded-accents-flats-fb9tj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chloe-flats-fg35i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/veronica-beard-leather-trim-embellishment-loafers-fhls3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-bamboo-accent-leather-ballet-flats-fj2wi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/prada-leather-loafers-fhv4e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/marsell-suede-flats-fevga</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/lanvin-nylon-ballet-flats-fhylk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-marmont-double-g-logo-pumps-fiu07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chloe-lambskin-scalloped-accent-ballet-flats-fhg53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/stuart-weitzman-suede-studded-accents-ballet-flats-fi5ee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-leather-espadrilles-f6zg3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/charlotte-olympia-suede-studded-accents-loafers-fiz5s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/loewe-leather-loafers-f8902</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/fendi-leather-animal-print-flats-f9btn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-suede-moccasins-ffne9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/fendi-leather-mules-f52r6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/repetto-leather-glitter-accents-flats-fgkh0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/del-toro-velvet-embroidered-accent-loafers-f1ocl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/marsell-suede-flats-feve1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/ugg-shearling-printed-mules-fg4kc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-2019-oxfords-oxfords-fd3wk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/saint-laurent-canvas-embroidered-accent-espadrilles-fdiy0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-leather-espadrilles-favqi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/le-monde-beryl-velvet-loafers-fbdlk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-leather-loafers-w-tags-f9px3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-2013-interlocking-cc-logo-espadrilles-f3tpe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-calf-leather-espadrilles-fbzz4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/hermes-leather-loafers-f6omv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/christian-louboutin-crystal-embellishments-ballet-flats-fe35w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/bottega-veneta-patent-leather-d-orsay-flats-fdwwc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/burberry-prorsum-leather-printed-ballet-flats-fdzi0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/brother-vellies-leather-loafers-f4qz6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/christian-louboutin-suede-grosgrain-trim-ballet-flats-f6xfs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-velvet-crystal-embellishments-ballet-flats-favui</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-leather-espadrilles-faw5b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/manolo-blahnik-plaid-print-crystal-embellishments-flats-fcb7o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/manolo-blahnik-suede-tassel-accents-loafers-fcen7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/prada-suede-mules-fd2x5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gianvito-rossi-leather-slingback-flats-f5e0q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/bottega-veneta-ballet-flats-leather-ballet-flats-f48w1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/sigerson-morrison-leather-oxfords-eyned</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/fendi-leather-bow-accents-ballet-flats-f8hmn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/valentino-rockstud-accents-leather-flats-f7b9t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/stubbs-wootton-printed-loafers-eyq4z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/veronica-beard-suede-mules-f43ro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/valentino-rockstud-accents-leather-mary-jane-flats-f96j1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/celine-leather-loafers-f7cm3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-leather-floral-print-loafers-f9rtp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/pedro-garcia-leather-loafers-f3jfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/iblues-leather-oxfords-es2ff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-patent-leather-loafers-w-tags-f7jvs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/charlotte-olympia-satin-crystal-embellishments-loafers-f6lu5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/rag-bone-leather-flats-f09sa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/robert-clergerie-straw-oxfords-f41x9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-leather-bow-accents-flats-f59mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-horsebit-accent-leather-loafers-erlov</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-interlocking-cc-logo-leather-espadrilles-f2trm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/prada-sport-leather-oxfords-ewz3p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chloe-suede-bow-accents-ballet-flats-f13jh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-patent-leather-flats-f38jv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-2013-interlocking-cc-logo-ballet-flats-eo9r2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-leather-floral-print-espadrilles-ep1gv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-canvas-striped-espadrilles-en9ew</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/agl-leather-ballet-flats-exmrc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/jimmy-choo-colorblock-pattern-glitter-accents-ballet-flats-entkj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/paul-stuart-leather-loafers-ev5e5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/fendi-canvas-colorblock-pattern-espadrilles-erihz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/charlotte-olympia-velvet-embroidered-accent-loafers-er07h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-leather-loafers-elfaq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/loeffler-randall-wool-printed-mules-ern75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/charlotte-olympia-suede-studded-accents-mary-jane-flats-er5nr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-leather-leather-trim-embellishment-loafers-ekybk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/sergio-rossi-leather-bow-accents-ballet-flats-enqq6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/lanvin-snakeskin-animal-print-oxfords-elyn5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/the-row-leather-loafers-eiqx3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/kate-spade-new-york-leather-ballet-flats-el00g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/celine-patent-leather-flats-egnt5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/dolce-gabbana-suede-printed-ballet-flats-ef9fs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-leather-ballet-flats-egtaw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/freda-salvador-leather-animal-print-mary-jane-flats-ehclr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-leather-loafers-efbow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/burberry-patent-leather-plaid-print-ballet-flats-efwdq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/aquazzura-suede-flats-ebbgi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-suede-loafers-edfh3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gia-couture-velvet-pom-pom-embellishments-mules-ef7z0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gianvito-rossi-suede-flats-edhye</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-vara-bow-accent-leather-espadrilles-ebswu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/nicholas-kirkwood-leather-loafers-edkyj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/chanel-2012-interlocking-cc-logo-oxfords-e3isg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/saint-laurent-leather-printed-oxfords-e89wz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-interlocking-g-logo-leather-ballet-flats-eb73e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-leather-printed-espadrilles-e8rm9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/celine-suede-oxfords-e8gbk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/hermes-suede-ballet-flats-e884k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/dorateymur-leather-mules-e873e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/bruno-magli-flats-e6292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/salvatore-ferragamo-leather-loafers-dyp4n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/malone-souliers-leather-printed-mules-e0ca0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/b-brian-atwood-suede-espadrilles-dxybu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/rag-bone-suede-espadrilles-dua4i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/rag-bone-leather-espadrilles-dolfq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/sebago-suede-beaded-accents-moccasins-dqvq9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-leather-loafers-ds8a7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-canvas-printed-espadrilles-dqies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/brunello-cucinelli-suede-loafers-doxjz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-embellished-round-toe-ballet-flats-6m5ca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/saint-laurent-suede-studded-accents-loafers-dm48i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/marie-laffont-leather-glitter-accents-oxfords-dm78a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tod-s-snakeskin-animal-print-moccasins-db3tq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/zyne-straw-mules-dhrga</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/balenciaga-floral-print-flats-d2mr5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/manolo-blahnik-leather-ballet-flats-dewlp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/dolce-gabbana-graphic-print-embroidered-accent-espadrilles-d2stp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/gucci-la-dodgers-gg-canvas-mules-w-tags-clsu3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/bally-nubuck-loafers-cjzpw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/robert-clergerie-printed-oxfords-ckwz4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/valentino-ballet-flats-w-tags-8rol5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/prada-loafers-132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tory-burch-reva-flats-100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/tods-leather-loafers-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/prada-leather-pumps-fz4bk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/stuart-weitzman-printed-pumps-fzav6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/gucci-double-g-logo-leather-mules-fyxnq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/jimmy-choo-lace-pattern-bow-accents-pumps-fyxw9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/manolo-blahnik-pumps-fz1yk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/jimmy-choo-ponyhair-animal-print-pumps-fyzpj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/dries-van-noten-printed-pumps-fyx29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/chanel-2014-interlocking-cc-logo-pumps-fwwd9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/chanel-interlocking-cc-logo-lambskin-slingback-pumps-fwncf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/aquazzura-canvas-crystal-embellishments-slingback-pumps-fv8j2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/versace-silk-crystal-embellishments-d-orsay-pumps-fxsxv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/alice-olivia-dina-ponyhair-d-orsay-pumps-w-tags-fxo5z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/gucci-leather-pumps-fxvjf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/chanel-vintage-hook-snap-d-orsay-pumps-fx3t4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/manolo-blahnik-suede-pumps-fy928</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/gucci-suede-leather-trim-embellishment-pumps-fy8me</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/salvatore-ferragamo-leather-slingback-pumps-fybah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/yves-saint-laurent-tribtoo-leather-pumps-fx9xw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/jimmy-choo-suede-d-orsay-pumps-fpfsl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/manolo-blahnik-patent-leather-slingback-pumps-fyb49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/carel-paris-pumps-fy9oc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-louboutin-patent-leather-pumps-fydwj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-louboutin-patent-leather-pumps-fy6an</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/marc-jacobs-patent-leather-printed-slingback-pumps-fxv5e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/yves-saint-laurent-leather-d-orsay-pumps-fxb5b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/rebecca-minkoff-suede-mules-fo5ik</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/gucci-patent-leather-bow-accents-w-tags-cxd9y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/anna-sui-suede-colorblock-pattern-mules-fuivk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/manolo-blahnik-satin-crystal-embellishments-pumps-w-tags-fypgq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/prada-suede-cutout-accent-d-orsay-pumps-fynn3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/fendi-leather-slingback-pumps-fy6hi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/gianvito-rossi-suede-d-orsay-pumps-fyidy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-louboutin-suede-pumps-fyfjg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/prada-patent-leather-pumps-fyshy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/prada-suede-pumps-fy5zp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/reed-krakoff-leather-animal-print-slingback-pumps-fy9zn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/rachel-comey-suede-pumps-g0wqd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/vivienne-hu-leather-crystal-embellishments-mules-g0wpk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/manolo-blahnik-patent-leather-d-orsay-pumps-g0wav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/balenciaga-mules-g0wai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/salvatore-ferragamo-leather-pumps-g0vdt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/gucci-running-gg-logo-suede-pumps-fxg2a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/casadei-printed-crystal-embellishments-slingback-pumps-fvwo9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-louboutin-pumps-fr3by</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/stuart-weitzman-suede-pumps-fxnqh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-louboutin-leather-crystal-embellishments-d-orsay-pumps-fxu5e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/l-k-bennett-patent-leather-cutout-accent-slingback-pumps-fxx2g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-louboutin-dona-anna-120-patent-leather-pumps-fvy80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/jimmy-choo-satin-crystal-embellishments-d-orsay-pumps-fwca0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/manolo-blahnik-leather-animal-print-slingback-pumps-fx1v3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-diorissimo-pattern-canvas-pumps-fwsdk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/sergio-rossi-leather-pumps-fx4oe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/salvatore-ferragamo-suede-pumps-fx2jf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/gucci-leather-striped-slingback-pumps-fubxv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/zimmermann-leather-colorblock-pattern-pumps-fmqsk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/manolo-blahnik-suede-pumps-fv95m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/gucci-vintage-leather-mules-fudk9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/jimmy-choo-leather-bow-accents-pumps-fu9h9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/ugg-suede-studded-accents-mules-fntx4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-louboutin-suede-pumps-fuqf5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-louboutin-patent-leather-d-orsay-pumps-fvsl3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/loewe-leather-mules-fuoby</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/prada-leather-pumps-fs0ar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-louboutin-patent-leather-pumps-fu5mu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/nicole-miller-leather-colorblock-pattern-pumps-fu3ua</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/jimmy-choo-leather-printed-pumps-fsom7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/gucci-leather-animal-print-slingback-pumps-fu1bh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/manolo-blahnik-satin-crystal-embellishments-pumps-ftddt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/gianvito-rossi-suede-mules-fl0g8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/jil-sander-leather-pumps-fem88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-louboutin-suede-scalloped-accent-pumps-fjzca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/tamara-mellon-pumps-frgfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-louboutin-patent-leather-pumps-frsjl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/vera-wang-leather-animal-print-slingback-pumps-fq7cx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-bow-accents-slingback-pumps-fmopk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/prada-suede-pumps-fpspg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/bruno-magli-leather-pumps-fq88d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/stuart-weitzman-patent-leather-pumps-fmriq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/gucci-patent-leather-pumps-fl1rz</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -7603,7 +8909,3695 @@
         <x:v>650</x:v>
       </x:c>
       <x:c r="B657" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="659" spans="1:14">
+      <x:c r="A659" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B659" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="660" spans="1:14">
+      <x:c r="A660" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B660" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="661" spans="1:14">
+      <x:c r="A661" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B661" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="662" spans="1:14">
+      <x:c r="A662" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B662" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="663" spans="1:14">
+      <x:c r="A663" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B663" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="664" spans="1:14">
+      <x:c r="A664" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B664" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="665" spans="1:14">
+      <x:c r="A665" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B665" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="666" spans="1:14">
+      <x:c r="A666" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B666" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="668" spans="1:14">
+      <x:c r="A668" s="0" t="s">
         <x:v>651</x:v>
+      </x:c>
+      <x:c r="B668" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="669" spans="1:14">
+      <x:c r="A669" s="0" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="B669" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="670" spans="1:14">
+      <x:c r="A670" s="0" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="B670" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="671" spans="1:14">
+      <x:c r="A671" s="0" t="s">
+        <x:v>654</x:v>
+      </x:c>
+      <x:c r="B671" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="672" spans="1:14">
+      <x:c r="A672" s="0" t="s">
+        <x:v>655</x:v>
+      </x:c>
+      <x:c r="B672" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="673" spans="1:14">
+      <x:c r="A673" s="0" t="s">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c r="B673" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="674" spans="1:14">
+      <x:c r="A674" s="0" t="s">
+        <x:v>657</x:v>
+      </x:c>
+      <x:c r="B674" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="676" spans="1:14">
+      <x:c r="A676" s="0" t="s">
+        <x:v>651</x:v>
+      </x:c>
+      <x:c r="B676" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="677" spans="1:14">
+      <x:c r="A677" s="0" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="B677" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="678" spans="1:14">
+      <x:c r="A678" s="0" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="B678" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="679" spans="1:14">
+      <x:c r="A679" s="0" t="s">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="B679" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="680" spans="1:14">
+      <x:c r="A680" s="0" t="s">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c r="B680" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="681" spans="1:14">
+      <x:c r="A681" s="0" t="s">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c r="B681" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="682" spans="1:14">
+      <x:c r="A682" s="0" t="s">
+        <x:v>661</x:v>
+      </x:c>
+      <x:c r="B682" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="683" spans="1:14">
+      <x:c r="A683" s="0" t="s">
+        <x:v>662</x:v>
+      </x:c>
+      <x:c r="B683" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="684" spans="1:14">
+      <x:c r="A684" s="0" t="s">
+        <x:v>663</x:v>
+      </x:c>
+      <x:c r="B684" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="685" spans="1:14">
+      <x:c r="A685" s="0" t="s">
+        <x:v>664</x:v>
+      </x:c>
+      <x:c r="B685" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="686" spans="1:14">
+      <x:c r="A686" s="0" t="s">
+        <x:v>665</x:v>
+      </x:c>
+      <x:c r="B686" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="687" spans="1:14">
+      <x:c r="A687" s="0" t="s">
+        <x:v>666</x:v>
+      </x:c>
+      <x:c r="B687" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="688" spans="1:14">
+      <x:c r="A688" s="0" t="s">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c r="B688" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="689" spans="1:14">
+      <x:c r="A689" s="0" t="s">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c r="B689" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="690" spans="1:14">
+      <x:c r="A690" s="0" t="s">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="B690" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="691" spans="1:14">
+      <x:c r="A691" s="0" t="s">
+        <x:v>670</x:v>
+      </x:c>
+      <x:c r="B691" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="692" spans="1:14">
+      <x:c r="A692" s="0" t="s">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="B692" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="693" spans="1:14">
+      <x:c r="A693" s="0" t="s">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="B693" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="694" spans="1:14">
+      <x:c r="A694" s="0" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="B694" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="695" spans="1:14">
+      <x:c r="A695" s="0" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="B695" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="696" spans="1:14">
+      <x:c r="A696" s="0" t="s">
+        <x:v>675</x:v>
+      </x:c>
+      <x:c r="B696" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="697" spans="1:14">
+      <x:c r="A697" s="0" t="s">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="B697" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="698" spans="1:14">
+      <x:c r="A698" s="0" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="B698" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="699" spans="1:14">
+      <x:c r="A699" s="0" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="B699" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="700" spans="1:14">
+      <x:c r="A700" s="0" t="s">
+        <x:v>679</x:v>
+      </x:c>
+      <x:c r="B700" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="701" spans="1:14">
+      <x:c r="A701" s="0" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="B701" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="702" spans="1:14">
+      <x:c r="A702" s="0" t="s">
+        <x:v>681</x:v>
+      </x:c>
+      <x:c r="B702" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="703" spans="1:14">
+      <x:c r="A703" s="0" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="B703" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="704" spans="1:14">
+      <x:c r="A704" s="0" t="s">
+        <x:v>683</x:v>
+      </x:c>
+      <x:c r="B704" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="705" spans="1:14">
+      <x:c r="A705" s="0" t="s">
+        <x:v>684</x:v>
+      </x:c>
+      <x:c r="B705" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="706" spans="1:14">
+      <x:c r="A706" s="0" t="s">
+        <x:v>685</x:v>
+      </x:c>
+      <x:c r="B706" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="707" spans="1:14">
+      <x:c r="A707" s="0" t="s">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="B707" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="708" spans="1:14">
+      <x:c r="A708" s="0" t="s">
+        <x:v>687</x:v>
+      </x:c>
+      <x:c r="B708" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="709" spans="1:14">
+      <x:c r="A709" s="0" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="B709" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="710" spans="1:14">
+      <x:c r="A710" s="0" t="s">
+        <x:v>689</x:v>
+      </x:c>
+      <x:c r="B710" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="711" spans="1:14">
+      <x:c r="A711" s="0" t="s">
+        <x:v>690</x:v>
+      </x:c>
+      <x:c r="B711" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="712" spans="1:14">
+      <x:c r="A712" s="0" t="s">
+        <x:v>691</x:v>
+      </x:c>
+      <x:c r="B712" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="713" spans="1:14">
+      <x:c r="A713" s="0" t="s">
+        <x:v>692</x:v>
+      </x:c>
+      <x:c r="B713" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="714" spans="1:14">
+      <x:c r="A714" s="0" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="B714" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="716" spans="1:14">
+      <x:c r="A716" s="0" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="B716" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="718" spans="1:14">
+      <x:c r="A718" s="0" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="B718" s="3" t="s">
+        <x:v>694</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="719" spans="1:14">
+      <x:c r="A719" s="0" t="s">
+        <x:v>675</x:v>
+      </x:c>
+      <x:c r="B719" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="720" spans="1:14">
+      <x:c r="A720" s="0" t="s">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="B720" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="721" spans="1:14">
+      <x:c r="A721" s="0" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="B721" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="722" spans="1:14">
+      <x:c r="A722" s="0" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="B722" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="723" spans="1:14">
+      <x:c r="A723" s="0" t="s">
+        <x:v>679</x:v>
+      </x:c>
+      <x:c r="B723" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="724" spans="1:14">
+      <x:c r="A724" s="0" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="B724" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="725" spans="1:14">
+      <x:c r="A725" s="0" t="s">
+        <x:v>681</x:v>
+      </x:c>
+      <x:c r="B725" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="726" spans="1:14">
+      <x:c r="A726" s="0" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="B726" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="727" spans="1:14">
+      <x:c r="A727" s="0" t="s">
+        <x:v>683</x:v>
+      </x:c>
+      <x:c r="B727" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="728" spans="1:14">
+      <x:c r="A728" s="0" t="s">
+        <x:v>684</x:v>
+      </x:c>
+      <x:c r="B728" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="729" spans="1:14">
+      <x:c r="A729" s="0" t="s">
+        <x:v>685</x:v>
+      </x:c>
+      <x:c r="B729" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="730" spans="1:14">
+      <x:c r="A730" s="0" t="s">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="B730" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="731" spans="1:14">
+      <x:c r="A731" s="0" t="s">
+        <x:v>687</x:v>
+      </x:c>
+      <x:c r="B731" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="732" spans="1:14">
+      <x:c r="A732" s="0" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="B732" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="733" spans="1:14">
+      <x:c r="A733" s="0" t="s">
+        <x:v>689</x:v>
+      </x:c>
+      <x:c r="B733" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="734" spans="1:14">
+      <x:c r="A734" s="0" t="s">
+        <x:v>690</x:v>
+      </x:c>
+      <x:c r="B734" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="735" spans="1:14">
+      <x:c r="A735" s="0" t="s">
+        <x:v>691</x:v>
+      </x:c>
+      <x:c r="B735" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="736" spans="1:14">
+      <x:c r="A736" s="0" t="s">
+        <x:v>692</x:v>
+      </x:c>
+      <x:c r="B736" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="737" spans="1:14">
+      <x:c r="A737" s="0" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="B737" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="738" spans="1:14">
+      <x:c r="A738" s="0" t="s">
+        <x:v>695</x:v>
+      </x:c>
+      <x:c r="B738" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="739" spans="1:14">
+      <x:c r="A739" s="0" t="s">
+        <x:v>696</x:v>
+      </x:c>
+      <x:c r="B739" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="740" spans="1:14">
+      <x:c r="A740" s="0" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="B740" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="741" spans="1:14">
+      <x:c r="A741" s="0" t="s">
+        <x:v>698</x:v>
+      </x:c>
+      <x:c r="B741" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="742" spans="1:14">
+      <x:c r="A742" s="0" t="s">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c r="B742" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="743" spans="1:14">
+      <x:c r="A743" s="0" t="s">
+        <x:v>700</x:v>
+      </x:c>
+      <x:c r="B743" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="744" spans="1:14">
+      <x:c r="A744" s="0" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="B744" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="745" spans="1:14">
+      <x:c r="A745" s="0" t="s">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c r="B745" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="746" spans="1:14">
+      <x:c r="A746" s="0" t="s">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="B746" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="747" spans="1:14">
+      <x:c r="A747" s="0" t="s">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c r="B747" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="748" spans="1:14">
+      <x:c r="A748" s="0" t="s">
+        <x:v>705</x:v>
+      </x:c>
+      <x:c r="B748" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="749" spans="1:14">
+      <x:c r="A749" s="0" t="s">
+        <x:v>706</x:v>
+      </x:c>
+      <x:c r="B749" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="750" spans="1:14">
+      <x:c r="A750" s="0" t="s">
+        <x:v>707</x:v>
+      </x:c>
+      <x:c r="B750" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="751" spans="1:14">
+      <x:c r="A751" s="0" t="s">
+        <x:v>708</x:v>
+      </x:c>
+      <x:c r="B751" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="752" spans="1:14">
+      <x:c r="A752" s="0" t="s">
+        <x:v>709</x:v>
+      </x:c>
+      <x:c r="B752" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="753" spans="1:14">
+      <x:c r="A753" s="0" t="s">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c r="B753" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="754" spans="1:14">
+      <x:c r="A754" s="0" t="s">
+        <x:v>711</x:v>
+      </x:c>
+      <x:c r="B754" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="755" spans="1:14">
+      <x:c r="A755" s="0" t="s">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c r="B755" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="756" spans="1:14">
+      <x:c r="A756" s="0" t="s">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c r="B756" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="757" spans="1:14">
+      <x:c r="A757" s="0" t="s">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c r="B757" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="758" spans="1:14">
+      <x:c r="A758" s="0" t="s">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c r="B758" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="759" spans="1:14">
+      <x:c r="A759" s="0" t="s">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="B759" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="760" spans="1:14">
+      <x:c r="A760" s="0" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="B760" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="761" spans="1:14">
+      <x:c r="A761" s="0" t="s">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="B761" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="762" spans="1:14">
+      <x:c r="A762" s="0" t="s">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c r="B762" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="763" spans="1:14">
+      <x:c r="A763" s="0" t="s">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c r="B763" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="764" spans="1:14">
+      <x:c r="A764" s="0" t="s">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c r="B764" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="765" spans="1:14">
+      <x:c r="A765" s="0" t="s">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c r="B765" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="766" spans="1:14">
+      <x:c r="A766" s="0" t="s">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="B766" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="767" spans="1:14">
+      <x:c r="A767" s="0" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="B767" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="768" spans="1:14">
+      <x:c r="A768" s="0" t="s">
+        <x:v>725</x:v>
+      </x:c>
+      <x:c r="B768" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="769" spans="1:14">
+      <x:c r="A769" s="0" t="s">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="B769" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="770" spans="1:14">
+      <x:c r="A770" s="0" t="s">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c r="B770" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="771" spans="1:14">
+      <x:c r="A771" s="0" t="s">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c r="B771" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="772" spans="1:14">
+      <x:c r="A772" s="0" t="s">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="B772" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="773" spans="1:14">
+      <x:c r="A773" s="0" t="s">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c r="B773" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="774" spans="1:14">
+      <x:c r="A774" s="0" t="s">
+        <x:v>731</x:v>
+      </x:c>
+      <x:c r="B774" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="775" spans="1:14">
+      <x:c r="A775" s="0" t="s">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="B775" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="776" spans="1:14">
+      <x:c r="A776" s="0" t="s">
+        <x:v>733</x:v>
+      </x:c>
+      <x:c r="B776" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="777" spans="1:14">
+      <x:c r="A777" s="0" t="s">
+        <x:v>734</x:v>
+      </x:c>
+      <x:c r="B777" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="778" spans="1:14">
+      <x:c r="A778" s="0" t="s">
+        <x:v>735</x:v>
+      </x:c>
+      <x:c r="B778" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="779" spans="1:14">
+      <x:c r="A779" s="0" t="s">
+        <x:v>736</x:v>
+      </x:c>
+      <x:c r="B779" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="780" spans="1:14">
+      <x:c r="A780" s="0" t="s">
+        <x:v>737</x:v>
+      </x:c>
+      <x:c r="B780" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="781" spans="1:14">
+      <x:c r="A781" s="0" t="s">
+        <x:v>738</x:v>
+      </x:c>
+      <x:c r="B781" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="782" spans="1:14">
+      <x:c r="A782" s="0" t="s">
+        <x:v>739</x:v>
+      </x:c>
+      <x:c r="B782" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="783" spans="1:14">
+      <x:c r="A783" s="0" t="s">
+        <x:v>740</x:v>
+      </x:c>
+      <x:c r="B783" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="784" spans="1:14">
+      <x:c r="A784" s="0" t="s">
+        <x:v>741</x:v>
+      </x:c>
+      <x:c r="B784" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="785" spans="1:14">
+      <x:c r="A785" s="0" t="s">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c r="B785" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="786" spans="1:14">
+      <x:c r="A786" s="0" t="s">
+        <x:v>743</x:v>
+      </x:c>
+      <x:c r="B786" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="787" spans="1:14">
+      <x:c r="A787" s="0" t="s">
+        <x:v>744</x:v>
+      </x:c>
+      <x:c r="B787" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="788" spans="1:14">
+      <x:c r="A788" s="0" t="s">
+        <x:v>745</x:v>
+      </x:c>
+      <x:c r="B788" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="789" spans="1:14">
+      <x:c r="A789" s="0" t="s">
+        <x:v>746</x:v>
+      </x:c>
+      <x:c r="B789" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="790" spans="1:14">
+      <x:c r="A790" s="0" t="s">
+        <x:v>747</x:v>
+      </x:c>
+      <x:c r="B790" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="791" spans="1:14">
+      <x:c r="A791" s="0" t="s">
+        <x:v>748</x:v>
+      </x:c>
+      <x:c r="B791" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="792" spans="1:14">
+      <x:c r="A792" s="0" t="s">
+        <x:v>749</x:v>
+      </x:c>
+      <x:c r="B792" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="793" spans="1:14">
+      <x:c r="A793" s="0" t="s">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c r="B793" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="794" spans="1:14">
+      <x:c r="A794" s="0" t="s">
+        <x:v>751</x:v>
+      </x:c>
+      <x:c r="B794" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="795" spans="1:14">
+      <x:c r="A795" s="0" t="s">
+        <x:v>752</x:v>
+      </x:c>
+      <x:c r="B795" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="796" spans="1:14">
+      <x:c r="A796" s="0" t="s">
+        <x:v>753</x:v>
+      </x:c>
+      <x:c r="B796" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="797" spans="1:14">
+      <x:c r="A797" s="0" t="s">
+        <x:v>754</x:v>
+      </x:c>
+      <x:c r="B797" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="798" spans="1:14">
+      <x:c r="A798" s="0" t="s">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c r="B798" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="799" spans="1:14">
+      <x:c r="A799" s="0" t="s">
+        <x:v>756</x:v>
+      </x:c>
+      <x:c r="B799" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="800" spans="1:14">
+      <x:c r="A800" s="0" t="s">
+        <x:v>757</x:v>
+      </x:c>
+      <x:c r="B800" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="801" spans="1:14">
+      <x:c r="A801" s="0" t="s">
+        <x:v>758</x:v>
+      </x:c>
+      <x:c r="B801" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="802" spans="1:14">
+      <x:c r="A802" s="0" t="s">
+        <x:v>759</x:v>
+      </x:c>
+      <x:c r="B802" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="803" spans="1:14">
+      <x:c r="A803" s="0" t="s">
+        <x:v>760</x:v>
+      </x:c>
+      <x:c r="B803" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="804" spans="1:14">
+      <x:c r="A804" s="0" t="s">
+        <x:v>761</x:v>
+      </x:c>
+      <x:c r="B804" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="805" spans="1:14">
+      <x:c r="A805" s="0" t="s">
+        <x:v>762</x:v>
+      </x:c>
+      <x:c r="B805" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="806" spans="1:14">
+      <x:c r="A806" s="0" t="s">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c r="B806" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="807" spans="1:14">
+      <x:c r="A807" s="0" t="s">
+        <x:v>764</x:v>
+      </x:c>
+      <x:c r="B807" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="808" spans="1:14">
+      <x:c r="A808" s="0" t="s">
+        <x:v>765</x:v>
+      </x:c>
+      <x:c r="B808" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="809" spans="1:14">
+      <x:c r="A809" s="0" t="s">
+        <x:v>766</x:v>
+      </x:c>
+      <x:c r="B809" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="810" spans="1:14">
+      <x:c r="A810" s="0" t="s">
+        <x:v>767</x:v>
+      </x:c>
+      <x:c r="B810" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="811" spans="1:14">
+      <x:c r="A811" s="0" t="s">
+        <x:v>768</x:v>
+      </x:c>
+      <x:c r="B811" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="812" spans="1:14">
+      <x:c r="A812" s="0" t="s">
+        <x:v>769</x:v>
+      </x:c>
+      <x:c r="B812" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="813" spans="1:14">
+      <x:c r="A813" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="B813" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="814" spans="1:14">
+      <x:c r="A814" s="0" t="s">
+        <x:v>771</x:v>
+      </x:c>
+      <x:c r="B814" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="815" spans="1:14">
+      <x:c r="A815" s="0" t="s">
+        <x:v>772</x:v>
+      </x:c>
+      <x:c r="B815" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="816" spans="1:14">
+      <x:c r="A816" s="0" t="s">
+        <x:v>773</x:v>
+      </x:c>
+      <x:c r="B816" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="817" spans="1:14">
+      <x:c r="A817" s="0" t="s">
+        <x:v>774</x:v>
+      </x:c>
+      <x:c r="B817" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="818" spans="1:14">
+      <x:c r="A818" s="0" t="s">
+        <x:v>775</x:v>
+      </x:c>
+      <x:c r="B818" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="819" spans="1:14">
+      <x:c r="A819" s="0" t="s">
+        <x:v>776</x:v>
+      </x:c>
+      <x:c r="B819" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="820" spans="1:14">
+      <x:c r="A820" s="0" t="s">
+        <x:v>777</x:v>
+      </x:c>
+      <x:c r="B820" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="821" spans="1:14">
+      <x:c r="A821" s="0" t="s">
+        <x:v>778</x:v>
+      </x:c>
+      <x:c r="B821" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="822" spans="1:14">
+      <x:c r="A822" s="0" t="s">
+        <x:v>779</x:v>
+      </x:c>
+      <x:c r="B822" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="823" spans="1:14">
+      <x:c r="A823" s="0" t="s">
+        <x:v>780</x:v>
+      </x:c>
+      <x:c r="B823" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="824" spans="1:14">
+      <x:c r="A824" s="0" t="s">
+        <x:v>781</x:v>
+      </x:c>
+      <x:c r="B824" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="825" spans="1:14">
+      <x:c r="A825" s="0" t="s">
+        <x:v>782</x:v>
+      </x:c>
+      <x:c r="B825" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="826" spans="1:14">
+      <x:c r="A826" s="0" t="s">
+        <x:v>783</x:v>
+      </x:c>
+      <x:c r="B826" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="827" spans="1:14">
+      <x:c r="A827" s="0" t="s">
+        <x:v>784</x:v>
+      </x:c>
+      <x:c r="B827" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="828" spans="1:14">
+      <x:c r="A828" s="0" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="B828" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="829" spans="1:14">
+      <x:c r="A829" s="0" t="s">
+        <x:v>786</x:v>
+      </x:c>
+      <x:c r="B829" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="830" spans="1:14">
+      <x:c r="A830" s="0" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="B830" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="831" spans="1:14">
+      <x:c r="A831" s="0" t="s">
+        <x:v>788</x:v>
+      </x:c>
+      <x:c r="B831" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="832" spans="1:14">
+      <x:c r="A832" s="0" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B832" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="833" spans="1:14">
+      <x:c r="A833" s="0" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="B833" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="834" spans="1:14">
+      <x:c r="A834" s="0" t="s">
+        <x:v>791</x:v>
+      </x:c>
+      <x:c r="B834" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="835" spans="1:14">
+      <x:c r="A835" s="0" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="B835" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="836" spans="1:14">
+      <x:c r="A836" s="0" t="s">
+        <x:v>793</x:v>
+      </x:c>
+      <x:c r="B836" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="837" spans="1:14">
+      <x:c r="A837" s="0" t="s">
+        <x:v>794</x:v>
+      </x:c>
+      <x:c r="B837" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="838" spans="1:14">
+      <x:c r="A838" s="0" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B838" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="839" spans="1:14">
+      <x:c r="A839" s="0" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="B839" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="840" spans="1:14">
+      <x:c r="A840" s="0" t="s">
+        <x:v>797</x:v>
+      </x:c>
+      <x:c r="B840" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="841" spans="1:14">
+      <x:c r="A841" s="0" t="s">
+        <x:v>798</x:v>
+      </x:c>
+      <x:c r="B841" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="842" spans="1:14">
+      <x:c r="A842" s="0" t="s">
+        <x:v>799</x:v>
+      </x:c>
+      <x:c r="B842" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="843" spans="1:14">
+      <x:c r="A843" s="0" t="s">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="B843" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="844" spans="1:14">
+      <x:c r="A844" s="0" t="s">
+        <x:v>801</x:v>
+      </x:c>
+      <x:c r="B844" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="845" spans="1:14">
+      <x:c r="A845" s="0" t="s">
+        <x:v>802</x:v>
+      </x:c>
+      <x:c r="B845" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="846" spans="1:14">
+      <x:c r="A846" s="0" t="s">
+        <x:v>803</x:v>
+      </x:c>
+      <x:c r="B846" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="847" spans="1:14">
+      <x:c r="A847" s="0" t="s">
+        <x:v>804</x:v>
+      </x:c>
+      <x:c r="B847" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="848" spans="1:14">
+      <x:c r="A848" s="0" t="s">
+        <x:v>805</x:v>
+      </x:c>
+      <x:c r="B848" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="849" spans="1:14">
+      <x:c r="A849" s="0" t="s">
+        <x:v>806</x:v>
+      </x:c>
+      <x:c r="B849" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="850" spans="1:14">
+      <x:c r="A850" s="0" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="B850" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="851" spans="1:14">
+      <x:c r="A851" s="0" t="s">
+        <x:v>808</x:v>
+      </x:c>
+      <x:c r="B851" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="852" spans="1:14">
+      <x:c r="A852" s="0" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="B852" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="853" spans="1:14">
+      <x:c r="A853" s="0" t="s">
+        <x:v>810</x:v>
+      </x:c>
+      <x:c r="B853" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="854" spans="1:14">
+      <x:c r="A854" s="0" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="B854" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="855" spans="1:14">
+      <x:c r="A855" s="0" t="s">
+        <x:v>812</x:v>
+      </x:c>
+      <x:c r="B855" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="856" spans="1:14">
+      <x:c r="A856" s="0" t="s">
+        <x:v>813</x:v>
+      </x:c>
+      <x:c r="B856" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="857" spans="1:14">
+      <x:c r="A857" s="0" t="s">
+        <x:v>814</x:v>
+      </x:c>
+      <x:c r="B857" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="858" spans="1:14">
+      <x:c r="A858" s="0" t="s">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="B858" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="859" spans="1:14">
+      <x:c r="A859" s="0" t="s">
+        <x:v>816</x:v>
+      </x:c>
+      <x:c r="B859" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="860" spans="1:14">
+      <x:c r="A860" s="0" t="s">
+        <x:v>817</x:v>
+      </x:c>
+      <x:c r="B860" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="861" spans="1:14">
+      <x:c r="A861" s="0" t="s">
+        <x:v>818</x:v>
+      </x:c>
+      <x:c r="B861" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="862" spans="1:14">
+      <x:c r="A862" s="0" t="s">
+        <x:v>819</x:v>
+      </x:c>
+      <x:c r="B862" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="863" spans="1:14">
+      <x:c r="A863" s="0" t="s">
+        <x:v>820</x:v>
+      </x:c>
+      <x:c r="B863" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="864" spans="1:14">
+      <x:c r="A864" s="0" t="s">
+        <x:v>821</x:v>
+      </x:c>
+      <x:c r="B864" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="865" spans="1:14">
+      <x:c r="A865" s="0" t="s">
+        <x:v>822</x:v>
+      </x:c>
+      <x:c r="B865" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="866" spans="1:14">
+      <x:c r="A866" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B866" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="867" spans="1:14">
+      <x:c r="A867" s="0" t="s">
+        <x:v>824</x:v>
+      </x:c>
+      <x:c r="B867" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="868" spans="1:14">
+      <x:c r="A868" s="0" t="s">
+        <x:v>825</x:v>
+      </x:c>
+      <x:c r="B868" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="869" spans="1:14">
+      <x:c r="A869" s="0" t="s">
+        <x:v>826</x:v>
+      </x:c>
+      <x:c r="B869" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="870" spans="1:14">
+      <x:c r="A870" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="B870" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="871" spans="1:14">
+      <x:c r="A871" s="0" t="s">
+        <x:v>828</x:v>
+      </x:c>
+      <x:c r="B871" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="872" spans="1:14">
+      <x:c r="A872" s="0" t="s">
+        <x:v>829</x:v>
+      </x:c>
+      <x:c r="B872" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="873" spans="1:14">
+      <x:c r="A873" s="0" t="s">
+        <x:v>830</x:v>
+      </x:c>
+      <x:c r="B873" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="874" spans="1:14">
+      <x:c r="A874" s="0" t="s">
+        <x:v>831</x:v>
+      </x:c>
+      <x:c r="B874" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="875" spans="1:14">
+      <x:c r="A875" s="0" t="s">
+        <x:v>832</x:v>
+      </x:c>
+      <x:c r="B875" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="876" spans="1:14">
+      <x:c r="A876" s="0" t="s">
+        <x:v>833</x:v>
+      </x:c>
+      <x:c r="B876" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="877" spans="1:14">
+      <x:c r="A877" s="0" t="s">
+        <x:v>834</x:v>
+      </x:c>
+      <x:c r="B877" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="878" spans="1:14">
+      <x:c r="A878" s="0" t="s">
+        <x:v>835</x:v>
+      </x:c>
+      <x:c r="B878" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="879" spans="1:14">
+      <x:c r="A879" s="0" t="s">
+        <x:v>836</x:v>
+      </x:c>
+      <x:c r="B879" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="880" spans="1:14">
+      <x:c r="A880" s="0" t="s">
+        <x:v>837</x:v>
+      </x:c>
+      <x:c r="B880" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="881" spans="1:14">
+      <x:c r="A881" s="0" t="s">
+        <x:v>838</x:v>
+      </x:c>
+      <x:c r="B881" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="882" spans="1:14">
+      <x:c r="A882" s="0" t="s">
+        <x:v>839</x:v>
+      </x:c>
+      <x:c r="B882" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="883" spans="1:14">
+      <x:c r="A883" s="0" t="s">
+        <x:v>840</x:v>
+      </x:c>
+      <x:c r="B883" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="884" spans="1:14">
+      <x:c r="A884" s="0" t="s">
+        <x:v>841</x:v>
+      </x:c>
+      <x:c r="B884" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="885" spans="1:14">
+      <x:c r="A885" s="0" t="s">
+        <x:v>842</x:v>
+      </x:c>
+      <x:c r="B885" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="886" spans="1:14">
+      <x:c r="A886" s="0" t="s">
+        <x:v>843</x:v>
+      </x:c>
+      <x:c r="B886" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="887" spans="1:14">
+      <x:c r="A887" s="0" t="s">
+        <x:v>844</x:v>
+      </x:c>
+      <x:c r="B887" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="888" spans="1:14">
+      <x:c r="A888" s="0" t="s">
+        <x:v>845</x:v>
+      </x:c>
+      <x:c r="B888" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="889" spans="1:14">
+      <x:c r="A889" s="0" t="s">
+        <x:v>846</x:v>
+      </x:c>
+      <x:c r="B889" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="890" spans="1:14">
+      <x:c r="A890" s="0" t="s">
+        <x:v>847</x:v>
+      </x:c>
+      <x:c r="B890" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="891" spans="1:14">
+      <x:c r="A891" s="0" t="s">
+        <x:v>848</x:v>
+      </x:c>
+      <x:c r="B891" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="892" spans="1:14">
+      <x:c r="A892" s="0" t="s">
+        <x:v>849</x:v>
+      </x:c>
+      <x:c r="B892" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="893" spans="1:14">
+      <x:c r="A893" s="0" t="s">
+        <x:v>850</x:v>
+      </x:c>
+      <x:c r="B893" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="894" spans="1:14">
+      <x:c r="A894" s="0" t="s">
+        <x:v>851</x:v>
+      </x:c>
+      <x:c r="B894" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="895" spans="1:14">
+      <x:c r="A895" s="0" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="B895" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="896" spans="1:14">
+      <x:c r="A896" s="0" t="s">
+        <x:v>853</x:v>
+      </x:c>
+      <x:c r="B896" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="897" spans="1:14">
+      <x:c r="A897" s="0" t="s">
+        <x:v>854</x:v>
+      </x:c>
+      <x:c r="B897" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="898" spans="1:14">
+      <x:c r="A898" s="0" t="s">
+        <x:v>855</x:v>
+      </x:c>
+      <x:c r="B898" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="899" spans="1:14">
+      <x:c r="A899" s="0" t="s">
+        <x:v>856</x:v>
+      </x:c>
+      <x:c r="B899" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="900" spans="1:14">
+      <x:c r="A900" s="0" t="s">
+        <x:v>857</x:v>
+      </x:c>
+      <x:c r="B900" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="901" spans="1:14">
+      <x:c r="A901" s="0" t="s">
+        <x:v>858</x:v>
+      </x:c>
+      <x:c r="B901" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="902" spans="1:14">
+      <x:c r="A902" s="0" t="s">
+        <x:v>859</x:v>
+      </x:c>
+      <x:c r="B902" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="903" spans="1:14">
+      <x:c r="A903" s="0" t="s">
+        <x:v>860</x:v>
+      </x:c>
+      <x:c r="B903" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="904" spans="1:14">
+      <x:c r="A904" s="0" t="s">
+        <x:v>861</x:v>
+      </x:c>
+      <x:c r="B904" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="905" spans="1:14">
+      <x:c r="A905" s="0" t="s">
+        <x:v>862</x:v>
+      </x:c>
+      <x:c r="B905" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="906" spans="1:14">
+      <x:c r="A906" s="0" t="s">
+        <x:v>863</x:v>
+      </x:c>
+      <x:c r="B906" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="907" spans="1:14">
+      <x:c r="A907" s="0" t="s">
+        <x:v>864</x:v>
+      </x:c>
+      <x:c r="B907" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="908" spans="1:14">
+      <x:c r="A908" s="0" t="s">
+        <x:v>865</x:v>
+      </x:c>
+      <x:c r="B908" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="909" spans="1:14">
+      <x:c r="A909" s="0" t="s">
+        <x:v>866</x:v>
+      </x:c>
+      <x:c r="B909" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="910" spans="1:14">
+      <x:c r="A910" s="0" t="s">
+        <x:v>867</x:v>
+      </x:c>
+      <x:c r="B910" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="911" spans="1:14">
+      <x:c r="A911" s="0" t="s">
+        <x:v>868</x:v>
+      </x:c>
+      <x:c r="B911" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="912" spans="1:14">
+      <x:c r="A912" s="0" t="s">
+        <x:v>869</x:v>
+      </x:c>
+      <x:c r="B912" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="913" spans="1:14">
+      <x:c r="A913" s="0" t="s">
+        <x:v>870</x:v>
+      </x:c>
+      <x:c r="B913" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="914" spans="1:14">
+      <x:c r="A914" s="0" t="s">
+        <x:v>871</x:v>
+      </x:c>
+      <x:c r="B914" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="915" spans="1:14">
+      <x:c r="A915" s="0" t="s">
+        <x:v>872</x:v>
+      </x:c>
+      <x:c r="B915" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="916" spans="1:14">
+      <x:c r="A916" s="0" t="s">
+        <x:v>873</x:v>
+      </x:c>
+      <x:c r="B916" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="917" spans="1:14">
+      <x:c r="A917" s="0" t="s">
+        <x:v>874</x:v>
+      </x:c>
+      <x:c r="B917" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="918" spans="1:14">
+      <x:c r="A918" s="0" t="s">
+        <x:v>875</x:v>
+      </x:c>
+      <x:c r="B918" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="919" spans="1:14">
+      <x:c r="A919" s="0" t="s">
+        <x:v>876</x:v>
+      </x:c>
+      <x:c r="B919" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="920" spans="1:14">
+      <x:c r="A920" s="0" t="s">
+        <x:v>877</x:v>
+      </x:c>
+      <x:c r="B920" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="921" spans="1:14">
+      <x:c r="A921" s="0" t="s">
+        <x:v>878</x:v>
+      </x:c>
+      <x:c r="B921" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="922" spans="1:14">
+      <x:c r="A922" s="0" t="s">
+        <x:v>879</x:v>
+      </x:c>
+      <x:c r="B922" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="923" spans="1:14">
+      <x:c r="A923" s="0" t="s">
+        <x:v>880</x:v>
+      </x:c>
+      <x:c r="B923" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="924" spans="1:14">
+      <x:c r="A924" s="0" t="s">
+        <x:v>881</x:v>
+      </x:c>
+      <x:c r="B924" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="925" spans="1:14">
+      <x:c r="A925" s="0" t="s">
+        <x:v>882</x:v>
+      </x:c>
+      <x:c r="B925" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="926" spans="1:14">
+      <x:c r="A926" s="0" t="s">
+        <x:v>883</x:v>
+      </x:c>
+      <x:c r="B926" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="927" spans="1:14">
+      <x:c r="A927" s="0" t="s">
+        <x:v>884</x:v>
+      </x:c>
+      <x:c r="B927" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="928" spans="1:14">
+      <x:c r="A928" s="0" t="s">
+        <x:v>885</x:v>
+      </x:c>
+      <x:c r="B928" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="929" spans="1:14">
+      <x:c r="A929" s="0" t="s">
+        <x:v>886</x:v>
+      </x:c>
+      <x:c r="B929" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="930" spans="1:14">
+      <x:c r="A930" s="0" t="s">
+        <x:v>887</x:v>
+      </x:c>
+      <x:c r="B930" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="931" spans="1:14">
+      <x:c r="A931" s="0" t="s">
+        <x:v>888</x:v>
+      </x:c>
+      <x:c r="B931" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="932" spans="1:14">
+      <x:c r="A932" s="0" t="s">
+        <x:v>889</x:v>
+      </x:c>
+      <x:c r="B932" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="933" spans="1:14">
+      <x:c r="A933" s="0" t="s">
+        <x:v>890</x:v>
+      </x:c>
+      <x:c r="B933" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="934" spans="1:14">
+      <x:c r="A934" s="0" t="s">
+        <x:v>891</x:v>
+      </x:c>
+      <x:c r="B934" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="935" spans="1:14">
+      <x:c r="A935" s="0" t="s">
+        <x:v>892</x:v>
+      </x:c>
+      <x:c r="B935" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="936" spans="1:14">
+      <x:c r="A936" s="0" t="s">
+        <x:v>893</x:v>
+      </x:c>
+      <x:c r="B936" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="937" spans="1:14">
+      <x:c r="A937" s="0" t="s">
+        <x:v>894</x:v>
+      </x:c>
+      <x:c r="B937" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="938" spans="1:14">
+      <x:c r="A938" s="0" t="s">
+        <x:v>895</x:v>
+      </x:c>
+      <x:c r="B938" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="939" spans="1:14">
+      <x:c r="A939" s="0" t="s">
+        <x:v>896</x:v>
+      </x:c>
+      <x:c r="B939" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="940" spans="1:14">
+      <x:c r="A940" s="0" t="s">
+        <x:v>897</x:v>
+      </x:c>
+      <x:c r="B940" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="941" spans="1:14">
+      <x:c r="A941" s="0" t="s">
+        <x:v>898</x:v>
+      </x:c>
+      <x:c r="B941" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="942" spans="1:14">
+      <x:c r="A942" s="0" t="s">
+        <x:v>899</x:v>
+      </x:c>
+      <x:c r="B942" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="943" spans="1:14">
+      <x:c r="A943" s="0" t="s">
+        <x:v>900</x:v>
+      </x:c>
+      <x:c r="B943" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="944" spans="1:14">
+      <x:c r="A944" s="0" t="s">
+        <x:v>901</x:v>
+      </x:c>
+      <x:c r="B944" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="945" spans="1:14">
+      <x:c r="A945" s="0" t="s">
+        <x:v>902</x:v>
+      </x:c>
+      <x:c r="B945" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="946" spans="1:14">
+      <x:c r="A946" s="0" t="s">
+        <x:v>903</x:v>
+      </x:c>
+      <x:c r="B946" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="947" spans="1:14">
+      <x:c r="A947" s="0" t="s">
+        <x:v>904</x:v>
+      </x:c>
+      <x:c r="B947" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="948" spans="1:14">
+      <x:c r="A948" s="0" t="s">
+        <x:v>905</x:v>
+      </x:c>
+      <x:c r="B948" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="949" spans="1:14">
+      <x:c r="A949" s="0" t="s">
+        <x:v>906</x:v>
+      </x:c>
+      <x:c r="B949" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="950" spans="1:14">
+      <x:c r="A950" s="0" t="s">
+        <x:v>907</x:v>
+      </x:c>
+      <x:c r="B950" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="951" spans="1:14">
+      <x:c r="A951" s="0" t="s">
+        <x:v>908</x:v>
+      </x:c>
+      <x:c r="B951" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="952" spans="1:14">
+      <x:c r="A952" s="0" t="s">
+        <x:v>909</x:v>
+      </x:c>
+      <x:c r="B952" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="953" spans="1:14">
+      <x:c r="A953" s="0" t="s">
+        <x:v>910</x:v>
+      </x:c>
+      <x:c r="B953" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="954" spans="1:14">
+      <x:c r="A954" s="0" t="s">
+        <x:v>911</x:v>
+      </x:c>
+      <x:c r="B954" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="955" spans="1:14">
+      <x:c r="A955" s="0" t="s">
+        <x:v>912</x:v>
+      </x:c>
+      <x:c r="B955" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="956" spans="1:14">
+      <x:c r="A956" s="0" t="s">
+        <x:v>913</x:v>
+      </x:c>
+      <x:c r="B956" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="957" spans="1:14">
+      <x:c r="A957" s="0" t="s">
+        <x:v>914</x:v>
+      </x:c>
+      <x:c r="B957" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="958" spans="1:14">
+      <x:c r="A958" s="0" t="s">
+        <x:v>915</x:v>
+      </x:c>
+      <x:c r="B958" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="959" spans="1:14">
+      <x:c r="A959" s="0" t="s">
+        <x:v>916</x:v>
+      </x:c>
+      <x:c r="B959" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="960" spans="1:14">
+      <x:c r="A960" s="0" t="s">
+        <x:v>917</x:v>
+      </x:c>
+      <x:c r="B960" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="961" spans="1:14">
+      <x:c r="A961" s="0" t="s">
+        <x:v>918</x:v>
+      </x:c>
+      <x:c r="B961" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="962" spans="1:14">
+      <x:c r="A962" s="0" t="s">
+        <x:v>919</x:v>
+      </x:c>
+      <x:c r="B962" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="963" spans="1:14">
+      <x:c r="A963" s="0" t="s">
+        <x:v>920</x:v>
+      </x:c>
+      <x:c r="B963" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="964" spans="1:14">
+      <x:c r="A964" s="0" t="s">
+        <x:v>921</x:v>
+      </x:c>
+      <x:c r="B964" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="965" spans="1:14">
+      <x:c r="A965" s="0" t="s">
+        <x:v>922</x:v>
+      </x:c>
+      <x:c r="B965" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="966" spans="1:14">
+      <x:c r="A966" s="0" t="s">
+        <x:v>923</x:v>
+      </x:c>
+      <x:c r="B966" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="967" spans="1:14">
+      <x:c r="A967" s="0" t="s">
+        <x:v>924</x:v>
+      </x:c>
+      <x:c r="B967" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="968" spans="1:14">
+      <x:c r="A968" s="0" t="s">
+        <x:v>925</x:v>
+      </x:c>
+      <x:c r="B968" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="969" spans="1:14">
+      <x:c r="A969" s="0" t="s">
+        <x:v>926</x:v>
+      </x:c>
+      <x:c r="B969" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="970" spans="1:14">
+      <x:c r="A970" s="0" t="s">
+        <x:v>927</x:v>
+      </x:c>
+      <x:c r="B970" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="971" spans="1:14">
+      <x:c r="A971" s="0" t="s">
+        <x:v>928</x:v>
+      </x:c>
+      <x:c r="B971" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="972" spans="1:14">
+      <x:c r="A972" s="0" t="s">
+        <x:v>929</x:v>
+      </x:c>
+      <x:c r="B972" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="973" spans="1:14">
+      <x:c r="A973" s="0" t="s">
+        <x:v>930</x:v>
+      </x:c>
+      <x:c r="B973" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="974" spans="1:14">
+      <x:c r="A974" s="0" t="s">
+        <x:v>931</x:v>
+      </x:c>
+      <x:c r="B974" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="975" spans="1:14">
+      <x:c r="A975" s="0" t="s">
+        <x:v>932</x:v>
+      </x:c>
+      <x:c r="B975" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="976" spans="1:14">
+      <x:c r="A976" s="0" t="s">
+        <x:v>933</x:v>
+      </x:c>
+      <x:c r="B976" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="977" spans="1:14">
+      <x:c r="A977" s="0" t="s">
+        <x:v>934</x:v>
+      </x:c>
+      <x:c r="B977" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="978" spans="1:14">
+      <x:c r="A978" s="0" t="s">
+        <x:v>935</x:v>
+      </x:c>
+      <x:c r="B978" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="979" spans="1:14">
+      <x:c r="A979" s="0" t="s">
+        <x:v>936</x:v>
+      </x:c>
+      <x:c r="B979" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="980" spans="1:14">
+      <x:c r="A980" s="0" t="s">
+        <x:v>937</x:v>
+      </x:c>
+      <x:c r="B980" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="981" spans="1:14">
+      <x:c r="A981" s="0" t="s">
+        <x:v>938</x:v>
+      </x:c>
+      <x:c r="B981" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="982" spans="1:14">
+      <x:c r="A982" s="0" t="s">
+        <x:v>939</x:v>
+      </x:c>
+      <x:c r="B982" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="983" spans="1:14">
+      <x:c r="A983" s="0" t="s">
+        <x:v>940</x:v>
+      </x:c>
+      <x:c r="B983" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="984" spans="1:14">
+      <x:c r="A984" s="0" t="s">
+        <x:v>941</x:v>
+      </x:c>
+      <x:c r="B984" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="985" spans="1:14">
+      <x:c r="A985" s="0" t="s">
+        <x:v>942</x:v>
+      </x:c>
+      <x:c r="B985" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="986" spans="1:14">
+      <x:c r="A986" s="0" t="s">
+        <x:v>943</x:v>
+      </x:c>
+      <x:c r="B986" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="987" spans="1:14">
+      <x:c r="A987" s="0" t="s">
+        <x:v>944</x:v>
+      </x:c>
+      <x:c r="B987" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="988" spans="1:14">
+      <x:c r="A988" s="0" t="s">
+        <x:v>945</x:v>
+      </x:c>
+      <x:c r="B988" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="989" spans="1:14">
+      <x:c r="A989" s="0" t="s">
+        <x:v>946</x:v>
+      </x:c>
+      <x:c r="B989" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="990" spans="1:14">
+      <x:c r="A990" s="0" t="s">
+        <x:v>947</x:v>
+      </x:c>
+      <x:c r="B990" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="991" spans="1:14">
+      <x:c r="A991" s="0" t="s">
+        <x:v>948</x:v>
+      </x:c>
+      <x:c r="B991" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="992" spans="1:14">
+      <x:c r="A992" s="0" t="s">
+        <x:v>949</x:v>
+      </x:c>
+      <x:c r="B992" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="993" spans="1:14">
+      <x:c r="A993" s="0" t="s">
+        <x:v>950</x:v>
+      </x:c>
+      <x:c r="B993" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="994" spans="1:14">
+      <x:c r="A994" s="0" t="s">
+        <x:v>951</x:v>
+      </x:c>
+      <x:c r="B994" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="995" spans="1:14">
+      <x:c r="A995" s="0" t="s">
+        <x:v>952</x:v>
+      </x:c>
+      <x:c r="B995" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="996" spans="1:14">
+      <x:c r="A996" s="0" t="s">
+        <x:v>953</x:v>
+      </x:c>
+      <x:c r="B996" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="997" spans="1:14">
+      <x:c r="A997" s="0" t="s">
+        <x:v>954</x:v>
+      </x:c>
+      <x:c r="B997" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="998" spans="1:14">
+      <x:c r="A998" s="0" t="s">
+        <x:v>955</x:v>
+      </x:c>
+      <x:c r="B998" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="999" spans="1:14">
+      <x:c r="A999" s="0" t="s">
+        <x:v>956</x:v>
+      </x:c>
+      <x:c r="B999" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1000" spans="1:14">
+      <x:c r="A1000" s="0" t="s">
+        <x:v>957</x:v>
+      </x:c>
+      <x:c r="B1000" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1001" spans="1:14">
+      <x:c r="A1001" s="0" t="s">
+        <x:v>958</x:v>
+      </x:c>
+      <x:c r="B1001" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1002" spans="1:14">
+      <x:c r="A1002" s="0" t="s">
+        <x:v>959</x:v>
+      </x:c>
+      <x:c r="B1002" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1003" spans="1:14">
+      <x:c r="A1003" s="0" t="s">
+        <x:v>960</x:v>
+      </x:c>
+      <x:c r="B1003" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1004" spans="1:14">
+      <x:c r="A1004" s="0" t="s">
+        <x:v>961</x:v>
+      </x:c>
+      <x:c r="B1004" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1005" spans="1:14">
+      <x:c r="A1005" s="0" t="s">
+        <x:v>962</x:v>
+      </x:c>
+      <x:c r="B1005" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1006" spans="1:14">
+      <x:c r="A1006" s="0" t="s">
+        <x:v>963</x:v>
+      </x:c>
+      <x:c r="B1006" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1007" spans="1:14">
+      <x:c r="A1007" s="0" t="s">
+        <x:v>964</x:v>
+      </x:c>
+      <x:c r="B1007" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1008" spans="1:14">
+      <x:c r="A1008" s="0" t="s">
+        <x:v>965</x:v>
+      </x:c>
+      <x:c r="B1008" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1009" spans="1:14">
+      <x:c r="A1009" s="0" t="s">
+        <x:v>966</x:v>
+      </x:c>
+      <x:c r="B1009" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1010" spans="1:14">
+      <x:c r="A1010" s="0" t="s">
+        <x:v>967</x:v>
+      </x:c>
+      <x:c r="B1010" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1011" spans="1:14">
+      <x:c r="A1011" s="0" t="s">
+        <x:v>968</x:v>
+      </x:c>
+      <x:c r="B1011" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1012" spans="1:14">
+      <x:c r="A1012" s="0" t="s">
+        <x:v>969</x:v>
+      </x:c>
+      <x:c r="B1012" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1013" spans="1:14">
+      <x:c r="A1013" s="0" t="s">
+        <x:v>970</x:v>
+      </x:c>
+      <x:c r="B1013" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1014" spans="1:14">
+      <x:c r="A1014" s="0" t="s">
+        <x:v>971</x:v>
+      </x:c>
+      <x:c r="B1014" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1015" spans="1:14">
+      <x:c r="A1015" s="0" t="s">
+        <x:v>972</x:v>
+      </x:c>
+      <x:c r="B1015" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1016" spans="1:14">
+      <x:c r="A1016" s="0" t="s">
+        <x:v>973</x:v>
+      </x:c>
+      <x:c r="B1016" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1017" spans="1:14">
+      <x:c r="A1017" s="0" t="s">
+        <x:v>974</x:v>
+      </x:c>
+      <x:c r="B1017" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1018" spans="1:14">
+      <x:c r="A1018" s="0" t="s">
+        <x:v>975</x:v>
+      </x:c>
+      <x:c r="B1018" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1019" spans="1:14">
+      <x:c r="A1019" s="0" t="s">
+        <x:v>976</x:v>
+      </x:c>
+      <x:c r="B1019" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1020" spans="1:14">
+      <x:c r="A1020" s="0" t="s">
+        <x:v>977</x:v>
+      </x:c>
+      <x:c r="B1020" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1021" spans="1:14">
+      <x:c r="A1021" s="0" t="s">
+        <x:v>978</x:v>
+      </x:c>
+      <x:c r="B1021" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1022" spans="1:14">
+      <x:c r="A1022" s="0" t="s">
+        <x:v>979</x:v>
+      </x:c>
+      <x:c r="B1022" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1023" spans="1:14">
+      <x:c r="A1023" s="0" t="s">
+        <x:v>980</x:v>
+      </x:c>
+      <x:c r="B1023" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1024" spans="1:14">
+      <x:c r="A1024" s="0" t="s">
+        <x:v>981</x:v>
+      </x:c>
+      <x:c r="B1024" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1025" spans="1:14">
+      <x:c r="A1025" s="0" t="s">
+        <x:v>982</x:v>
+      </x:c>
+      <x:c r="B1025" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1026" spans="1:14">
+      <x:c r="A1026" s="0" t="s">
+        <x:v>983</x:v>
+      </x:c>
+      <x:c r="B1026" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1027" spans="1:14">
+      <x:c r="A1027" s="0" t="s">
+        <x:v>984</x:v>
+      </x:c>
+      <x:c r="B1027" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1028" spans="1:14">
+      <x:c r="A1028" s="0" t="s">
+        <x:v>985</x:v>
+      </x:c>
+      <x:c r="B1028" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1029" spans="1:14">
+      <x:c r="A1029" s="0" t="s">
+        <x:v>986</x:v>
+      </x:c>
+      <x:c r="B1029" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1030" spans="1:14">
+      <x:c r="A1030" s="0" t="s">
+        <x:v>987</x:v>
+      </x:c>
+      <x:c r="B1030" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1031" spans="1:14">
+      <x:c r="A1031" s="0" t="s">
+        <x:v>988</x:v>
+      </x:c>
+      <x:c r="B1031" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1032" spans="1:14">
+      <x:c r="A1032" s="0" t="s">
+        <x:v>989</x:v>
+      </x:c>
+      <x:c r="B1032" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1033" spans="1:14">
+      <x:c r="A1033" s="0" t="s">
+        <x:v>990</x:v>
+      </x:c>
+      <x:c r="B1033" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1034" spans="1:14">
+      <x:c r="A1034" s="0" t="s">
+        <x:v>991</x:v>
+      </x:c>
+      <x:c r="B1034" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1035" spans="1:14">
+      <x:c r="A1035" s="0" t="s">
+        <x:v>992</x:v>
+      </x:c>
+      <x:c r="B1035" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1036" spans="1:14">
+      <x:c r="A1036" s="0" t="s">
+        <x:v>993</x:v>
+      </x:c>
+      <x:c r="B1036" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1037" spans="1:14">
+      <x:c r="A1037" s="0" t="s">
+        <x:v>994</x:v>
+      </x:c>
+      <x:c r="B1037" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1038" spans="1:14">
+      <x:c r="A1038" s="0" t="s">
+        <x:v>995</x:v>
+      </x:c>
+      <x:c r="B1038" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1039" spans="1:14">
+      <x:c r="A1039" s="0" t="s">
+        <x:v>996</x:v>
+      </x:c>
+      <x:c r="B1039" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1040" spans="1:14">
+      <x:c r="A1040" s="0" t="s">
+        <x:v>997</x:v>
+      </x:c>
+      <x:c r="B1040" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1041" spans="1:14">
+      <x:c r="A1041" s="0" t="s">
+        <x:v>998</x:v>
+      </x:c>
+      <x:c r="B1041" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1042" spans="1:14">
+      <x:c r="A1042" s="0" t="s">
+        <x:v>999</x:v>
+      </x:c>
+      <x:c r="B1042" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1043" spans="1:14">
+      <x:c r="A1043" s="0" t="s">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="B1043" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1044" spans="1:14">
+      <x:c r="A1044" s="0" t="s">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c r="B1044" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1045" spans="1:14">
+      <x:c r="A1045" s="0" t="s">
+        <x:v>1002</x:v>
+      </x:c>
+      <x:c r="B1045" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1046" spans="1:14">
+      <x:c r="A1046" s="0" t="s">
+        <x:v>1003</x:v>
+      </x:c>
+      <x:c r="B1046" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1047" spans="1:14">
+      <x:c r="A1047" s="0" t="s">
+        <x:v>1004</x:v>
+      </x:c>
+      <x:c r="B1047" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1048" spans="1:14">
+      <x:c r="A1048" s="0" t="s">
+        <x:v>1005</x:v>
+      </x:c>
+      <x:c r="B1048" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1049" spans="1:14">
+      <x:c r="A1049" s="0" t="s">
+        <x:v>1006</x:v>
+      </x:c>
+      <x:c r="B1049" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1050" spans="1:14">
+      <x:c r="A1050" s="0" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1050" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1051" spans="1:14">
+      <x:c r="A1051" s="0" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="B1051" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1052" spans="1:14">
+      <x:c r="A1052" s="0" t="s">
+        <x:v>1009</x:v>
+      </x:c>
+      <x:c r="B1052" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1053" spans="1:14">
+      <x:c r="A1053" s="0" t="s">
+        <x:v>1010</x:v>
+      </x:c>
+      <x:c r="B1053" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1054" spans="1:14">
+      <x:c r="A1054" s="0" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="B1054" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1055" spans="1:14">
+      <x:c r="A1055" s="0" t="s">
+        <x:v>1012</x:v>
+      </x:c>
+      <x:c r="B1055" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1056" spans="1:14">
+      <x:c r="A1056" s="0" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1056" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1057" spans="1:14">
+      <x:c r="A1057" s="0" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="B1057" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1058" spans="1:14">
+      <x:c r="A1058" s="0" t="s">
+        <x:v>1015</x:v>
+      </x:c>
+      <x:c r="B1058" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1059" spans="1:14">
+      <x:c r="A1059" s="0" t="s">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="B1059" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1060" spans="1:14">
+      <x:c r="A1060" s="0" t="s">
+        <x:v>1017</x:v>
+      </x:c>
+      <x:c r="B1060" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1061" spans="1:14">
+      <x:c r="A1061" s="0" t="s">
+        <x:v>1018</x:v>
+      </x:c>
+      <x:c r="B1061" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1062" spans="1:14">
+      <x:c r="A1062" s="0" t="s">
+        <x:v>1019</x:v>
+      </x:c>
+      <x:c r="B1062" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1063" spans="1:14">
+      <x:c r="A1063" s="0" t="s">
+        <x:v>1020</x:v>
+      </x:c>
+      <x:c r="B1063" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1064" spans="1:14">
+      <x:c r="A1064" s="0" t="s">
+        <x:v>1021</x:v>
+      </x:c>
+      <x:c r="B1064" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1065" spans="1:14">
+      <x:c r="A1065" s="0" t="s">
+        <x:v>1022</x:v>
+      </x:c>
+      <x:c r="B1065" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1066" spans="1:14">
+      <x:c r="A1066" s="0" t="s">
+        <x:v>1023</x:v>
+      </x:c>
+      <x:c r="B1066" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1067" spans="1:14">
+      <x:c r="A1067" s="0" t="s">
+        <x:v>1024</x:v>
+      </x:c>
+      <x:c r="B1067" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1068" spans="1:14">
+      <x:c r="A1068" s="0" t="s">
+        <x:v>1025</x:v>
+      </x:c>
+      <x:c r="B1068" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1069" spans="1:14">
+      <x:c r="A1069" s="0" t="s">
+        <x:v>1026</x:v>
+      </x:c>
+      <x:c r="B1069" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1070" spans="1:14">
+      <x:c r="A1070" s="0" t="s">
+        <x:v>1027</x:v>
+      </x:c>
+      <x:c r="B1070" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1071" spans="1:14">
+      <x:c r="A1071" s="0" t="s">
+        <x:v>1028</x:v>
+      </x:c>
+      <x:c r="B1071" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1072" spans="1:14">
+      <x:c r="A1072" s="0" t="s">
+        <x:v>1029</x:v>
+      </x:c>
+      <x:c r="B1072" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1073" spans="1:14">
+      <x:c r="A1073" s="0" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1073" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1074" spans="1:14">
+      <x:c r="A1074" s="0" t="s">
+        <x:v>1031</x:v>
+      </x:c>
+      <x:c r="B1074" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1075" spans="1:14">
+      <x:c r="A1075" s="0" t="s">
+        <x:v>1032</x:v>
+      </x:c>
+      <x:c r="B1075" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1076" spans="1:14">
+      <x:c r="A1076" s="0" t="s">
+        <x:v>1033</x:v>
+      </x:c>
+      <x:c r="B1076" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1077" spans="1:14">
+      <x:c r="A1077" s="0" t="s">
+        <x:v>1034</x:v>
+      </x:c>
+      <x:c r="B1077" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1078" spans="1:14">
+      <x:c r="A1078" s="0" t="s">
+        <x:v>1035</x:v>
+      </x:c>
+      <x:c r="B1078" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1079" spans="1:14">
+      <x:c r="A1079" s="0" t="s">
+        <x:v>1036</x:v>
+      </x:c>
+      <x:c r="B1079" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1080" spans="1:14">
+      <x:c r="A1080" s="0" t="s">
+        <x:v>1037</x:v>
+      </x:c>
+      <x:c r="B1080" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1081" spans="1:14">
+      <x:c r="A1081" s="0" t="s">
+        <x:v>1038</x:v>
+      </x:c>
+      <x:c r="B1081" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1082" spans="1:14">
+      <x:c r="A1082" s="0" t="s">
+        <x:v>1039</x:v>
+      </x:c>
+      <x:c r="B1082" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1083" spans="1:14">
+      <x:c r="A1083" s="0" t="s">
+        <x:v>1040</x:v>
+      </x:c>
+      <x:c r="B1083" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1084" spans="1:14">
+      <x:c r="A1084" s="0" t="s">
+        <x:v>1041</x:v>
+      </x:c>
+      <x:c r="B1084" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1085" spans="1:14">
+      <x:c r="A1085" s="0" t="s">
+        <x:v>1042</x:v>
+      </x:c>
+      <x:c r="B1085" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1086" spans="1:14">
+      <x:c r="A1086" s="0" t="s">
+        <x:v>1043</x:v>
+      </x:c>
+      <x:c r="B1086" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1087" spans="1:14">
+      <x:c r="A1087" s="0" t="s">
+        <x:v>1044</x:v>
+      </x:c>
+      <x:c r="B1087" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1088" spans="1:14">
+      <x:c r="A1088" s="0" t="s">
+        <x:v>1045</x:v>
+      </x:c>
+      <x:c r="B1088" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1089" spans="1:14">
+      <x:c r="A1089" s="0" t="s">
+        <x:v>1046</x:v>
+      </x:c>
+      <x:c r="B1089" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1090" spans="1:14">
+      <x:c r="A1090" s="0" t="s">
+        <x:v>1047</x:v>
+      </x:c>
+      <x:c r="B1090" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1091" spans="1:14">
+      <x:c r="A1091" s="0" t="s">
+        <x:v>1048</x:v>
+      </x:c>
+      <x:c r="B1091" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1092" spans="1:14">
+      <x:c r="A1092" s="0" t="s">
+        <x:v>1049</x:v>
+      </x:c>
+      <x:c r="B1092" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1093" spans="1:14">
+      <x:c r="A1093" s="0" t="s">
+        <x:v>1050</x:v>
+      </x:c>
+      <x:c r="B1093" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1094" spans="1:14">
+      <x:c r="A1094" s="0" t="s">
+        <x:v>1051</x:v>
+      </x:c>
+      <x:c r="B1094" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1095" spans="1:14">
+      <x:c r="A1095" s="0" t="s">
+        <x:v>1052</x:v>
+      </x:c>
+      <x:c r="B1095" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1096" spans="1:14">
+      <x:c r="A1096" s="0" t="s">
+        <x:v>1053</x:v>
+      </x:c>
+      <x:c r="B1096" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1097" spans="1:14">
+      <x:c r="A1097" s="0" t="s">
+        <x:v>1054</x:v>
+      </x:c>
+      <x:c r="B1097" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1098" spans="1:14">
+      <x:c r="A1098" s="0" t="s">
+        <x:v>1055</x:v>
+      </x:c>
+      <x:c r="B1098" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1099" spans="1:14">
+      <x:c r="A1099" s="0" t="s">
+        <x:v>1056</x:v>
+      </x:c>
+      <x:c r="B1099" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1100" spans="1:14">
+      <x:c r="A1100" s="0" t="s">
+        <x:v>1057</x:v>
+      </x:c>
+      <x:c r="B1100" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1101" spans="1:14">
+      <x:c r="A1101" s="0" t="s">
+        <x:v>1058</x:v>
+      </x:c>
+      <x:c r="B1101" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1102" spans="1:14">
+      <x:c r="A1102" s="0" t="s">
+        <x:v>1059</x:v>
+      </x:c>
+      <x:c r="B1102" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1103" spans="1:14">
+      <x:c r="A1103" s="0" t="s">
+        <x:v>1060</x:v>
+      </x:c>
+      <x:c r="B1103" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1104" spans="1:14">
+      <x:c r="A1104" s="0" t="s">
+        <x:v>1061</x:v>
+      </x:c>
+      <x:c r="B1104" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1105" spans="1:14">
+      <x:c r="A1105" s="0" t="s">
+        <x:v>1062</x:v>
+      </x:c>
+      <x:c r="B1105" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1106" spans="1:14">
+      <x:c r="A1106" s="0" t="s">
+        <x:v>1063</x:v>
+      </x:c>
+      <x:c r="B1106" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1107" spans="1:14">
+      <x:c r="A1107" s="0" t="s">
+        <x:v>1064</x:v>
+      </x:c>
+      <x:c r="B1107" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1108" spans="1:14">
+      <x:c r="A1108" s="0" t="s">
+        <x:v>1065</x:v>
+      </x:c>
+      <x:c r="B1108" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1109" spans="1:14">
+      <x:c r="A1109" s="0" t="s">
+        <x:v>1066</x:v>
+      </x:c>
+      <x:c r="B1109" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1110" spans="1:14">
+      <x:c r="A1110" s="0" t="s">
+        <x:v>1067</x:v>
+      </x:c>
+      <x:c r="B1110" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1111" spans="1:14">
+      <x:c r="A1111" s="0" t="s">
+        <x:v>1068</x:v>
+      </x:c>
+      <x:c r="B1111" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1112" spans="1:14">
+      <x:c r="A1112" s="0" t="s">
+        <x:v>1069</x:v>
+      </x:c>
+      <x:c r="B1112" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1113" spans="1:14">
+      <x:c r="A1113" s="0" t="s">
+        <x:v>1070</x:v>
+      </x:c>
+      <x:c r="B1113" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1114" spans="1:14">
+      <x:c r="A1114" s="0" t="s">
+        <x:v>1071</x:v>
+      </x:c>
+      <x:c r="B1114" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1115" spans="1:14">
+      <x:c r="A1115" s="0" t="s">
+        <x:v>1072</x:v>
+      </x:c>
+      <x:c r="B1115" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1116" spans="1:14">
+      <x:c r="A1116" s="0" t="s">
+        <x:v>1073</x:v>
+      </x:c>
+      <x:c r="B1116" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1117" spans="1:14">
+      <x:c r="A1117" s="0" t="s">
+        <x:v>1074</x:v>
+      </x:c>
+      <x:c r="B1117" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1118" spans="1:14">
+      <x:c r="A1118" s="0" t="s">
+        <x:v>1075</x:v>
+      </x:c>
+      <x:c r="B1118" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1119" spans="1:14">
+      <x:c r="A1119" s="0" t="s">
+        <x:v>1076</x:v>
+      </x:c>
+      <x:c r="B1119" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1120" spans="1:14">
+      <x:c r="A1120" s="0" t="s">
+        <x:v>1077</x:v>
+      </x:c>
+      <x:c r="B1120" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1121" spans="1:14">
+      <x:c r="A1121" s="0" t="s">
+        <x:v>1078</x:v>
+      </x:c>
+      <x:c r="B1121" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1122" spans="1:14">
+      <x:c r="A1122" s="0" t="s">
+        <x:v>1079</x:v>
+      </x:c>
+      <x:c r="B1122" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1123" spans="1:14">
+      <x:c r="A1123" s="0" t="s">
+        <x:v>1080</x:v>
+      </x:c>
+      <x:c r="B1123" s="3" t="s">
+        <x:v>1081</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="1082">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="1086">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -3347,6 +3347,18 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/shoes/pumps/gucci-patent-leather-pumps-fl1rz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/tory-burch-patent-leather-pumps-ffko9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-louboutin-suede-pumps-fh88i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/bottega-veneta-printed-slingback-pumps-fbgg7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-louboutin-patent-leather-pumps-fakua</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -12597,7 +12609,39 @@
         <x:v>1080</x:v>
       </x:c>
       <x:c r="B1123" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1125" spans="1:14">
+      <x:c r="A1125" s="0" t="s">
         <x:v>1081</x:v>
+      </x:c>
+      <x:c r="B1125" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1126" spans="1:14">
+      <x:c r="A1126" s="0" t="s">
+        <x:v>1082</x:v>
+      </x:c>
+      <x:c r="B1126" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1127" spans="1:14">
+      <x:c r="A1127" s="0" t="s">
+        <x:v>1083</x:v>
+      </x:c>
+      <x:c r="B1127" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1128" spans="1:14">
+      <x:c r="A1128" s="0" t="s">
+        <x:v>1084</x:v>
+      </x:c>
+      <x:c r="B1128" s="3" t="s">
+        <x:v>1085</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="1086">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="1111">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -3359,6 +3359,81 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-louboutin-patent-leather-pumps-fakua</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/givenchy-leather-printed-wallet-fwtrd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/marc-jacobs-leather-continental-wallet-fvwsh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/michael-kors-continental-wallet-fs7er</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-bifold-wallet-fezar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/marc-jacobs-leather-wallet-fv8rx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2002-wallet-fndqp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/gucci-leather-continental-wallet-fn43k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/chloe-leather-continental-wallet-fie7j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/kate-spade-new-york-patent-leather-printed-wallet-fc2ce</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2000-epi-leather-porte-monnaie-tresor-wallet-fb59u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/gucci-leather-belt-fyjrx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/michael-kors-leather-belt-fykz0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/gucci-microguccissima-pattern-leather-waist-belt-fys2t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/isabel-marant-wide-ponyhair-belt-fvy16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/veronica-beard-skinny-ponyhair-belt-fxd2j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/gucci-wide-suede-waist-belt-fxfa9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/isabel-marant-skinny-leather-belt-fxuq4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/chanel-2021-leather-buckle-fy2pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/gucci-skinny-leather-belt-fy37g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/etro-wide-beaded-accents-belt-fwraf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/etro-leather-crystal-embellishments-waist-belt-fwqmw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/fabiana-filippi-skinny-leather-belt-kit-fvype</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-2012-leather-belt-fvrpa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/rag-bone-suede-studded-accents-belt-fxkpd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/celine-wide-ponyhair-belt-fxhnd</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -12641,7 +12716,207 @@
         <x:v>1084</x:v>
       </x:c>
       <x:c r="B1128" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1130" spans="1:14">
+      <x:c r="A1130" s="0" t="s">
         <x:v>1085</x:v>
+      </x:c>
+      <x:c r="B1130" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1131" spans="1:14">
+      <x:c r="A1131" s="0" t="s">
+        <x:v>1086</x:v>
+      </x:c>
+      <x:c r="B1131" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1132" spans="1:14">
+      <x:c r="A1132" s="0" t="s">
+        <x:v>1087</x:v>
+      </x:c>
+      <x:c r="B1132" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1133" spans="1:14">
+      <x:c r="A1133" s="0" t="s">
+        <x:v>1088</x:v>
+      </x:c>
+      <x:c r="B1133" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1134" spans="1:14">
+      <x:c r="A1134" s="0" t="s">
+        <x:v>1089</x:v>
+      </x:c>
+      <x:c r="B1134" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1135" spans="1:14">
+      <x:c r="A1135" s="0" t="s">
+        <x:v>1090</x:v>
+      </x:c>
+      <x:c r="B1135" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1136" spans="1:14">
+      <x:c r="A1136" s="0" t="s">
+        <x:v>1091</x:v>
+      </x:c>
+      <x:c r="B1136" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1137" spans="1:14">
+      <x:c r="A1137" s="0" t="s">
+        <x:v>1092</x:v>
+      </x:c>
+      <x:c r="B1137" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1138" spans="1:14">
+      <x:c r="A1138" s="0" t="s">
+        <x:v>1093</x:v>
+      </x:c>
+      <x:c r="B1138" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1139" spans="1:14">
+      <x:c r="A1139" s="0" t="s">
+        <x:v>1094</x:v>
+      </x:c>
+      <x:c r="B1139" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1140" spans="1:14">
+      <x:c r="A1140" s="0" t="s">
+        <x:v>1095</x:v>
+      </x:c>
+      <x:c r="B1140" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1141" spans="1:14">
+      <x:c r="A1141" s="0" t="s">
+        <x:v>1096</x:v>
+      </x:c>
+      <x:c r="B1141" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1142" spans="1:14">
+      <x:c r="A1142" s="0" t="s">
+        <x:v>1097</x:v>
+      </x:c>
+      <x:c r="B1142" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1143" spans="1:14">
+      <x:c r="A1143" s="0" t="s">
+        <x:v>1098</x:v>
+      </x:c>
+      <x:c r="B1143" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1144" spans="1:14">
+      <x:c r="A1144" s="0" t="s">
+        <x:v>1099</x:v>
+      </x:c>
+      <x:c r="B1144" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1145" spans="1:14">
+      <x:c r="A1145" s="0" t="s">
+        <x:v>1100</x:v>
+      </x:c>
+      <x:c r="B1145" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1146" spans="1:14">
+      <x:c r="A1146" s="0" t="s">
+        <x:v>1101</x:v>
+      </x:c>
+      <x:c r="B1146" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1147" spans="1:14">
+      <x:c r="A1147" s="0" t="s">
+        <x:v>1102</x:v>
+      </x:c>
+      <x:c r="B1147" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1148" spans="1:14">
+      <x:c r="A1148" s="0" t="s">
+        <x:v>1103</x:v>
+      </x:c>
+      <x:c r="B1148" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1149" spans="1:14">
+      <x:c r="A1149" s="0" t="s">
+        <x:v>1104</x:v>
+      </x:c>
+      <x:c r="B1149" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1150" spans="1:14">
+      <x:c r="A1150" s="0" t="s">
+        <x:v>1105</x:v>
+      </x:c>
+      <x:c r="B1150" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1151" spans="1:14">
+      <x:c r="A1151" s="0" t="s">
+        <x:v>1106</x:v>
+      </x:c>
+      <x:c r="B1151" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1152" spans="1:14">
+      <x:c r="A1152" s="0" t="s">
+        <x:v>1107</x:v>
+      </x:c>
+      <x:c r="B1152" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1153" spans="1:14">
+      <x:c r="A1153" s="0" t="s">
+        <x:v>1108</x:v>
+      </x:c>
+      <x:c r="B1153" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1154" spans="1:14">
+      <x:c r="A1154" s="0" t="s">
+        <x:v>1109</x:v>
+      </x:c>
+      <x:c r="B1154" s="3" t="s">
+        <x:v>1110</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="1111">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1121">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -3434,6 +3434,36 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/accessories/belts/celine-wide-ponyhair-belt-fxhnd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-square-sunglasses-frdh2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-sport-aviator-mirrored-sunglasses-fpcgg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-wayfarer-tinted-sunglasses-frqze</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-square-tinted-sunglasses-frxz4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/roberto-cavalli-aviator-tinted-sunglasses-fq1qg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-cat-eye-tinted-sunglasses-fjbrk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/zimmermann-wayfarer-tinted-sunglasses-flvsw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-dorchester-aviator-sunglasses-frtvg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/moose-knuckles-wool-beanie-w-tags-f7vor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/carolina-herrera-sequin-embellished-mask-ersfu</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -12916,7 +12946,87 @@
         <x:v>1109</x:v>
       </x:c>
       <x:c r="B1154" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1156" spans="1:14">
+      <x:c r="A1156" s="0" t="s">
         <x:v>1110</x:v>
+      </x:c>
+      <x:c r="B1156" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1157" spans="1:14">
+      <x:c r="A1157" s="0" t="s">
+        <x:v>1111</x:v>
+      </x:c>
+      <x:c r="B1157" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1158" spans="1:14">
+      <x:c r="A1158" s="0" t="s">
+        <x:v>1112</x:v>
+      </x:c>
+      <x:c r="B1158" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1159" spans="1:14">
+      <x:c r="A1159" s="0" t="s">
+        <x:v>1113</x:v>
+      </x:c>
+      <x:c r="B1159" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1160" spans="1:14">
+      <x:c r="A1160" s="0" t="s">
+        <x:v>1114</x:v>
+      </x:c>
+      <x:c r="B1160" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1161" spans="1:14">
+      <x:c r="A1161" s="0" t="s">
+        <x:v>1115</x:v>
+      </x:c>
+      <x:c r="B1161" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1162" spans="1:14">
+      <x:c r="A1162" s="0" t="s">
+        <x:v>1116</x:v>
+      </x:c>
+      <x:c r="B1162" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1163" spans="1:14">
+      <x:c r="A1163" s="0" t="s">
+        <x:v>1117</x:v>
+      </x:c>
+      <x:c r="B1163" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1164" spans="1:14">
+      <x:c r="A1164" s="0" t="s">
+        <x:v>1118</x:v>
+      </x:c>
+      <x:c r="B1164" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1165" spans="1:14">
+      <x:c r="A1165" s="0" t="s">
+        <x:v>1119</x:v>
+      </x:c>
+      <x:c r="B1165" s="3" t="s">
+        <x:v>1120</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1121">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1184">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -3464,6 +3464,195 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/accessories/carolina-herrera-sequin-embellished-mask-ersfu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/gucci-vintage-cosmetic-bag-fyoex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/eyeglasses/tiffany-co-cat-eye-eyeglasses-fyjtb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/eyeglasses/bvlgari-cat-eye-eyeglasses-fywu5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/winter-accessories/ugg-fur-accent-winter-earmuffs-fyjvt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/technology/christian-louboutin-studded-accent-iphone-case-fymi8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/prada-vela-cosmetic-pouch-fz28i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/gucci-denim-bucket-hat-w-tags-fyc9t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-puzzle-key-ring-f4pbr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-fleur-d-epi-bag-charm-ema35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-pastilles-key-chain-bag-charm-fqx9w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hair-accessories/burberry-london-quilted-leather-headband-fxge3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/rag-bone-hat-fxc9i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hermes-bolduc-scarf-ring-fwwfi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/moose-knuckles-knit-pom-pom-beanie-f22qz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/gucci-gg-supreme-ophidia-pouch-fvq2j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/chanel-2021-lipstick-case-w-chain-fu2lg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/burberry-housecheck-bakers-cap-fxkxj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-monogram-denim-bucket-hat-fnl6x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-oversize-mirrored-sunglasses-fkt6x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/keychains/tiffany-co-x-supreme-solid-utility-knife-keychain-flx6v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hosiery/gucci-hoisery-w-tags-fs4xx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-2021-monogram-toiletry-pouch-19-fs9bx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/gucci-paper-hat-fu6ui</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/fendi-skinny-metal-waist-belt-ffzqp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-monogram-shine-silk-scarf-ff249</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/keychains/burberry-multicolor-leather-keychain-fnvhm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/louis-vuitton-monogram-etui-cigarette-case-fm0gp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/alexander-mcqueen-silk-skull-scarf-flepa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/sporty-rich-embroidered-cotton-hat-fjyst</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/gianfranco-ferre-leather-belt-evzly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/unsigned-mink-fur-hat-efbqo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/gucci-straw-sun-hat-edghg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/celine-womens-cosmetic-bag-dpj0u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/the-row-striped-shawl-dhyf0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/chanel-leather-bifold-wallet-cyh2e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/chanel-2020-interlocking-cc-logo-card-holder-fygey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hair-accessories/salvatore-ferragamo-woven-bow-accent-headband-fyj0m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/gucci-gg-supreme-compact-wallet-fzf8h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-python-bandouliere-strap-fo1a0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/salvatore-ferragamo-silk-floral-print-scarf-fx1lb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/christian-louboutin-craft-leather-continental-wallet-etql0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/winter-accessories/burberry-leather-gloves-g1an3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/hermes-cannes-pommeaux-silk-scarf-fxecu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/rag-bone-grey-wool-beanie-fxiqu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/hermes-les-chevaux-qataris-silk-scarf-fx9n2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-alex-02-square-sunglasses-fx757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/winter-accessories/moschino-long-suede-embroidered-gloves-fmxba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/etro-silk-paisley-print-scarf-fpusa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/adrienne-landau-knit-pom-pom-hat-w-tags-fw377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/hermes-new-orleans-creole-jazz-silk-scarf-fsjqb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hermes-knotting-cards-ftlar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/loro-piana-printed-scarf-frrvn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/moschino-wide-suede-belt-fv15k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/eric-javits-squishee-sun-hat-fvf1y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/anine-bing-cotton-embroidered-baseball-cap-fv5p8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/chanel-silk-vintage-scarf-ft2u3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/julien-david-cashmere-printed-scarf-ftbni</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/janessa-leone-wool-wide-brim-hat-ft9bj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/gucci-mesh-gg-signature-baseball-cap-fu546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/moschino-knit-beanie-w-tags-fpe86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/chanel-interlocking-cc-logo-leather-card-holder-frda0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/roberto-cavalli-python-crystal-embellishments-belt-ftfog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-oversize-gradient-sunglasses-fo4ga</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -13026,7 +13215,527 @@
         <x:v>1119</x:v>
       </x:c>
       <x:c r="B1165" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1167" spans="1:14">
+      <x:c r="A1167" s="0" t="s">
+        <x:v>1118</x:v>
+      </x:c>
+      <x:c r="B1167" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1168" spans="1:14">
+      <x:c r="A1168" s="0" t="s">
+        <x:v>1119</x:v>
+      </x:c>
+      <x:c r="B1168" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1169" spans="1:14">
+      <x:c r="A1169" s="0" t="s">
         <x:v>1120</x:v>
+      </x:c>
+      <x:c r="B1169" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1170" spans="1:14">
+      <x:c r="A1170" s="0" t="s">
+        <x:v>1121</x:v>
+      </x:c>
+      <x:c r="B1170" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1171" spans="1:14">
+      <x:c r="A1171" s="0" t="s">
+        <x:v>1122</x:v>
+      </x:c>
+      <x:c r="B1171" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1172" spans="1:14">
+      <x:c r="A1172" s="0" t="s">
+        <x:v>1123</x:v>
+      </x:c>
+      <x:c r="B1172" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1173" spans="1:14">
+      <x:c r="A1173" s="0" t="s">
+        <x:v>1124</x:v>
+      </x:c>
+      <x:c r="B1173" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1174" spans="1:14">
+      <x:c r="A1174" s="0" t="s">
+        <x:v>1125</x:v>
+      </x:c>
+      <x:c r="B1174" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1176" spans="1:14">
+      <x:c r="A1176" s="0" t="s">
+        <x:v>1126</x:v>
+      </x:c>
+      <x:c r="B1176" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1177" spans="1:14">
+      <x:c r="A1177" s="0" t="s">
+        <x:v>1127</x:v>
+      </x:c>
+      <x:c r="B1177" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1178" spans="1:14">
+      <x:c r="A1178" s="0" t="s">
+        <x:v>1128</x:v>
+      </x:c>
+      <x:c r="B1178" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1179" spans="1:14">
+      <x:c r="A1179" s="0" t="s">
+        <x:v>1129</x:v>
+      </x:c>
+      <x:c r="B1179" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1180" spans="1:14">
+      <x:c r="A1180" s="0" t="s">
+        <x:v>1130</x:v>
+      </x:c>
+      <x:c r="B1180" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1181" spans="1:14">
+      <x:c r="A1181" s="0" t="s">
+        <x:v>1131</x:v>
+      </x:c>
+      <x:c r="B1181" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1182" spans="1:14">
+      <x:c r="A1182" s="0" t="s">
+        <x:v>1132</x:v>
+      </x:c>
+      <x:c r="B1182" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1183" spans="1:14">
+      <x:c r="A1183" s="0" t="s">
+        <x:v>1133</x:v>
+      </x:c>
+      <x:c r="B1183" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1184" spans="1:14">
+      <x:c r="A1184" s="0" t="s">
+        <x:v>1134</x:v>
+      </x:c>
+      <x:c r="B1184" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1185" spans="1:14">
+      <x:c r="A1185" s="0" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="B1185" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1186" spans="1:14">
+      <x:c r="A1186" s="0" t="s">
+        <x:v>1136</x:v>
+      </x:c>
+      <x:c r="B1186" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1187" spans="1:14">
+      <x:c r="A1187" s="0" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="B1187" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1188" spans="1:14">
+      <x:c r="A1188" s="0" t="s">
+        <x:v>1138</x:v>
+      </x:c>
+      <x:c r="B1188" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1189" spans="1:14">
+      <x:c r="A1189" s="0" t="s">
+        <x:v>1139</x:v>
+      </x:c>
+      <x:c r="B1189" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1190" spans="1:14">
+      <x:c r="A1190" s="0" t="s">
+        <x:v>1140</x:v>
+      </x:c>
+      <x:c r="B1190" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1191" spans="1:14">
+      <x:c r="A1191" s="0" t="s">
+        <x:v>1141</x:v>
+      </x:c>
+      <x:c r="B1191" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1192" spans="1:14">
+      <x:c r="A1192" s="0" t="s">
+        <x:v>1142</x:v>
+      </x:c>
+      <x:c r="B1192" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1193" spans="1:14">
+      <x:c r="A1193" s="0" t="s">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="B1193" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1194" spans="1:14">
+      <x:c r="A1194" s="0" t="s">
+        <x:v>1144</x:v>
+      </x:c>
+      <x:c r="B1194" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1195" spans="1:14">
+      <x:c r="A1195" s="0" t="s">
+        <x:v>1145</x:v>
+      </x:c>
+      <x:c r="B1195" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1196" spans="1:14">
+      <x:c r="A1196" s="0" t="s">
+        <x:v>1146</x:v>
+      </x:c>
+      <x:c r="B1196" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1197" spans="1:14">
+      <x:c r="A1197" s="0" t="s">
+        <x:v>1147</x:v>
+      </x:c>
+      <x:c r="B1197" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1198" spans="1:14">
+      <x:c r="A1198" s="0" t="s">
+        <x:v>1148</x:v>
+      </x:c>
+      <x:c r="B1198" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1199" spans="1:14">
+      <x:c r="A1199" s="0" t="s">
+        <x:v>1149</x:v>
+      </x:c>
+      <x:c r="B1199" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1200" spans="1:14">
+      <x:c r="A1200" s="0" t="s">
+        <x:v>1150</x:v>
+      </x:c>
+      <x:c r="B1200" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1201" spans="1:14">
+      <x:c r="A1201" s="0" t="s">
+        <x:v>1151</x:v>
+      </x:c>
+      <x:c r="B1201" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1202" spans="1:14">
+      <x:c r="A1202" s="0" t="s">
+        <x:v>1152</x:v>
+      </x:c>
+      <x:c r="B1202" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1203" spans="1:14">
+      <x:c r="A1203" s="0" t="s">
+        <x:v>1153</x:v>
+      </x:c>
+      <x:c r="B1203" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1204" spans="1:14">
+      <x:c r="A1204" s="0" t="s">
+        <x:v>1154</x:v>
+      </x:c>
+      <x:c r="B1204" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1205" spans="1:14">
+      <x:c r="A1205" s="0" t="s">
+        <x:v>1155</x:v>
+      </x:c>
+      <x:c r="B1205" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1206" spans="1:14">
+      <x:c r="A1206" s="0" t="s">
+        <x:v>1156</x:v>
+      </x:c>
+      <x:c r="B1206" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1207" spans="1:14">
+      <x:c r="A1207" s="0" t="s">
+        <x:v>1157</x:v>
+      </x:c>
+      <x:c r="B1207" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1208" spans="1:14">
+      <x:c r="A1208" s="0" t="s">
+        <x:v>1158</x:v>
+      </x:c>
+      <x:c r="B1208" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1209" spans="1:14">
+      <x:c r="A1209" s="0" t="s">
+        <x:v>1159</x:v>
+      </x:c>
+      <x:c r="B1209" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1210" spans="1:14">
+      <x:c r="A1210" s="0" t="s">
+        <x:v>1160</x:v>
+      </x:c>
+      <x:c r="B1210" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1211" spans="1:14">
+      <x:c r="A1211" s="0" t="s">
+        <x:v>1161</x:v>
+      </x:c>
+      <x:c r="B1211" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1212" spans="1:14">
+      <x:c r="A1212" s="0" t="s">
+        <x:v>1162</x:v>
+      </x:c>
+      <x:c r="B1212" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1213" spans="1:14">
+      <x:c r="A1213" s="0" t="s">
+        <x:v>1163</x:v>
+      </x:c>
+      <x:c r="B1213" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1214" spans="1:14">
+      <x:c r="A1214" s="0" t="s">
+        <x:v>1164</x:v>
+      </x:c>
+      <x:c r="B1214" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1215" spans="1:14">
+      <x:c r="A1215" s="0" t="s">
+        <x:v>1165</x:v>
+      </x:c>
+      <x:c r="B1215" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1216" spans="1:14">
+      <x:c r="A1216" s="0" t="s">
+        <x:v>1166</x:v>
+      </x:c>
+      <x:c r="B1216" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1217" spans="1:14">
+      <x:c r="A1217" s="0" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="B1217" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1218" spans="1:14">
+      <x:c r="A1218" s="0" t="s">
+        <x:v>1168</x:v>
+      </x:c>
+      <x:c r="B1218" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1219" spans="1:14">
+      <x:c r="A1219" s="0" t="s">
+        <x:v>1169</x:v>
+      </x:c>
+      <x:c r="B1219" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1220" spans="1:14">
+      <x:c r="A1220" s="0" t="s">
+        <x:v>1170</x:v>
+      </x:c>
+      <x:c r="B1220" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1221" spans="1:14">
+      <x:c r="A1221" s="0" t="s">
+        <x:v>1171</x:v>
+      </x:c>
+      <x:c r="B1221" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1222" spans="1:14">
+      <x:c r="A1222" s="0" t="s">
+        <x:v>1172</x:v>
+      </x:c>
+      <x:c r="B1222" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1223" spans="1:14">
+      <x:c r="A1223" s="0" t="s">
+        <x:v>1173</x:v>
+      </x:c>
+      <x:c r="B1223" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1224" spans="1:14">
+      <x:c r="A1224" s="0" t="s">
+        <x:v>1174</x:v>
+      </x:c>
+      <x:c r="B1224" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1225" spans="1:14">
+      <x:c r="A1225" s="0" t="s">
+        <x:v>1175</x:v>
+      </x:c>
+      <x:c r="B1225" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1226" spans="1:14">
+      <x:c r="A1226" s="0" t="s">
+        <x:v>1176</x:v>
+      </x:c>
+      <x:c r="B1226" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1227" spans="1:14">
+      <x:c r="A1227" s="0" t="s">
+        <x:v>1177</x:v>
+      </x:c>
+      <x:c r="B1227" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1228" spans="1:14">
+      <x:c r="A1228" s="0" t="s">
+        <x:v>1178</x:v>
+      </x:c>
+      <x:c r="B1228" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1229" spans="1:14">
+      <x:c r="A1229" s="0" t="s">
+        <x:v>1179</x:v>
+      </x:c>
+      <x:c r="B1229" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1230" spans="1:14">
+      <x:c r="A1230" s="0" t="s">
+        <x:v>1180</x:v>
+      </x:c>
+      <x:c r="B1230" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1231" spans="1:14">
+      <x:c r="A1231" s="0" t="s">
+        <x:v>1181</x:v>
+      </x:c>
+      <x:c r="B1231" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1232" spans="1:14">
+      <x:c r="A1232" s="0" t="s">
+        <x:v>1182</x:v>
+      </x:c>
+      <x:c r="B1232" s="3" t="s">
+        <x:v>1183</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1184">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="1205">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -3653,6 +3653,69 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-oversize-gradient-sunglasses-fo4ga</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/clare-v-velvet-and-leather-colorblock-cosmetic-bag-fr70z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/balenciaga-wool-scarf-flpxv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/rag-bone-skinny-leather-belt-fphgh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/loro-piana-cashmere-shawl-fmh7k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/travel/chanel-cc-agenda-cover-fjoo6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-cat-eye-gradient-sunglasses-fkgcl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/mark-cross-leather-coin-pouch-fi6gd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/emilio-pucci-printed-scarf-fhb6i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/hermes-dies-et-hore-silk-scarf-f7acr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/bag-accessories/clare-v-ponyhair-flat-pouch-exy2z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/winter-accessories/chanel-chanel-vintage-cc-turn-lock-gloves-erufx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/christian-dior-silk-paisley-print-scarf-emlt2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/janessa-leone-wool-wide-brim-hat-e01bf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-shield-mirrored-sunglasses-d2f23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-wool-scarf-ct2g7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/prada-saffiano-lux-leather-continental-wallet-eze3q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-1997-monogram-pattern-jeanne-wallet-eyjxq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/janessa-leone-straw-sun-hat-eknu2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-wayfarer-mirrored-sunglasses-el5s5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-wristlet-dic30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/prada-leather-continental-wallet-cgo1h</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -13735,7 +13798,399 @@
         <x:v>1182</x:v>
       </x:c>
       <x:c r="B1232" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1234" spans="1:14">
+      <x:c r="A1234" s="0" t="s">
+        <x:v>1155</x:v>
+      </x:c>
+      <x:c r="B1234" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1235" spans="1:14">
+      <x:c r="A1235" s="0" t="s">
+        <x:v>1156</x:v>
+      </x:c>
+      <x:c r="B1235" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1236" spans="1:14">
+      <x:c r="A1236" s="0" t="s">
+        <x:v>1157</x:v>
+      </x:c>
+      <x:c r="B1236" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1237" spans="1:14">
+      <x:c r="A1237" s="0" t="s">
+        <x:v>1158</x:v>
+      </x:c>
+      <x:c r="B1237" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1238" spans="1:14">
+      <x:c r="A1238" s="0" t="s">
+        <x:v>1159</x:v>
+      </x:c>
+      <x:c r="B1238" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1239" spans="1:14">
+      <x:c r="A1239" s="0" t="s">
+        <x:v>1160</x:v>
+      </x:c>
+      <x:c r="B1239" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1240" spans="1:14">
+      <x:c r="A1240" s="0" t="s">
+        <x:v>1161</x:v>
+      </x:c>
+      <x:c r="B1240" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1241" spans="1:14">
+      <x:c r="A1241" s="0" t="s">
+        <x:v>1162</x:v>
+      </x:c>
+      <x:c r="B1241" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1242" spans="1:14">
+      <x:c r="A1242" s="0" t="s">
+        <x:v>1163</x:v>
+      </x:c>
+      <x:c r="B1242" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1243" spans="1:14">
+      <x:c r="A1243" s="0" t="s">
+        <x:v>1164</x:v>
+      </x:c>
+      <x:c r="B1243" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1244" spans="1:14">
+      <x:c r="A1244" s="0" t="s">
+        <x:v>1165</x:v>
+      </x:c>
+      <x:c r="B1244" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1245" spans="1:14">
+      <x:c r="A1245" s="0" t="s">
+        <x:v>1166</x:v>
+      </x:c>
+      <x:c r="B1245" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1246" spans="1:14">
+      <x:c r="A1246" s="0" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="B1246" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1247" spans="1:14">
+      <x:c r="A1247" s="0" t="s">
+        <x:v>1168</x:v>
+      </x:c>
+      <x:c r="B1247" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1248" spans="1:14">
+      <x:c r="A1248" s="0" t="s">
+        <x:v>1169</x:v>
+      </x:c>
+      <x:c r="B1248" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1249" spans="1:14">
+      <x:c r="A1249" s="0" t="s">
+        <x:v>1170</x:v>
+      </x:c>
+      <x:c r="B1249" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1250" spans="1:14">
+      <x:c r="A1250" s="0" t="s">
+        <x:v>1171</x:v>
+      </x:c>
+      <x:c r="B1250" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1251" spans="1:14">
+      <x:c r="A1251" s="0" t="s">
+        <x:v>1172</x:v>
+      </x:c>
+      <x:c r="B1251" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1252" spans="1:14">
+      <x:c r="A1252" s="0" t="s">
+        <x:v>1173</x:v>
+      </x:c>
+      <x:c r="B1252" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1253" spans="1:14">
+      <x:c r="A1253" s="0" t="s">
+        <x:v>1174</x:v>
+      </x:c>
+      <x:c r="B1253" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1254" spans="1:14">
+      <x:c r="A1254" s="0" t="s">
+        <x:v>1175</x:v>
+      </x:c>
+      <x:c r="B1254" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1255" spans="1:14">
+      <x:c r="A1255" s="0" t="s">
+        <x:v>1176</x:v>
+      </x:c>
+      <x:c r="B1255" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1256" spans="1:14">
+      <x:c r="A1256" s="0" t="s">
+        <x:v>1177</x:v>
+      </x:c>
+      <x:c r="B1256" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1257" spans="1:14">
+      <x:c r="A1257" s="0" t="s">
+        <x:v>1178</x:v>
+      </x:c>
+      <x:c r="B1257" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1258" spans="1:14">
+      <x:c r="A1258" s="0" t="s">
+        <x:v>1179</x:v>
+      </x:c>
+      <x:c r="B1258" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1259" spans="1:14">
+      <x:c r="A1259" s="0" t="s">
+        <x:v>1180</x:v>
+      </x:c>
+      <x:c r="B1259" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1260" spans="1:14">
+      <x:c r="A1260" s="0" t="s">
+        <x:v>1181</x:v>
+      </x:c>
+      <x:c r="B1260" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1261" spans="1:14">
+      <x:c r="A1261" s="0" t="s">
+        <x:v>1182</x:v>
+      </x:c>
+      <x:c r="B1261" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1262" spans="1:14">
+      <x:c r="A1262" s="0" t="s">
         <x:v>1183</x:v>
+      </x:c>
+      <x:c r="B1262" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1263" spans="1:14">
+      <x:c r="A1263" s="0" t="s">
+        <x:v>1184</x:v>
+      </x:c>
+      <x:c r="B1263" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1264" spans="1:14">
+      <x:c r="A1264" s="0" t="s">
+        <x:v>1185</x:v>
+      </x:c>
+      <x:c r="B1264" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1265" spans="1:14">
+      <x:c r="A1265" s="0" t="s">
+        <x:v>1186</x:v>
+      </x:c>
+      <x:c r="B1265" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1266" spans="1:14">
+      <x:c r="A1266" s="0" t="s">
+        <x:v>1187</x:v>
+      </x:c>
+      <x:c r="B1266" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1267" spans="1:14">
+      <x:c r="A1267" s="0" t="s">
+        <x:v>1188</x:v>
+      </x:c>
+      <x:c r="B1267" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1268" spans="1:14">
+      <x:c r="A1268" s="0" t="s">
+        <x:v>1189</x:v>
+      </x:c>
+      <x:c r="B1268" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1269" spans="1:14">
+      <x:c r="A1269" s="0" t="s">
+        <x:v>1190</x:v>
+      </x:c>
+      <x:c r="B1269" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1270" spans="1:14">
+      <x:c r="A1270" s="0" t="s">
+        <x:v>1191</x:v>
+      </x:c>
+      <x:c r="B1270" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1271" spans="1:14">
+      <x:c r="A1271" s="0" t="s">
+        <x:v>1192</x:v>
+      </x:c>
+      <x:c r="B1271" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1272" spans="1:14">
+      <x:c r="A1272" s="0" t="s">
+        <x:v>1193</x:v>
+      </x:c>
+      <x:c r="B1272" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1273" spans="1:14">
+      <x:c r="A1273" s="0" t="s">
+        <x:v>1194</x:v>
+      </x:c>
+      <x:c r="B1273" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1274" spans="1:14">
+      <x:c r="A1274" s="0" t="s">
+        <x:v>1195</x:v>
+      </x:c>
+      <x:c r="B1274" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1275" spans="1:14">
+      <x:c r="A1275" s="0" t="s">
+        <x:v>1196</x:v>
+      </x:c>
+      <x:c r="B1275" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1276" spans="1:14">
+      <x:c r="A1276" s="0" t="s">
+        <x:v>1197</x:v>
+      </x:c>
+      <x:c r="B1276" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1277" spans="1:14">
+      <x:c r="A1277" s="0" t="s">
+        <x:v>1198</x:v>
+      </x:c>
+      <x:c r="B1277" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1278" spans="1:14">
+      <x:c r="A1278" s="0" t="s">
+        <x:v>1199</x:v>
+      </x:c>
+      <x:c r="B1278" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1279" spans="1:14">
+      <x:c r="A1279" s="0" t="s">
+        <x:v>1200</x:v>
+      </x:c>
+      <x:c r="B1279" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1280" spans="1:14">
+      <x:c r="A1280" s="0" t="s">
+        <x:v>1201</x:v>
+      </x:c>
+      <x:c r="B1280" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1281" spans="1:14">
+      <x:c r="A1281" s="0" t="s">
+        <x:v>1202</x:v>
+      </x:c>
+      <x:c r="B1281" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1282" spans="1:14">
+      <x:c r="A1282" s="0" t="s">
+        <x:v>1203</x:v>
+      </x:c>
+      <x:c r="B1282" s="3" t="s">
+        <x:v>1204</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="1205">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1317">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -3716,6 +3716,342 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/accessories/wallets/prada-leather-continental-wallet-cgo1h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/fendi-zucchino-pochette-fxzjj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/prada-tessuto-bow-bag-fxe6u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-quilted-flap-bag-fu19g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-hardcore-bowler-bag-fxf9m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/balenciaga-motocross-classic-city-bag-fwc9d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/prada-tessuto-re-edition-2005-shoulder-bag-fyo03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/isabel-marant-drawstring-leather-shoulder-bag-fylqr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/gucci-medium-velvet-gg-marmont-matelasse-shoulder-bag-fy521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/hermes-clemence-halzan-31-fyom5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-medium-ligne-cambon-bowling-bag-fwxdh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/fendi-velvet-kan-i-f-shoulder-bag-fx0pj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-louise-chain-mm-fx70v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-vintage-suede-dual-flap-bag-cpsb8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/burberry-small-buckle-black-leather-shoulder-bag-eyutd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/gucci-gg-marmont-matelasse-medium-shoulder-bag-fxune</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/a-p-c-leather-shoulder-bag-fydgv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-denim-neo-cabby-mm-fxopv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/fendi-medium-peekaboo-iseeu-bag-fvxs1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-luxe-ligne-bowler-bag-drhrm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-small-just-mademoiselle-bowling-bag-er27y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/hermes-clemence-lindy-26-fjxd9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/cartier-python-trimmed-leather-and-suede-shoulder-bag-f9tds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/mcm-visetos-shoulder-bag-f6dvj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/anya-hindmarch-leather-trim-shoulder-bag-erkqi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/prada-tessuto-shoulder-bag-em4dg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-2021-medium-graffiti-sequins-flap-bag-w-tags-fqi5x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-vintage-monogram-cabas-piano-fxlyo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chloe-darryl-leather-shoulder-bag-fwppt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/brother-vellies-small-snakeskin-shoulder-bag-fyly8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/gucci-gg-plus-shoulder-bag-fz3ak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/gucci-small-gg-marmont-shoulder-bag-fynw9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/saint-laurent-snakeskin-le-5-a-7-hobo-fycfq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/michael-kors-leather-shoulder-bag-fyd67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-modern-chain-e-w-tote-fwu6f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/ch-carolina-herrera-leather-chain-link-shoulder-bag-fx7tm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/hermes-gulliver-trim-ii-31-fwaon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/prada-washed-bauletto-bag-fxhk1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/kate-spade-new-york-raffia-leather-shoulder-bag-fxqo9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chloe-calfskin-roy-shoulder-bag-fxpt4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-ligne-cambon-pochette-edhu8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/fendi-ff-1974-embossed-small-kan-i-shoulder-bag-fy3ah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/burberry-leather-shoulder-bag-fyo0w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/cuyana-leather-shoulder-bag-fwo0m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-leather-shoulder-bag-fxahu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/balenciaga-motocross-giant-21-part-time-shoulder-bag-fvgkk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chloe-leather-medium-marcie-shoulder-bag-fwd88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-chevron-rectangular-mini-flap-bag-frbom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/marni-leather-shoulder-bag-fvf2f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-reverie-fw6k4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/fendi-zucchino-croissant-baguette-fu1ox</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/clare-v-drawstring-leather-shoulder-bag-fvv2f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/gucci-medium-shine-guccissima-emily-bag-fvfwn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/rebecca-minkoff-studded-bow-accent-shoulder-bag-fsbep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/oroton-leather-shoulder-bag-ft6vt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/loeffler-randall-printed-canvas-shoulder-bag-fuurp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/marc-by-marc-jacobs-chain-link-suede-crossbody-fuhle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/saint-laurent-medium-matelasse-monogram-niki-bag-w-tags-frao9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/bottega-veneta-intrecciato-nappa-duo-bag-fpxs1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/marc-by-marc-jacobs-leather-shoulder-bag-fu2r9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-chocolate-bar-flap-bag-e2ad3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/tod-s-leather-shoulder-bag-ftjwx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/salvatore-ferragamo-leather-shoulder-bag-fq4gg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-large-boy-bag-dvd15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/gucci-vintage-gg-canvas-abbey-d-ring-pochette-fmd2f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/lancel-leather-shoulder-bag-fo967</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-python-ligne-cambon-pochette-ec9di</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/pierre-hardy-leather-suede-trim-shoulder-bag-f7zgn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/saint-laurent-medium-grain-de-poudre-west-hollywood-monogram-bag-fkz3k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-medium-quilted-boy-bag-fi9dk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-damier-azur-saleya-pm-foxbk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/kate-spade-new-york-patent-leather-chain-link-shoulder-bag-fmktj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/kate-spade-new-york-leather-shoulder-bag-fi8rt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/gucci-emily-chain-shoulder-bag-fftch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/prada-scamosciato-buckle-hobo-fgcd7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/gucci-gg-canvas-joy-messenger-bag-ffw1w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/celine-teen-classic-box-bag-f6m6u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/kate-spade-new-york-mini-leather-shoulder-bag-fb8q5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/marc-jacobs-leather-suede-trimmed-shoulder-bag-f8mv9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/tumi-nylon-shoulder-bag-f7l6r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/gucci-diamante-print-brick-lane-boston-bag-f412f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/mcm-vintage-nylon-shoulder-bag-f779m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/marge-sherwood-leather-crossbody-bag-f6f83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/bally-leather-shoulder-bag-f050h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-vintage-classic-medium-double-flap-bag-evbvu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-small-gabrielle-purse-ev265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/lanvin-leather-shoulder-bag-euuap</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/bally-leather-shoulder-bag-eupbh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/salvatore-ferragamo-leather-shoulder-bag-w-tassels-eurlv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/prada-lux-calf-double-shoulder-bag-euh4r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/judith-leiber-embossed-leather-shoulder-bag-eu2fi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-medium-just-mademoiselle-bowler-bag-etuws</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/saint-laurent-medium-raffia-niki-chain-bag-eqdn5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-classic-chevron-jumbo-single-flap-bag-ehvov</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/proenza-schouler-metallic-leather-shoulder-bag-e57e7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/salvatore-ferragamo-satin-suede-shoulder-bag-dtnb4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-caviar-timeless-tote-d9ab5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/bottega-veneta-leather-trimmed-shoulder-bag-d6e4m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-vintage-chocolate-bar-barrel-bag-c0b6e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/kate-spade-new-york-nylon-shoulder-bag-fwu4h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/marni-leather-shoulder-bag-ftyl8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/gucci-gg-monogram-boat-pochette-fvsq6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/ugg-suede-faux-fur-trim-shoulder-bag-fx5ae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/karen-millen-leather-shoulder-bag-fvvnp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/kate-spade-x-disney-canvas-minnie-mouse-tote-fwjyq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/fendi-large-kan-u-bag-fwpbe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/burberry-nova-check-shoulder-bag-fk9p9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/salvatore-ferragamo-leather-shoulder-bag-w-tags-fwysz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-vernis-biscayne-bay-pm-fsw12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-soufflot-fuk84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/chanel-large-19-flap-bag-doxdb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/salvatore-ferragamo-medium-leather-shoulder-bag-fu4n5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/damier-ebene-thames-pm-fu8h5</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -14190,7 +14526,903 @@
         <x:v>1203</x:v>
       </x:c>
       <x:c r="B1282" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1284" spans="1:14">
+      <x:c r="A1284" s="0" t="s">
         <x:v>1204</x:v>
+      </x:c>
+      <x:c r="B1284" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1285" spans="1:14">
+      <x:c r="A1285" s="0" t="s">
+        <x:v>1205</x:v>
+      </x:c>
+      <x:c r="B1285" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1286" spans="1:14">
+      <x:c r="A1286" s="0" t="s">
+        <x:v>1206</x:v>
+      </x:c>
+      <x:c r="B1286" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1287" spans="1:14">
+      <x:c r="A1287" s="0" t="s">
+        <x:v>1207</x:v>
+      </x:c>
+      <x:c r="B1287" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1288" spans="1:14">
+      <x:c r="A1288" s="0" t="s">
+        <x:v>1208</x:v>
+      </x:c>
+      <x:c r="B1288" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1289" spans="1:14">
+      <x:c r="A1289" s="0" t="s">
+        <x:v>1209</x:v>
+      </x:c>
+      <x:c r="B1289" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1290" spans="1:14">
+      <x:c r="A1290" s="0" t="s">
+        <x:v>1210</x:v>
+      </x:c>
+      <x:c r="B1290" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1291" spans="1:14">
+      <x:c r="A1291" s="0" t="s">
+        <x:v>1211</x:v>
+      </x:c>
+      <x:c r="B1291" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1292" spans="1:14">
+      <x:c r="A1292" s="0" t="s">
+        <x:v>1212</x:v>
+      </x:c>
+      <x:c r="B1292" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1293" spans="1:14">
+      <x:c r="A1293" s="0" t="s">
+        <x:v>1213</x:v>
+      </x:c>
+      <x:c r="B1293" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1294" spans="1:14">
+      <x:c r="A1294" s="0" t="s">
+        <x:v>1214</x:v>
+      </x:c>
+      <x:c r="B1294" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1295" spans="1:14">
+      <x:c r="A1295" s="0" t="s">
+        <x:v>1215</x:v>
+      </x:c>
+      <x:c r="B1295" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1296" spans="1:14">
+      <x:c r="A1296" s="0" t="s">
+        <x:v>1216</x:v>
+      </x:c>
+      <x:c r="B1296" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1297" spans="1:14">
+      <x:c r="A1297" s="0" t="s">
+        <x:v>1217</x:v>
+      </x:c>
+      <x:c r="B1297" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1298" spans="1:14">
+      <x:c r="A1298" s="0" t="s">
+        <x:v>1218</x:v>
+      </x:c>
+      <x:c r="B1298" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1299" spans="1:14">
+      <x:c r="A1299" s="0" t="s">
+        <x:v>1219</x:v>
+      </x:c>
+      <x:c r="B1299" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1300" spans="1:14">
+      <x:c r="A1300" s="0" t="s">
+        <x:v>1220</x:v>
+      </x:c>
+      <x:c r="B1300" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1301" spans="1:14">
+      <x:c r="A1301" s="0" t="s">
+        <x:v>1221</x:v>
+      </x:c>
+      <x:c r="B1301" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1302" spans="1:14">
+      <x:c r="A1302" s="0" t="s">
+        <x:v>1222</x:v>
+      </x:c>
+      <x:c r="B1302" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1303" spans="1:14">
+      <x:c r="A1303" s="0" t="s">
+        <x:v>1223</x:v>
+      </x:c>
+      <x:c r="B1303" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1304" spans="1:14">
+      <x:c r="A1304" s="0" t="s">
+        <x:v>1224</x:v>
+      </x:c>
+      <x:c r="B1304" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1305" spans="1:14">
+      <x:c r="A1305" s="0" t="s">
+        <x:v>1225</x:v>
+      </x:c>
+      <x:c r="B1305" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1306" spans="1:14">
+      <x:c r="A1306" s="0" t="s">
+        <x:v>1226</x:v>
+      </x:c>
+      <x:c r="B1306" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1307" spans="1:14">
+      <x:c r="A1307" s="0" t="s">
+        <x:v>1227</x:v>
+      </x:c>
+      <x:c r="B1307" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1308" spans="1:14">
+      <x:c r="A1308" s="0" t="s">
+        <x:v>1228</x:v>
+      </x:c>
+      <x:c r="B1308" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1309" spans="1:14">
+      <x:c r="A1309" s="0" t="s">
+        <x:v>1229</x:v>
+      </x:c>
+      <x:c r="B1309" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1310" spans="1:14">
+      <x:c r="A1310" s="0" t="s">
+        <x:v>1230</x:v>
+      </x:c>
+      <x:c r="B1310" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1311" spans="1:14">
+      <x:c r="A1311" s="0" t="s">
+        <x:v>1231</x:v>
+      </x:c>
+      <x:c r="B1311" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1312" spans="1:14">
+      <x:c r="A1312" s="0" t="s">
+        <x:v>1232</x:v>
+      </x:c>
+      <x:c r="B1312" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1313" spans="1:14">
+      <x:c r="A1313" s="0" t="s">
+        <x:v>1233</x:v>
+      </x:c>
+      <x:c r="B1313" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1314" spans="1:14">
+      <x:c r="A1314" s="0" t="s">
+        <x:v>1234</x:v>
+      </x:c>
+      <x:c r="B1314" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1315" spans="1:14">
+      <x:c r="A1315" s="0" t="s">
+        <x:v>1235</x:v>
+      </x:c>
+      <x:c r="B1315" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1316" spans="1:14">
+      <x:c r="A1316" s="0" t="s">
+        <x:v>1236</x:v>
+      </x:c>
+      <x:c r="B1316" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1317" spans="1:14">
+      <x:c r="A1317" s="0" t="s">
+        <x:v>1237</x:v>
+      </x:c>
+      <x:c r="B1317" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1318" spans="1:14">
+      <x:c r="A1318" s="0" t="s">
+        <x:v>1238</x:v>
+      </x:c>
+      <x:c r="B1318" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1319" spans="1:14">
+      <x:c r="A1319" s="0" t="s">
+        <x:v>1239</x:v>
+      </x:c>
+      <x:c r="B1319" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1320" spans="1:14">
+      <x:c r="A1320" s="0" t="s">
+        <x:v>1240</x:v>
+      </x:c>
+      <x:c r="B1320" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1321" spans="1:14">
+      <x:c r="A1321" s="0" t="s">
+        <x:v>1241</x:v>
+      </x:c>
+      <x:c r="B1321" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1322" spans="1:14">
+      <x:c r="A1322" s="0" t="s">
+        <x:v>1242</x:v>
+      </x:c>
+      <x:c r="B1322" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1323" spans="1:14">
+      <x:c r="A1323" s="0" t="s">
+        <x:v>1243</x:v>
+      </x:c>
+      <x:c r="B1323" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1324" spans="1:14">
+      <x:c r="A1324" s="0" t="s">
+        <x:v>1244</x:v>
+      </x:c>
+      <x:c r="B1324" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1325" spans="1:14">
+      <x:c r="A1325" s="0" t="s">
+        <x:v>1245</x:v>
+      </x:c>
+      <x:c r="B1325" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1326" spans="1:14">
+      <x:c r="A1326" s="0" t="s">
+        <x:v>1246</x:v>
+      </x:c>
+      <x:c r="B1326" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1327" spans="1:14">
+      <x:c r="A1327" s="0" t="s">
+        <x:v>1247</x:v>
+      </x:c>
+      <x:c r="B1327" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1328" spans="1:14">
+      <x:c r="A1328" s="0" t="s">
+        <x:v>1248</x:v>
+      </x:c>
+      <x:c r="B1328" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1329" spans="1:14">
+      <x:c r="A1329" s="0" t="s">
+        <x:v>1249</x:v>
+      </x:c>
+      <x:c r="B1329" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1330" spans="1:14">
+      <x:c r="A1330" s="0" t="s">
+        <x:v>1250</x:v>
+      </x:c>
+      <x:c r="B1330" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1331" spans="1:14">
+      <x:c r="A1331" s="0" t="s">
+        <x:v>1251</x:v>
+      </x:c>
+      <x:c r="B1331" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1332" spans="1:14">
+      <x:c r="A1332" s="0" t="s">
+        <x:v>1252</x:v>
+      </x:c>
+      <x:c r="B1332" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1333" spans="1:14">
+      <x:c r="A1333" s="0" t="s">
+        <x:v>1253</x:v>
+      </x:c>
+      <x:c r="B1333" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1334" spans="1:14">
+      <x:c r="A1334" s="0" t="s">
+        <x:v>1254</x:v>
+      </x:c>
+      <x:c r="B1334" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1335" spans="1:14">
+      <x:c r="A1335" s="0" t="s">
+        <x:v>1255</x:v>
+      </x:c>
+      <x:c r="B1335" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1336" spans="1:14">
+      <x:c r="A1336" s="0" t="s">
+        <x:v>1256</x:v>
+      </x:c>
+      <x:c r="B1336" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1337" spans="1:14">
+      <x:c r="A1337" s="0" t="s">
+        <x:v>1257</x:v>
+      </x:c>
+      <x:c r="B1337" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1338" spans="1:14">
+      <x:c r="A1338" s="0" t="s">
+        <x:v>1258</x:v>
+      </x:c>
+      <x:c r="B1338" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1339" spans="1:14">
+      <x:c r="A1339" s="0" t="s">
+        <x:v>1259</x:v>
+      </x:c>
+      <x:c r="B1339" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1340" spans="1:14">
+      <x:c r="A1340" s="0" t="s">
+        <x:v>1260</x:v>
+      </x:c>
+      <x:c r="B1340" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1341" spans="1:14">
+      <x:c r="A1341" s="0" t="s">
+        <x:v>1261</x:v>
+      </x:c>
+      <x:c r="B1341" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1342" spans="1:14">
+      <x:c r="A1342" s="0" t="s">
+        <x:v>1262</x:v>
+      </x:c>
+      <x:c r="B1342" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1343" spans="1:14">
+      <x:c r="A1343" s="0" t="s">
+        <x:v>1263</x:v>
+      </x:c>
+      <x:c r="B1343" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1344" spans="1:14">
+      <x:c r="A1344" s="0" t="s">
+        <x:v>1264</x:v>
+      </x:c>
+      <x:c r="B1344" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1345" spans="1:14">
+      <x:c r="A1345" s="0" t="s">
+        <x:v>1265</x:v>
+      </x:c>
+      <x:c r="B1345" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1346" spans="1:14">
+      <x:c r="A1346" s="0" t="s">
+        <x:v>1266</x:v>
+      </x:c>
+      <x:c r="B1346" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1347" spans="1:14">
+      <x:c r="A1347" s="0" t="s">
+        <x:v>1267</x:v>
+      </x:c>
+      <x:c r="B1347" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1348" spans="1:14">
+      <x:c r="A1348" s="0" t="s">
+        <x:v>1268</x:v>
+      </x:c>
+      <x:c r="B1348" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1349" spans="1:14">
+      <x:c r="A1349" s="0" t="s">
+        <x:v>1269</x:v>
+      </x:c>
+      <x:c r="B1349" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1350" spans="1:14">
+      <x:c r="A1350" s="0" t="s">
+        <x:v>1270</x:v>
+      </x:c>
+      <x:c r="B1350" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1351" spans="1:14">
+      <x:c r="A1351" s="0" t="s">
+        <x:v>1271</x:v>
+      </x:c>
+      <x:c r="B1351" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1352" spans="1:14">
+      <x:c r="A1352" s="0" t="s">
+        <x:v>1272</x:v>
+      </x:c>
+      <x:c r="B1352" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1353" spans="1:14">
+      <x:c r="A1353" s="0" t="s">
+        <x:v>1273</x:v>
+      </x:c>
+      <x:c r="B1353" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1354" spans="1:14">
+      <x:c r="A1354" s="0" t="s">
+        <x:v>1274</x:v>
+      </x:c>
+      <x:c r="B1354" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1355" spans="1:14">
+      <x:c r="A1355" s="0" t="s">
+        <x:v>1275</x:v>
+      </x:c>
+      <x:c r="B1355" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1356" spans="1:14">
+      <x:c r="A1356" s="0" t="s">
+        <x:v>1276</x:v>
+      </x:c>
+      <x:c r="B1356" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1357" spans="1:14">
+      <x:c r="A1357" s="0" t="s">
+        <x:v>1277</x:v>
+      </x:c>
+      <x:c r="B1357" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1358" spans="1:14">
+      <x:c r="A1358" s="0" t="s">
+        <x:v>1278</x:v>
+      </x:c>
+      <x:c r="B1358" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1359" spans="1:14">
+      <x:c r="A1359" s="0" t="s">
+        <x:v>1279</x:v>
+      </x:c>
+      <x:c r="B1359" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1360" spans="1:14">
+      <x:c r="A1360" s="0" t="s">
+        <x:v>1280</x:v>
+      </x:c>
+      <x:c r="B1360" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1361" spans="1:14">
+      <x:c r="A1361" s="0" t="s">
+        <x:v>1281</x:v>
+      </x:c>
+      <x:c r="B1361" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1362" spans="1:14">
+      <x:c r="A1362" s="0" t="s">
+        <x:v>1282</x:v>
+      </x:c>
+      <x:c r="B1362" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1363" spans="1:14">
+      <x:c r="A1363" s="0" t="s">
+        <x:v>1283</x:v>
+      </x:c>
+      <x:c r="B1363" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1364" spans="1:14">
+      <x:c r="A1364" s="0" t="s">
+        <x:v>1284</x:v>
+      </x:c>
+      <x:c r="B1364" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1365" spans="1:14">
+      <x:c r="A1365" s="0" t="s">
+        <x:v>1285</x:v>
+      </x:c>
+      <x:c r="B1365" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1366" spans="1:14">
+      <x:c r="A1366" s="0" t="s">
+        <x:v>1286</x:v>
+      </x:c>
+      <x:c r="B1366" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1367" spans="1:14">
+      <x:c r="A1367" s="0" t="s">
+        <x:v>1287</x:v>
+      </x:c>
+      <x:c r="B1367" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1368" spans="1:14">
+      <x:c r="A1368" s="0" t="s">
+        <x:v>1288</x:v>
+      </x:c>
+      <x:c r="B1368" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1369" spans="1:14">
+      <x:c r="A1369" s="0" t="s">
+        <x:v>1289</x:v>
+      </x:c>
+      <x:c r="B1369" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1370" spans="1:14">
+      <x:c r="A1370" s="0" t="s">
+        <x:v>1290</x:v>
+      </x:c>
+      <x:c r="B1370" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1371" spans="1:14">
+      <x:c r="A1371" s="0" t="s">
+        <x:v>1291</x:v>
+      </x:c>
+      <x:c r="B1371" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1372" spans="1:14">
+      <x:c r="A1372" s="0" t="s">
+        <x:v>1292</x:v>
+      </x:c>
+      <x:c r="B1372" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1373" spans="1:14">
+      <x:c r="A1373" s="0" t="s">
+        <x:v>1293</x:v>
+      </x:c>
+      <x:c r="B1373" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1374" spans="1:14">
+      <x:c r="A1374" s="0" t="s">
+        <x:v>1294</x:v>
+      </x:c>
+      <x:c r="B1374" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1375" spans="1:14">
+      <x:c r="A1375" s="0" t="s">
+        <x:v>1295</x:v>
+      </x:c>
+      <x:c r="B1375" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1376" spans="1:14">
+      <x:c r="A1376" s="0" t="s">
+        <x:v>1296</x:v>
+      </x:c>
+      <x:c r="B1376" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1377" spans="1:14">
+      <x:c r="A1377" s="0" t="s">
+        <x:v>1297</x:v>
+      </x:c>
+      <x:c r="B1377" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1378" spans="1:14">
+      <x:c r="A1378" s="0" t="s">
+        <x:v>1298</x:v>
+      </x:c>
+      <x:c r="B1378" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1379" spans="1:14">
+      <x:c r="A1379" s="0" t="s">
+        <x:v>1299</x:v>
+      </x:c>
+      <x:c r="B1379" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1380" spans="1:14">
+      <x:c r="A1380" s="0" t="s">
+        <x:v>1300</x:v>
+      </x:c>
+      <x:c r="B1380" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1381" spans="1:14">
+      <x:c r="A1381" s="0" t="s">
+        <x:v>1301</x:v>
+      </x:c>
+      <x:c r="B1381" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1382" spans="1:14">
+      <x:c r="A1382" s="0" t="s">
+        <x:v>1302</x:v>
+      </x:c>
+      <x:c r="B1382" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1383" spans="1:14">
+      <x:c r="A1383" s="0" t="s">
+        <x:v>1303</x:v>
+      </x:c>
+      <x:c r="B1383" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1384" spans="1:14">
+      <x:c r="A1384" s="0" t="s">
+        <x:v>1304</x:v>
+      </x:c>
+      <x:c r="B1384" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1385" spans="1:14">
+      <x:c r="A1385" s="0" t="s">
+        <x:v>1305</x:v>
+      </x:c>
+      <x:c r="B1385" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1386" spans="1:14">
+      <x:c r="A1386" s="0" t="s">
+        <x:v>1306</x:v>
+      </x:c>
+      <x:c r="B1386" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1387" spans="1:14">
+      <x:c r="A1387" s="0" t="s">
+        <x:v>1307</x:v>
+      </x:c>
+      <x:c r="B1387" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1388" spans="1:14">
+      <x:c r="A1388" s="0" t="s">
+        <x:v>1308</x:v>
+      </x:c>
+      <x:c r="B1388" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1389" spans="1:14">
+      <x:c r="A1389" s="0" t="s">
+        <x:v>1309</x:v>
+      </x:c>
+      <x:c r="B1389" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1390" spans="1:14">
+      <x:c r="A1390" s="0" t="s">
+        <x:v>1310</x:v>
+      </x:c>
+      <x:c r="B1390" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1391" spans="1:14">
+      <x:c r="A1391" s="0" t="s">
+        <x:v>1311</x:v>
+      </x:c>
+      <x:c r="B1391" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1392" spans="1:14">
+      <x:c r="A1392" s="0" t="s">
+        <x:v>1312</x:v>
+      </x:c>
+      <x:c r="B1392" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1393" spans="1:14">
+      <x:c r="A1393" s="0" t="s">
+        <x:v>1313</x:v>
+      </x:c>
+      <x:c r="B1393" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1394" spans="1:14">
+      <x:c r="A1394" s="0" t="s">
+        <x:v>1314</x:v>
+      </x:c>
+      <x:c r="B1394" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1395" spans="1:14">
+      <x:c r="A1395" s="0" t="s">
+        <x:v>1315</x:v>
+      </x:c>
+      <x:c r="B1395" s="3" t="s">
+        <x:v>1316</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1317">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1318">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -4052,6 +4052,9 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/damier-ebene-thames-pm-fu8h5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-stampato-tote-fzec7</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -15422,7 +15425,15 @@
         <x:v>1315</x:v>
       </x:c>
       <x:c r="B1395" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1397" spans="1:14">
+      <x:c r="A1397" s="0" t="s">
         <x:v>1316</x:v>
+      </x:c>
+      <x:c r="B1397" s="3" t="s">
+        <x:v>1317</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1318">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1369">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -4055,6 +4055,159 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-stampato-tote-fzec7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/celine-micro-luggage-bag-fyi4i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/burberry-metallic-leather-tote-bag-fxu1n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/anti-socialsocial-club-tokyo-1997-tote-bag-fwz3r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-maryanne-leather-tote-fvgfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/tory-sport-nylon-tote-bag-ewiy7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/jimmy-choo-patent-leather-suede-tote-fzuva</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/louis-vuitton-monogram-cabas-ambre-gm-fz8en</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/anya-hindmarch-woven-leather-tote-fzk9m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-saint-jacques-pm-g0d81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-coated-canvas-logo-printed-tote-fzxw1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-gm-w-pouch-fqvfs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/prada-large-saffiano-lux-galleria-tote-fxl42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/celine-mini-luggage-tote-fup55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-gg-canvas-sukey-tote-fwyh9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/chanel-vintage-raffia-basket-tote-fxvy9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-maxi-intrecciato-arco-slouch-tote-fxne0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-2020-large-rive-gauche-tote-fflfd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/frye-leather-tote-bag-fxuy0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-leather-trimmed-coated-canvas-tote-fwy31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/chanel-unlimited-ligne-large-messenger-bag-fvwn1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/celine-python-nano-luggage-tote-fvycr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/fendi-zucchino-small-tote-g0wzb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/fendi-vintage-mini-zucca-tote-fwahr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-monogram-coated-canvas-tote-w-tags-fwe1k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-leather-tote-bag-fvo4n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-canvas-tote-fvi0z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/telfar-vegan-leather-shopping-tote-ftxe0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-falabella-metallic-tote-fui18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vernis-reade-mm-fvn2x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/annabel-ingall-leather-tote-fup2e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-quilted-nylon-tote-ftha0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/coach-1941-smooth-leather-tote-fqrx4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/chanel-nylon-printed-cc-tote-dw835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/chanel-small-studded-deauville-shopping-tote-fljkf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-studded-tote-fm6dv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/celine-2010-ponyhair-vertical-cabas-fmegs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/tumi-embossed-leather-tote-fiy30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-damier-ebene-belmont-pm-w-pouch-fja6y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/v-de-vinster-knotted-nylon-rope-bag-fj0xh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/gucci-ophidia-medium-raffia-tote-f8flm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/prada-raffia-logo-tote-f11r9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/prada-glace-calf-twin-pocket-tote-f12yc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/prada-canapa-stampata-tote-w-strap-ex03m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-harper-tote-ewlwe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-leather-tote-bag-ew2bq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-leather-tote-bag-dcjxo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/hermes-clemence-sikkim-double-sens-36-fuk01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/celine-calfskin-mini-luggage-tote-fsnua</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/pamela-munson-straw-tote-bag-fs4ns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-straw-chain-link-tote-fqy5r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-vintage-damier-ebene-hampstead-gm-ftgjq</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -15433,7 +15586,415 @@
         <x:v>1316</x:v>
       </x:c>
       <x:c r="B1397" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1399" spans="1:14">
+      <x:c r="A1399" s="0" t="s">
         <x:v>1317</x:v>
+      </x:c>
+      <x:c r="B1399" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1400" spans="1:14">
+      <x:c r="A1400" s="0" t="s">
+        <x:v>1318</x:v>
+      </x:c>
+      <x:c r="B1400" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1401" spans="1:14">
+      <x:c r="A1401" s="0" t="s">
+        <x:v>1319</x:v>
+      </x:c>
+      <x:c r="B1401" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1402" spans="1:14">
+      <x:c r="A1402" s="0" t="s">
+        <x:v>1320</x:v>
+      </x:c>
+      <x:c r="B1402" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1403" spans="1:14">
+      <x:c r="A1403" s="0" t="s">
+        <x:v>1321</x:v>
+      </x:c>
+      <x:c r="B1403" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1404" spans="1:14">
+      <x:c r="A1404" s="0" t="s">
+        <x:v>1322</x:v>
+      </x:c>
+      <x:c r="B1404" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1405" spans="1:14">
+      <x:c r="A1405" s="0" t="s">
+        <x:v>1323</x:v>
+      </x:c>
+      <x:c r="B1405" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1406" spans="1:14">
+      <x:c r="A1406" s="0" t="s">
+        <x:v>1324</x:v>
+      </x:c>
+      <x:c r="B1406" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1407" spans="1:14">
+      <x:c r="A1407" s="0" t="s">
+        <x:v>1325</x:v>
+      </x:c>
+      <x:c r="B1407" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1408" spans="1:14">
+      <x:c r="A1408" s="0" t="s">
+        <x:v>1326</x:v>
+      </x:c>
+      <x:c r="B1408" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1409" spans="1:14">
+      <x:c r="A1409" s="0" t="s">
+        <x:v>1327</x:v>
+      </x:c>
+      <x:c r="B1409" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1410" spans="1:14">
+      <x:c r="A1410" s="0" t="s">
+        <x:v>1328</x:v>
+      </x:c>
+      <x:c r="B1410" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1411" spans="1:14">
+      <x:c r="A1411" s="0" t="s">
+        <x:v>1329</x:v>
+      </x:c>
+      <x:c r="B1411" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1412" spans="1:14">
+      <x:c r="A1412" s="0" t="s">
+        <x:v>1330</x:v>
+      </x:c>
+      <x:c r="B1412" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1413" spans="1:14">
+      <x:c r="A1413" s="0" t="s">
+        <x:v>1331</x:v>
+      </x:c>
+      <x:c r="B1413" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1414" spans="1:14">
+      <x:c r="A1414" s="0" t="s">
+        <x:v>1332</x:v>
+      </x:c>
+      <x:c r="B1414" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1415" spans="1:14">
+      <x:c r="A1415" s="0" t="s">
+        <x:v>1333</x:v>
+      </x:c>
+      <x:c r="B1415" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1416" spans="1:14">
+      <x:c r="A1416" s="0" t="s">
+        <x:v>1334</x:v>
+      </x:c>
+      <x:c r="B1416" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1417" spans="1:14">
+      <x:c r="A1417" s="0" t="s">
+        <x:v>1335</x:v>
+      </x:c>
+      <x:c r="B1417" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1418" spans="1:14">
+      <x:c r="A1418" s="0" t="s">
+        <x:v>1336</x:v>
+      </x:c>
+      <x:c r="B1418" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1419" spans="1:14">
+      <x:c r="A1419" s="0" t="s">
+        <x:v>1337</x:v>
+      </x:c>
+      <x:c r="B1419" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1420" spans="1:14">
+      <x:c r="A1420" s="0" t="s">
+        <x:v>1338</x:v>
+      </x:c>
+      <x:c r="B1420" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1421" spans="1:14">
+      <x:c r="A1421" s="0" t="s">
+        <x:v>1339</x:v>
+      </x:c>
+      <x:c r="B1421" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1422" spans="1:14">
+      <x:c r="A1422" s="0" t="s">
+        <x:v>1340</x:v>
+      </x:c>
+      <x:c r="B1422" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1423" spans="1:14">
+      <x:c r="A1423" s="0" t="s">
+        <x:v>1341</x:v>
+      </x:c>
+      <x:c r="B1423" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1424" spans="1:14">
+      <x:c r="A1424" s="0" t="s">
+        <x:v>1342</x:v>
+      </x:c>
+      <x:c r="B1424" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1425" spans="1:14">
+      <x:c r="A1425" s="0" t="s">
+        <x:v>1343</x:v>
+      </x:c>
+      <x:c r="B1425" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1426" spans="1:14">
+      <x:c r="A1426" s="0" t="s">
+        <x:v>1344</x:v>
+      </x:c>
+      <x:c r="B1426" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1427" spans="1:14">
+      <x:c r="A1427" s="0" t="s">
+        <x:v>1345</x:v>
+      </x:c>
+      <x:c r="B1427" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1428" spans="1:14">
+      <x:c r="A1428" s="0" t="s">
+        <x:v>1346</x:v>
+      </x:c>
+      <x:c r="B1428" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1429" spans="1:14">
+      <x:c r="A1429" s="0" t="s">
+        <x:v>1347</x:v>
+      </x:c>
+      <x:c r="B1429" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1430" spans="1:14">
+      <x:c r="A1430" s="0" t="s">
+        <x:v>1348</x:v>
+      </x:c>
+      <x:c r="B1430" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1431" spans="1:14">
+      <x:c r="A1431" s="0" t="s">
+        <x:v>1349</x:v>
+      </x:c>
+      <x:c r="B1431" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1432" spans="1:14">
+      <x:c r="A1432" s="0" t="s">
+        <x:v>1350</x:v>
+      </x:c>
+      <x:c r="B1432" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1433" spans="1:14">
+      <x:c r="A1433" s="0" t="s">
+        <x:v>1351</x:v>
+      </x:c>
+      <x:c r="B1433" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1434" spans="1:14">
+      <x:c r="A1434" s="0" t="s">
+        <x:v>1352</x:v>
+      </x:c>
+      <x:c r="B1434" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1435" spans="1:14">
+      <x:c r="A1435" s="0" t="s">
+        <x:v>1353</x:v>
+      </x:c>
+      <x:c r="B1435" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1436" spans="1:14">
+      <x:c r="A1436" s="0" t="s">
+        <x:v>1354</x:v>
+      </x:c>
+      <x:c r="B1436" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1437" spans="1:14">
+      <x:c r="A1437" s="0" t="s">
+        <x:v>1355</x:v>
+      </x:c>
+      <x:c r="B1437" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1438" spans="1:14">
+      <x:c r="A1438" s="0" t="s">
+        <x:v>1356</x:v>
+      </x:c>
+      <x:c r="B1438" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1439" spans="1:14">
+      <x:c r="A1439" s="0" t="s">
+        <x:v>1357</x:v>
+      </x:c>
+      <x:c r="B1439" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1440" spans="1:14">
+      <x:c r="A1440" s="0" t="s">
+        <x:v>1358</x:v>
+      </x:c>
+      <x:c r="B1440" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1441" spans="1:14">
+      <x:c r="A1441" s="0" t="s">
+        <x:v>1359</x:v>
+      </x:c>
+      <x:c r="B1441" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1442" spans="1:14">
+      <x:c r="A1442" s="0" t="s">
+        <x:v>1360</x:v>
+      </x:c>
+      <x:c r="B1442" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1443" spans="1:14">
+      <x:c r="A1443" s="0" t="s">
+        <x:v>1361</x:v>
+      </x:c>
+      <x:c r="B1443" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1444" spans="1:14">
+      <x:c r="A1444" s="0" t="s">
+        <x:v>1362</x:v>
+      </x:c>
+      <x:c r="B1444" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1445" spans="1:14">
+      <x:c r="A1445" s="0" t="s">
+        <x:v>1363</x:v>
+      </x:c>
+      <x:c r="B1445" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1446" spans="1:14">
+      <x:c r="A1446" s="0" t="s">
+        <x:v>1364</x:v>
+      </x:c>
+      <x:c r="B1446" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1447" spans="1:14">
+      <x:c r="A1447" s="0" t="s">
+        <x:v>1365</x:v>
+      </x:c>
+      <x:c r="B1447" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1448" spans="1:14">
+      <x:c r="A1448" s="0" t="s">
+        <x:v>1366</x:v>
+      </x:c>
+      <x:c r="B1448" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1449" spans="1:14">
+      <x:c r="A1449" s="0" t="s">
+        <x:v>1367</x:v>
+      </x:c>
+      <x:c r="B1449" s="3" t="s">
+        <x:v>1368</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1369">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1370">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -4208,6 +4208,9 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-vintage-damier-ebene-hampstead-gm-ftgjq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-rubber-floral-print-rain-boots-fzlht</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -15994,7 +15997,15 @@
         <x:v>1367</x:v>
       </x:c>
       <x:c r="B1449" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1451" spans="1:14">
+      <x:c r="A1451" s="0" t="s">
         <x:v>1368</x:v>
+      </x:c>
+      <x:c r="B1451" s="3" t="s">
+        <x:v>1369</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1370">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="1397">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -4211,6 +4211,92 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-rubber-floral-print-rain-boots-fzlht</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-slides-fz3zy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-dior-mini-1-cannage-pattern-sunglasses-fm7vs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-boots-fxkh9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-vintage-2002-coin-pouch-fyac2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fx2yv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fy9wb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-dior-club-v1u-visor-fnl96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-peacoat-fiqaw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-cutout-accent-pumps-f955r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-nylon-colorblock-pattern-slingback-flats-f9jaz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-mirrored-sunglasses-eubud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-scoop-neck-three-quarter-sleeve-blouse-epoqh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-satin-studded-accents-sandals-ejswj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-turtleneck-sweater-dflts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-printed-espadrilles-flaf8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-jacket-foejt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fkqj9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2002-sweater-fguvv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-satin-lace-pattern-pumps-fkpmx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath.UIAutomationNext.Exceptions.UiAutomationException: Could not determine the browser tab on which to navigate.
+   at UiPath.UIAutomationNext.Activities.NGoToUrl.ExecuteAsync(AsyncCodeActivityContext context, CancellationToken cancellationToken)
+   at UiPath.Shared.Activities.AsyncTaskCodeActivityImplementation.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
+   at UiPath.Shared.Activities.AsyncTaskCodeActivity.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
+   at UiPath.Shared.Activities.ContinuableAsyncCodeActivity.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
+   at System.Activities.AsyncCodeActivity.CompleteAsyncCodeActivityData.CompleteAsyncCodeActivityWorkItem.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-1980-s-robe-fgwtp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-vintage-leather-loafers-fjyka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-feadx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2011-straight-leg-pants-femsi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-the-suit-blazer-fizjy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fg6g7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-oblique-book-tote-fgan1</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -16005,7 +16091,215 @@
         <x:v>1368</x:v>
       </x:c>
       <x:c r="B1451" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1453" spans="1:14">
+      <x:c r="A1453" s="0" t="s">
         <x:v>1369</x:v>
+      </x:c>
+      <x:c r="B1453" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1454" spans="1:14">
+      <x:c r="A1454" s="0" t="s">
+        <x:v>1370</x:v>
+      </x:c>
+      <x:c r="B1454" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1455" spans="1:14">
+      <x:c r="A1455" s="0" t="s">
+        <x:v>1371</x:v>
+      </x:c>
+      <x:c r="B1455" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1456" spans="1:14">
+      <x:c r="A1456" s="0" t="s">
+        <x:v>1372</x:v>
+      </x:c>
+      <x:c r="B1456" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1457" spans="1:14">
+      <x:c r="A1457" s="0" t="s">
+        <x:v>1373</x:v>
+      </x:c>
+      <x:c r="B1457" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1458" spans="1:14">
+      <x:c r="A1458" s="0" t="s">
+        <x:v>1374</x:v>
+      </x:c>
+      <x:c r="B1458" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1459" spans="1:14">
+      <x:c r="A1459" s="0" t="s">
+        <x:v>1375</x:v>
+      </x:c>
+      <x:c r="B1459" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1460" spans="1:14">
+      <x:c r="A1460" s="0" t="s">
+        <x:v>1376</x:v>
+      </x:c>
+      <x:c r="B1460" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1461" spans="1:14">
+      <x:c r="A1461" s="0" t="s">
+        <x:v>1377</x:v>
+      </x:c>
+      <x:c r="B1461" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1462" spans="1:14">
+      <x:c r="A1462" s="0" t="s">
+        <x:v>1378</x:v>
+      </x:c>
+      <x:c r="B1462" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1463" spans="1:14">
+      <x:c r="A1463" s="0" t="s">
+        <x:v>1379</x:v>
+      </x:c>
+      <x:c r="B1463" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1464" spans="1:14">
+      <x:c r="A1464" s="0" t="s">
+        <x:v>1380</x:v>
+      </x:c>
+      <x:c r="B1464" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1465" spans="1:14">
+      <x:c r="A1465" s="0" t="s">
+        <x:v>1381</x:v>
+      </x:c>
+      <x:c r="B1465" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1466" spans="1:14">
+      <x:c r="A1466" s="0" t="s">
+        <x:v>1382</x:v>
+      </x:c>
+      <x:c r="B1466" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1467" spans="1:14">
+      <x:c r="A1467" s="0" t="s">
+        <x:v>1383</x:v>
+      </x:c>
+      <x:c r="B1467" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1468" spans="1:14">
+      <x:c r="A1468" s="0" t="s">
+        <x:v>1384</x:v>
+      </x:c>
+      <x:c r="B1468" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1469" spans="1:14">
+      <x:c r="A1469" s="0" t="s">
+        <x:v>1385</x:v>
+      </x:c>
+      <x:c r="B1469" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1470" spans="1:14">
+      <x:c r="A1470" s="0" t="s">
+        <x:v>1386</x:v>
+      </x:c>
+      <x:c r="B1470" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1471" spans="1:14">
+      <x:c r="A1471" s="0" t="s">
+        <x:v>1387</x:v>
+      </x:c>
+      <x:c r="B1471" s="3" t="s">
+        <x:v>1388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1472" spans="1:14">
+      <x:c r="A1472" s="0" t="s">
+        <x:v>1389</x:v>
+      </x:c>
+      <x:c r="B1472" s="3" t="s">
+        <x:v>1388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1473" spans="1:14">
+      <x:c r="A1473" s="0" t="s">
+        <x:v>1390</x:v>
+      </x:c>
+      <x:c r="B1473" s="3" t="s">
+        <x:v>1388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1474" spans="1:14">
+      <x:c r="A1474" s="0" t="s">
+        <x:v>1391</x:v>
+      </x:c>
+      <x:c r="B1474" s="3" t="s">
+        <x:v>1388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1475" spans="1:14">
+      <x:c r="A1475" s="0" t="s">
+        <x:v>1392</x:v>
+      </x:c>
+      <x:c r="B1475" s="3" t="s">
+        <x:v>1388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1476" spans="1:14">
+      <x:c r="A1476" s="0" t="s">
+        <x:v>1393</x:v>
+      </x:c>
+      <x:c r="B1476" s="3" t="s">
+        <x:v>1388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1478" spans="1:14">
+      <x:c r="A1478" s="0" t="s">
+        <x:v>1394</x:v>
+      </x:c>
+      <x:c r="B1478" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1479" spans="1:14">
+      <x:c r="A1479" s="0" t="s">
+        <x:v>1395</x:v>
+      </x:c>
+      <x:c r="B1479" s="3" t="s">
+        <x:v>1396</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="1397">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1693">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -4297,6 +4297,924 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-oblique-book-tote-fgan1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-sleeveless-button-up-top-feurf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-reflected-aviator-sunglasses-fduat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-stellaire-sunglasses-cs8kg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-medium-lady-d-lite-bag-fdnjp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-diorider-leather-combat-boots-f7458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-lambswool-trench-coat-ff17r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-ffemz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fdzxa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-v-neck-sweater-ff1w8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-ffoxd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-graphic-print-sweater-fffrj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System.IO.IOException: The process cannot access the file 'C:\Users\Dell\Documents\UiPath\Extraction\assets\output_file.xlsx' because it is being used by another process.
+   at Microsoft.Win32.SafeHandles.SafeFileHandle.CreateFile(String fullPath, FileMode mode, FileAccess access, FileShare share, FileOptions options)
+   at Microsoft.Win32.SafeHandles.SafeFileHandle.Open(String fullPath, FileMode mode, FileAccess access, FileShare share, FileOptions options, Int64 preallocationSize)
+   at System.IO.Strategies.OSFileStreamStrategy..ctor(String path, FileMode mode, FileAccess access, FileShare share, FileOptions options, Int64 preallocationSize)
+   at System.IO.Packaging.ZipPackage..ctor(String path, FileMode packageFileMode, FileAccess packageFileAccess, FileShare share)
+   at System.IO.Packaging.Package.Open(String path, FileMode packageMode, FileAccess packageAccess, FileShare packageShare)
+   at DocumentFormat.OpenXml.Packaging.OpenXmlPackage.OpenCore(String path, Boolean readWriteMode)
+   at DocumentFormat.OpenXml.Packaging.SpreadsheetDocument.Open(String path, Boolean isEditable, OpenSettings openSettings)
+   at ClosedXML.Excel.XLWorkbook.LoadSheets(String fileName) in C:\projects\closedxml\ClosedXML\Excel\XLWorkbook_Load.cs:line 42
+   at ClosedXML.Excel.XLWorkbook.Load(String file) in C:\projects\closedxml\ClosedXML\Excel\XLWorkbook_Load.cs:line 32
+   at ClosedXML.Excel.XLWorkbook..ctor(String file, XLEventTracking eventTracking) in C:\projects\closedxml\ClosedXML\Excel\XLWorkbook.cs:line 717
+   at ClosedXML.Excel.XLWorkbook..ctor(String file) in C:\projects\closedxml\ClosedXML\Excel\XLWorkbook.cs:line 707
+   at UiPath.Excel.WorkbookFile.InitializeExistingWorbookFile()
+   at UiPath.Excel.WorkbookFile..ctor(String workbookPath, String password, Boolean createNew)
+   at UiPath.Excel.Activities.WorkbookActivity`1.ConstructWorkbook(String path, String password, Boolean createNew)
+   at UiPath.Excel.Activities.WorkbookActivity`1.BeginExecute(AsyncCodeActivityContext context, AsyncCallback callback, Object state)
+   at System.Activities.AsyncCodeActivity.InternalExecute(ActivityInstance instance, ActivityExecutor executor, BookmarkManager bookmarkManager)
+   at System.Activities.Runtime.ActivityExecutor.ExecuteActivityWorkItem.ExecuteBody(ActivityExecutor executor, BookmarkManager bookmarkManager, Location resultLocation)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-canvas-cosmetic-bag-ffbh6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-wide-leg-pants-w-tags-fcjgw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorpromesse3-oversize-sunglasses-fe8vk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-suede-newspaper-cap-fduri</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-ff42u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System.IO.IOException: The process cannot access the file 'C:\Users\Dell\Documents\UiPath\Extraction\assets\output_file.xlsx' because it is being used by another process.
+   at Microsoft.Win32.SafeHandles.SafeFileHandle.CreateFile(String fullPath, FileMode mode, FileAccess access, FileShare share, FileOptions options)
+   at Microsoft.Win32.SafeHandles.SafeFileHandle.Open(String fullPath, FileMode mode, FileAccess access, FileShare share, FileOptions options, Int64 preallocationSize)
+   at System.IO.Strategies.OSFileStreamStrategy..ctor(String path, FileMode mode, FileAccess access, FileShare share, FileOptions options, Int64 preallocationSize)
+   at System.IO.Packaging.ZipPackage..ctor(String path, FileMode packageFileMode, FileAccess packageFileAccess, FileShare share)
+   at System.IO.Packaging.Package.Open(String path, FileMode packageMode, FileAccess packageAccess, FileShare packageShare)
+   at DocumentFormat.OpenXml.Packaging.OpenXmlPackage.OpenCore(String path, Boolean readWriteMode)
+   at DocumentFormat.OpenXml.Packaging.SpreadsheetDocument.Open(String path, Boolean isEditable, OpenSettings openSettings)
+   at ClosedXML.Excel.XLWorkbook.LoadSheets(String fileName) in C:\projects\closedxml\ClosedXML\Excel\XLWorkbook_Load.cs:line 44
+   at UiPath.Excel.WorkbookFile.InitializeExistingWorbookFile()
+   at UiPath.Excel.Activities.WorkbookActivity`1.ConstructWorkbook(String path, String password, Boolean createNew)
+   at UiPath.Excel.Activities.WorkbookActivity`1.BeginExecute(AsyncCodeActivityContext context, AsyncCallback callback, Object state)
+   at System.Activities.AsyncCodeActivity.InternalExecute(ActivityInstance instance, ActivityExecutor executor, BookmarkManager bookmarkManager)
+   at System.Activities.Runtime.ActivityExecutor.ExecuteActivityWorkItem.ExecuteBody(ActivityExecutor executor, BookmarkManager bookmarkManager, Location resultLocation)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fdyfp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorsoreal-round-sunglasses-feqba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-polka-dot-print-knee-length-dress-f8ofp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2018-knee-length-skirt-fdfet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-striped-crew-neck-crop-top-fco17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-short-sleeve-t-shirt-f8ils</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2017-striped-top-fde6u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2010-skinny-leg-pants-fcocn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-virgin-wool-straight-leg-pants-fcdqe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-fcclu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-lasercut-accents-slides-fcd2o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-gradient-sunglasses-fcanr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-nicely-d-leather-espadrilles-f3gow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fdzvf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-animal-print-knee-length-skirt-fdomo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-fdyjo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2017-skinny-leg-pants-ff1r2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2020-l-etoile-t-shirt-ff7o9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-crystal-embellishments-moto-boots-fevqq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-graphic-print-crew-neck-t-shirt-fesat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-straight-leg-pants-fept7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-satin-crystal-embellishments-pumps-fe9pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-medium-microcannage-lady-dior-bag-fdowe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2012-cashmere-sweater-fbeo2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-virgin-wool-blazer-f4zsf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-crew-neck-t-shirt-fi8cg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-embossed-leather-slingback-sandals-f7wx7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2013-long-dress-f6974</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2021-wide-leg-jeans-feg58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-nylon-printed-sneakers-fevy9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-wheel-of-fortune-motherpeace-tarot-dio-r-evolution-flap-bag-fcs3e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-sweet-d-printed-slingback-pumps-f77xf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-knee-length-dress-f5isp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-plaid-print-sweater-fdhzs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-fdjib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-diorquake-fur-mules-eui9z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-cashmere-sweater-evs35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2013-blazer-fe05x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fbpee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slingback-sandals-fem0o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-new-id-patent-leather-slides-fegcp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-diorclub1-sun-visor-fe92o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2007-fur-jacket-fcc8d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fbejs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-printed-pumps-fc8xq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorama-mini-cat-eye-sunglasses-f99w8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-kaliedscope-d-connect-chunky-sneakers-fc91t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fdpto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-leather-trim-embellishment-boots-fd9rf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-1980-s-skirt-set-fcz5r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-cashmere-short-sleeve-polo-f01zy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-wool-wide-leg-pants-f8kju</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-scoop-neck-midi-length-dress-fbu4v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-1980-s-skirt-set-f7qw7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-cannage-mini-lady-dior-bag-fal5k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-gradient-sunglasses-fd53s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fcu1d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fc8we</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-diorissimo-rasta-saddle-belt-bag-fgb3b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-scoop-neck-mini-dress-fbpix</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-printed-crew-neck-sweatshirt-fb8ql</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2001-sweater-fan1z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-colorblock-pattern-slingback-sandals-faxgz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2000-sweater-fb068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-patent-leather-sock-boots-fbw4a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-animal-print-espadrilles-fahoy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-the-suit-evening-jacket-fbxug</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2018-silk-top-fc8kq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-cutout-accent-sandals-fbrbe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-printed-short-sleeve-button-up-top-w-tags-fc90w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-nightgown-fbei0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-mules-fd17j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-d-light-denim-bag-fal6t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-leather-trimmed-tote-fbpn8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-slides-f9frt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-square-neckline-knee-length-dress-f01af</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-colorblock-pattern-turtleneck-top-f7a3r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-ffrzv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2016-long-dress-ffjm1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2019-mini-dress-f28zi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-bateau-neckline-knee-length-dress-ew0e2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fasxo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-plaid-print-sweater-fa2zf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-paisley-leather-shoulder-bag-b060n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-f96fy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-lamb-leather-straight-leg-pants-ffh3p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fbsi0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2021-mini-dress-w-tags-fboqj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-lingerie-robe-fahh6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-printed-mini-shorts-fbmx0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-beaded-mini-saddle-bag-f9uzd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2020-long-dress-f98vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-satin-animal-print-t-strap-sandals-fa5gk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-animal-print-sandals-f9fjm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-faux-fur-miss-dior-hat-f6w96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2021-long-dress-f5fwc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2015-mini-dress-fa0tn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-faenh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-floral-print-slides-fanjf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-whipstitch-trim-slingback-sandals-fajw0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-cd-de-christian-dior-robes-du-soir-long-dress-f9zcj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-striped-knee-length-dress-feler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-f84jr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-slides-fbi7q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-f2hm3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2000-s-top-fa96f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fbeo7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fbkuf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2020-vest-f9gf2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-f8cfb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2021-mini-shorts-f9859</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-lamb-leather-printed-biker-jacket-fysub</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-combat-boots-g1l5b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-printed-ballet-flats-g1iqj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-straight-leg-pants-g0uwb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-lv-monogram-sock-boots-g1jga</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-patent-leather-graphic-print-combat-boots-g18j9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-leather-combat-boots-g17cz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-boots-g1dhn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-30mm-lv-initiales-lv-monogram-belt-w-tags-fzis1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-wedge-sneakers-g1dcp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-grand-froid-wool-snood-g03zi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-vintage-epi-leather-monte-carlo-jewelry-case-fzy54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-metallic-timeless-cashmere-stole-fzimf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-empreinte-leather-emilie-wallet-fzjn6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-so-shine-lv-monogram-shawl-fzz5v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-2018-damier-azur-pattern-belt-fzx62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-monogram-denim-lv-monogram-scarf-fz88f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-monogram-denim-silk-scarf-fyodz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-vernis-bedford-fymxj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-speedy-30-fxy0o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-brazza-wallet-g0qsc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2007-lv-monogram-koala-wallet-g0o8f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-sarah-wallet-g0h3j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-damier-ebene-pattern-wallet-fzwcj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1991-elise-wallet-fzle9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-card-holder-fzl3s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2002-lv-monogram-french-purse-fzjpn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-coated-canvas-clemence-wallet-fz9x8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-jeanne-wallet-fz8jx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-pochette-felicie-fzmof</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-papillon-26-fzm48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-2020-mini-25mm-belt-fzzrn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2007-damier-azur-pattern-wallet-g0nmx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2001-epi-leather-wallet-g0dyk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2021-blanca-sunglasses-g0aaw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-cashmere-lv-monogram-scarf-fzyxo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-la-grande-bellezza-oversize-sunglasses-fzwgy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2021-my-fair-lady-sunglasses-fzv41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-vernis-patent-leather-zippy-wallet-g0upa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-azur-pattern-continental-wallet-fzwvp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-monogram-vernis-sunset-boulevard-clutch-g196j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-alexandra-wallet-g0qgt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-coated-canvas-zippy-coin-purse-g0ple</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-conspiration-pilote-damier-ebene-pattern-sunglasses-g09ho</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-soupcon-square-sunglasses-g00fy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-lv-monogram-sarah-wallet-fzy7n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-cosmetic-pouch-summer-trunks-fzy30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-pumps-g1em7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-french-purse-g0qay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-lv-monogram-wallet-g0dvw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1994-international-wallet-g0auk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-bandouliere-45-fz89k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-fxp6x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-40-fxdb3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-giant-monogram-onthego-mm-fv6yz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-turenne-mm-fuyw1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-soufflot-mm-fpvn6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2004-french-purse-fzlaz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-wool-scarf-fzhrm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-empreinte-montsouris-nm-fyclo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-empreinte-giant-multi-pochette-accessoires-fevuq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-petite-mon-coeur-heart-on-chain-fu0rq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-2022-monogram-empreinte-neonoe-mm-fzf1b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-speedy-25-fxw7y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-reykjavik-wool-scarf-fzu9r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-16mm-adjustable-shoulder-strap-fzsdh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2000-lv-monogram-bifold-wallet-fzlk3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-wool-scarf-fzxsr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2001-sarah-wallet-g3fnm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-6-keyholder-fqj50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-empreinte-grand-palais-mm-ftw5d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-saint-jacques-shopping-fz8m8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-boite-flacons-vanity-trunk-eq3ll</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-printed-sneakers-g09eo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/monogram-keepall-45-fwx4o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-short-sleeve-polo-frn90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-damier-ebene-pattern-wallet-fyk4g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-empreinte-leather-sarah-wallet-fy0fj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-epi-soufflot-pouch-fzwro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-winterbreak-suede-mules-fy4oq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-35-fza9n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-bb-w-strap-ftqz5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-artsy-mm-fxg4k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-bandouliere-55-fw3td</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-mahina-hobo-xl-fyiea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-leather-combat-boots-fvton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-cabas-beaubourg-fqfyy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-printed-combat-boots-fq7on</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-leather-sock-boots-fkilu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-monogram-pattern-leather-slides-f41xh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-noe-pm-fzn3d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-vintage-cabas-alto-tote-bag-fs6jh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-silk-knee-length-dress-fs6t0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-vintage-monogram-sac-shopping-48-fqkwu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-new-wave-bumbag-fs6n9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-pont-neuf-pm-fs6nm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-stresa-pm-ajdyo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-speedy-35-919ms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-silk-scarf-ays7z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-55-998kd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-vintage-monogram-pochette-accessoires-843yx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolore-pochette-accessoires-acj8u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-new-wave-chain-mm-bcj8u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-garment-bag-b0fsz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-35-93xka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-empreinte-montaigne-mm-aqywd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2005-monogram-pattern-compact-wallet-al3ig</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-bandouliere-30-b4xgc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-vernis-christie-gm-as287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-denim-neo-cabby-mm-ah3dg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-illustre-monogram-bag-charm-aztbh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-continental-wallet-ay4ra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-35-b5441</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vernis-stanton-tote-bag-bhfch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-vernis-rosewood-avenue-bgnvo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-artsy-mm-bfjfu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-pont-neuf-pm-axwra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-tribeca-mini-apv3s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-antheia-hobo-pm-aeb2p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-mahina-xs-bag-905pc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-2020-lv-monogram-combat-boots-azq9g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolore-speedy-30-bfdcx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-pochette-felicie-my-lv-world-tour-cross-body-bbhod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2020-monogram-alma-bb-a5gki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2019-reverse-monogram-giant-onthego-gm-w-tags-9eka4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-gm-b0r1t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-saleya-pm-bdzr2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-25-b78bk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-epi-leather-belt-b2y09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-malesherbes-handle-bag-9wcxg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-2018-epi-twist-bucket-bag-8p3oz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-galliera-pm-bgxm0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-silk-mini-skirt-w-tags-ansza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-triana-bag-a7jew</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-musette-tango-at2fp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-vintage-monogram-looping-gm-bgz6i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-riviera-beauty-case-ay83w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-vintage-monogram-nil-bag-aqvp5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-damier-ebene-pattern-wallet-bgid6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-canvas-b1c6c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-eclipse-backpack-bag-charm-au8zc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-empreinte-fascinate-pm-9jb29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bhnp5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-bicolor-noe-pm-bd61t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-mahina-leather-solar-gm-bek3u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1988-pochette-porte-monnaie-begh3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-35-b2x8s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-be1ij</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-neverfull-pouch-bbgr4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-colorline-bag-charm-keyholder-ay2k3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-reade-pm-b4phy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-neverfull-mm-fsm6u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-mm-cf6cv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-26-cao1o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-damier-ebene-trevi-pm-bzeji</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-berkeley-bag-cf5yl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-damier-ebene-geronimos-waist-bag-c8b7i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-brass-lock-key-set-bm6at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-multicolore-speedy-30-cgpny</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-multicolore-monogram-alma-mm-bme8m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-damier-azur-pochette-felicie-c7224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bll33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-multicolore-monogram-keepall-45-cfspd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolore-speedy-30-c3jj6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-damier-ebene-neverfull-pochette-c64sb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-vintage-monogram-montsouris-backpack-gm-bnqix</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-lv-monogram-shearling-slingback-sandals-fqmz5</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -16299,7 +17217,2423 @@
         <x:v>1395</x:v>
       </x:c>
       <x:c r="B1479" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1481" spans="1:14">
+      <x:c r="A1481" s="0" t="s">
         <x:v>1396</x:v>
+      </x:c>
+      <x:c r="B1481" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1482" spans="1:14">
+      <x:c r="A1482" s="0" t="s">
+        <x:v>1397</x:v>
+      </x:c>
+      <x:c r="B1482" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1483" spans="1:14">
+      <x:c r="A1483" s="0" t="s">
+        <x:v>1398</x:v>
+      </x:c>
+      <x:c r="B1483" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1484" spans="1:14">
+      <x:c r="A1484" s="0" t="s">
+        <x:v>1399</x:v>
+      </x:c>
+      <x:c r="B1484" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1485" spans="1:14">
+      <x:c r="A1485" s="0" t="s">
+        <x:v>1400</x:v>
+      </x:c>
+      <x:c r="B1485" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1486" spans="1:14">
+      <x:c r="A1486" s="0" t="s">
+        <x:v>1401</x:v>
+      </x:c>
+      <x:c r="B1486" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1487" spans="1:14">
+      <x:c r="A1487" s="0" t="s">
+        <x:v>1402</x:v>
+      </x:c>
+      <x:c r="B1487" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1488" spans="1:14">
+      <x:c r="A1488" s="0" t="s">
+        <x:v>1403</x:v>
+      </x:c>
+      <x:c r="B1488" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1489" spans="1:14">
+      <x:c r="A1489" s="0" t="s">
+        <x:v>1404</x:v>
+      </x:c>
+      <x:c r="B1489" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1490" spans="1:14">
+      <x:c r="A1490" s="0" t="s">
+        <x:v>1405</x:v>
+      </x:c>
+      <x:c r="B1490" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1491" spans="1:14">
+      <x:c r="A1491" s="0" t="s">
+        <x:v>1406</x:v>
+      </x:c>
+      <x:c r="B1491" s="3" t="s">
+        <x:v>1407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1492" spans="1:14">
+      <x:c r="A1492" s="0" t="s">
+        <x:v>1408</x:v>
+      </x:c>
+      <x:c r="B1492" s="3" t="s">
+        <x:v>1407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1493" spans="1:14">
+      <x:c r="A1493" s="0" t="s">
+        <x:v>1409</x:v>
+      </x:c>
+      <x:c r="B1493" s="3" t="s">
+        <x:v>1407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1494" spans="1:14">
+      <x:c r="A1494" s="0" t="s">
+        <x:v>1410</x:v>
+      </x:c>
+      <x:c r="B1494" s="3" t="s">
+        <x:v>1407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1495" spans="1:14">
+      <x:c r="A1495" s="0" t="s">
+        <x:v>1411</x:v>
+      </x:c>
+      <x:c r="B1495" s="3" t="s">
+        <x:v>1407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1496" spans="1:14">
+      <x:c r="A1496" s="0" t="s">
+        <x:v>1412</x:v>
+      </x:c>
+      <x:c r="B1496" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1497" spans="1:14">
+      <x:c r="A1497" s="0" t="s">
+        <x:v>1414</x:v>
+      </x:c>
+      <x:c r="B1497" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1498" spans="1:14">
+      <x:c r="A1498" s="0" t="s">
+        <x:v>1415</x:v>
+      </x:c>
+      <x:c r="B1498" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1499" spans="1:14">
+      <x:c r="A1499" s="0" t="s">
+        <x:v>1416</x:v>
+      </x:c>
+      <x:c r="B1499" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1500" spans="1:14">
+      <x:c r="A1500" s="0" t="s">
+        <x:v>1417</x:v>
+      </x:c>
+      <x:c r="B1500" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1501" spans="1:14">
+      <x:c r="A1501" s="0" t="s">
+        <x:v>1418</x:v>
+      </x:c>
+      <x:c r="B1501" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1502" spans="1:14">
+      <x:c r="A1502" s="0" t="s">
+        <x:v>1419</x:v>
+      </x:c>
+      <x:c r="B1502" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1503" spans="1:14">
+      <x:c r="A1503" s="0" t="s">
+        <x:v>1420</x:v>
+      </x:c>
+      <x:c r="B1503" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1504" spans="1:14">
+      <x:c r="A1504" s="0" t="s">
+        <x:v>1421</x:v>
+      </x:c>
+      <x:c r="B1504" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1505" spans="1:14">
+      <x:c r="A1505" s="0" t="s">
+        <x:v>1422</x:v>
+      </x:c>
+      <x:c r="B1505" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1506" spans="1:14">
+      <x:c r="A1506" s="0" t="s">
+        <x:v>1423</x:v>
+      </x:c>
+      <x:c r="B1506" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1507" spans="1:14">
+      <x:c r="A1507" s="0" t="s">
+        <x:v>1424</x:v>
+      </x:c>
+      <x:c r="B1507" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1508" spans="1:14">
+      <x:c r="A1508" s="0" t="s">
+        <x:v>1425</x:v>
+      </x:c>
+      <x:c r="B1508" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1509" spans="1:14">
+      <x:c r="A1509" s="0" t="s">
+        <x:v>1426</x:v>
+      </x:c>
+      <x:c r="B1509" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1510" spans="1:14">
+      <x:c r="A1510" s="0" t="s">
+        <x:v>1427</x:v>
+      </x:c>
+      <x:c r="B1510" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1511" spans="1:14">
+      <x:c r="A1511" s="0" t="s">
+        <x:v>1428</x:v>
+      </x:c>
+      <x:c r="B1511" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1512" spans="1:14">
+      <x:c r="A1512" s="0" t="s">
+        <x:v>1429</x:v>
+      </x:c>
+      <x:c r="B1512" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1513" spans="1:14">
+      <x:c r="A1513" s="0" t="s">
+        <x:v>1430</x:v>
+      </x:c>
+      <x:c r="B1513" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1514" spans="1:14">
+      <x:c r="A1514" s="0" t="s">
+        <x:v>1431</x:v>
+      </x:c>
+      <x:c r="B1514" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1515" spans="1:14">
+      <x:c r="A1515" s="0" t="s">
+        <x:v>1432</x:v>
+      </x:c>
+      <x:c r="B1515" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1516" spans="1:14">
+      <x:c r="A1516" s="0" t="s">
+        <x:v>1433</x:v>
+      </x:c>
+      <x:c r="B1516" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1517" spans="1:14">
+      <x:c r="A1517" s="0" t="s">
+        <x:v>1434</x:v>
+      </x:c>
+      <x:c r="B1517" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1518" spans="1:14">
+      <x:c r="A1518" s="0" t="s">
+        <x:v>1435</x:v>
+      </x:c>
+      <x:c r="B1518" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1519" spans="1:14">
+      <x:c r="A1519" s="0" t="s">
+        <x:v>1436</x:v>
+      </x:c>
+      <x:c r="B1519" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1520" spans="1:14">
+      <x:c r="A1520" s="0" t="s">
+        <x:v>1437</x:v>
+      </x:c>
+      <x:c r="B1520" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1521" spans="1:14">
+      <x:c r="A1521" s="0" t="s">
+        <x:v>1438</x:v>
+      </x:c>
+      <x:c r="B1521" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1522" spans="1:14">
+      <x:c r="A1522" s="0" t="s">
+        <x:v>1439</x:v>
+      </x:c>
+      <x:c r="B1522" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1523" spans="1:14">
+      <x:c r="A1523" s="0" t="s">
+        <x:v>1440</x:v>
+      </x:c>
+      <x:c r="B1523" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1524" spans="1:14">
+      <x:c r="A1524" s="0" t="s">
+        <x:v>1441</x:v>
+      </x:c>
+      <x:c r="B1524" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1525" spans="1:14">
+      <x:c r="A1525" s="0" t="s">
+        <x:v>1442</x:v>
+      </x:c>
+      <x:c r="B1525" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1526" spans="1:14">
+      <x:c r="A1526" s="0" t="s">
+        <x:v>1443</x:v>
+      </x:c>
+      <x:c r="B1526" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1527" spans="1:14">
+      <x:c r="A1527" s="0" t="s">
+        <x:v>1444</x:v>
+      </x:c>
+      <x:c r="B1527" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1528" spans="1:14">
+      <x:c r="A1528" s="0" t="s">
+        <x:v>1445</x:v>
+      </x:c>
+      <x:c r="B1528" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1529" spans="1:14">
+      <x:c r="A1529" s="0" t="s">
+        <x:v>1446</x:v>
+      </x:c>
+      <x:c r="B1529" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1530" spans="1:14">
+      <x:c r="A1530" s="0" t="s">
+        <x:v>1447</x:v>
+      </x:c>
+      <x:c r="B1530" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1531" spans="1:14">
+      <x:c r="A1531" s="0" t="s">
+        <x:v>1448</x:v>
+      </x:c>
+      <x:c r="B1531" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1532" spans="1:14">
+      <x:c r="A1532" s="0" t="s">
+        <x:v>1449</x:v>
+      </x:c>
+      <x:c r="B1532" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1533" spans="1:14">
+      <x:c r="A1533" s="0" t="s">
+        <x:v>1450</x:v>
+      </x:c>
+      <x:c r="B1533" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1534" spans="1:14">
+      <x:c r="A1534" s="0" t="s">
+        <x:v>1451</x:v>
+      </x:c>
+      <x:c r="B1534" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1535" spans="1:14">
+      <x:c r="A1535" s="0" t="s">
+        <x:v>1452</x:v>
+      </x:c>
+      <x:c r="B1535" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1536" spans="1:14">
+      <x:c r="A1536" s="0" t="s">
+        <x:v>1453</x:v>
+      </x:c>
+      <x:c r="B1536" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1537" spans="1:14">
+      <x:c r="A1537" s="0" t="s">
+        <x:v>1454</x:v>
+      </x:c>
+      <x:c r="B1537" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1538" spans="1:14">
+      <x:c r="A1538" s="0" t="s">
+        <x:v>1455</x:v>
+      </x:c>
+      <x:c r="B1538" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1539" spans="1:14">
+      <x:c r="A1539" s="0" t="s">
+        <x:v>1456</x:v>
+      </x:c>
+      <x:c r="B1539" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1540" spans="1:14">
+      <x:c r="A1540" s="0" t="s">
+        <x:v>1457</x:v>
+      </x:c>
+      <x:c r="B1540" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1541" spans="1:14">
+      <x:c r="A1541" s="0" t="s">
+        <x:v>1458</x:v>
+      </x:c>
+      <x:c r="B1541" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1542" spans="1:14">
+      <x:c r="A1542" s="0" t="s">
+        <x:v>1459</x:v>
+      </x:c>
+      <x:c r="B1542" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1543" spans="1:14">
+      <x:c r="A1543" s="0" t="s">
+        <x:v>1460</x:v>
+      </x:c>
+      <x:c r="B1543" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1544" spans="1:14">
+      <x:c r="A1544" s="0" t="s">
+        <x:v>1461</x:v>
+      </x:c>
+      <x:c r="B1544" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1545" spans="1:14">
+      <x:c r="A1545" s="0" t="s">
+        <x:v>1462</x:v>
+      </x:c>
+      <x:c r="B1545" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1546" spans="1:14">
+      <x:c r="A1546" s="0" t="s">
+        <x:v>1463</x:v>
+      </x:c>
+      <x:c r="B1546" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1547" spans="1:14">
+      <x:c r="A1547" s="0" t="s">
+        <x:v>1464</x:v>
+      </x:c>
+      <x:c r="B1547" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1548" spans="1:14">
+      <x:c r="A1548" s="0" t="s">
+        <x:v>1465</x:v>
+      </x:c>
+      <x:c r="B1548" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1549" spans="1:14">
+      <x:c r="A1549" s="0" t="s">
+        <x:v>1466</x:v>
+      </x:c>
+      <x:c r="B1549" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1550" spans="1:14">
+      <x:c r="A1550" s="0" t="s">
+        <x:v>1467</x:v>
+      </x:c>
+      <x:c r="B1550" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1551" spans="1:14">
+      <x:c r="A1551" s="0" t="s">
+        <x:v>1468</x:v>
+      </x:c>
+      <x:c r="B1551" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1552" spans="1:14">
+      <x:c r="A1552" s="0" t="s">
+        <x:v>1469</x:v>
+      </x:c>
+      <x:c r="B1552" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1553" spans="1:14">
+      <x:c r="A1553" s="0" t="s">
+        <x:v>1470</x:v>
+      </x:c>
+      <x:c r="B1553" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1554" spans="1:14">
+      <x:c r="A1554" s="0" t="s">
+        <x:v>1471</x:v>
+      </x:c>
+      <x:c r="B1554" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1555" spans="1:14">
+      <x:c r="A1555" s="0" t="s">
+        <x:v>1472</x:v>
+      </x:c>
+      <x:c r="B1555" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1556" spans="1:14">
+      <x:c r="A1556" s="0" t="s">
+        <x:v>1473</x:v>
+      </x:c>
+      <x:c r="B1556" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1557" spans="1:14">
+      <x:c r="A1557" s="0" t="s">
+        <x:v>1474</x:v>
+      </x:c>
+      <x:c r="B1557" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1558" spans="1:14">
+      <x:c r="A1558" s="0" t="s">
+        <x:v>1475</x:v>
+      </x:c>
+      <x:c r="B1558" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1559" spans="1:14">
+      <x:c r="A1559" s="0" t="s">
+        <x:v>1476</x:v>
+      </x:c>
+      <x:c r="B1559" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1560" spans="1:14">
+      <x:c r="A1560" s="0" t="s">
+        <x:v>1477</x:v>
+      </x:c>
+      <x:c r="B1560" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1561" spans="1:14">
+      <x:c r="A1561" s="0" t="s">
+        <x:v>1478</x:v>
+      </x:c>
+      <x:c r="B1561" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1562" spans="1:14">
+      <x:c r="A1562" s="0" t="s">
+        <x:v>1479</x:v>
+      </x:c>
+      <x:c r="B1562" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1563" spans="1:14">
+      <x:c r="A1563" s="0" t="s">
+        <x:v>1480</x:v>
+      </x:c>
+      <x:c r="B1563" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1564" spans="1:14">
+      <x:c r="A1564" s="0" t="s">
+        <x:v>1481</x:v>
+      </x:c>
+      <x:c r="B1564" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1565" spans="1:14">
+      <x:c r="A1565" s="0" t="s">
+        <x:v>1482</x:v>
+      </x:c>
+      <x:c r="B1565" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1566" spans="1:14">
+      <x:c r="A1566" s="0" t="s">
+        <x:v>1483</x:v>
+      </x:c>
+      <x:c r="B1566" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1567" spans="1:14">
+      <x:c r="A1567" s="0" t="s">
+        <x:v>1484</x:v>
+      </x:c>
+      <x:c r="B1567" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1568" spans="1:14">
+      <x:c r="A1568" s="0" t="s">
+        <x:v>1485</x:v>
+      </x:c>
+      <x:c r="B1568" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1569" spans="1:14">
+      <x:c r="A1569" s="0" t="s">
+        <x:v>1486</x:v>
+      </x:c>
+      <x:c r="B1569" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1570" spans="1:14">
+      <x:c r="A1570" s="0" t="s">
+        <x:v>1487</x:v>
+      </x:c>
+      <x:c r="B1570" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1571" spans="1:14">
+      <x:c r="A1571" s="0" t="s">
+        <x:v>1488</x:v>
+      </x:c>
+      <x:c r="B1571" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1572" spans="1:14">
+      <x:c r="A1572" s="0" t="s">
+        <x:v>1489</x:v>
+      </x:c>
+      <x:c r="B1572" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1573" spans="1:14">
+      <x:c r="A1573" s="0" t="s">
+        <x:v>1490</x:v>
+      </x:c>
+      <x:c r="B1573" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1574" spans="1:14">
+      <x:c r="A1574" s="0" t="s">
+        <x:v>1491</x:v>
+      </x:c>
+      <x:c r="B1574" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1575" spans="1:14">
+      <x:c r="A1575" s="0" t="s">
+        <x:v>1492</x:v>
+      </x:c>
+      <x:c r="B1575" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1576" spans="1:14">
+      <x:c r="A1576" s="0" t="s">
+        <x:v>1493</x:v>
+      </x:c>
+      <x:c r="B1576" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1577" spans="1:14">
+      <x:c r="A1577" s="0" t="s">
+        <x:v>1494</x:v>
+      </x:c>
+      <x:c r="B1577" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1578" spans="1:14">
+      <x:c r="A1578" s="0" t="s">
+        <x:v>1495</x:v>
+      </x:c>
+      <x:c r="B1578" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1579" spans="1:14">
+      <x:c r="A1579" s="0" t="s">
+        <x:v>1496</x:v>
+      </x:c>
+      <x:c r="B1579" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1580" spans="1:14">
+      <x:c r="A1580" s="0" t="s">
+        <x:v>1497</x:v>
+      </x:c>
+      <x:c r="B1580" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1581" spans="1:14">
+      <x:c r="A1581" s="0" t="s">
+        <x:v>1498</x:v>
+      </x:c>
+      <x:c r="B1581" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1582" spans="1:14">
+      <x:c r="A1582" s="0" t="s">
+        <x:v>1499</x:v>
+      </x:c>
+      <x:c r="B1582" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1583" spans="1:14">
+      <x:c r="A1583" s="0" t="s">
+        <x:v>1500</x:v>
+      </x:c>
+      <x:c r="B1583" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1584" spans="1:14">
+      <x:c r="A1584" s="0" t="s">
+        <x:v>1501</x:v>
+      </x:c>
+      <x:c r="B1584" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1585" spans="1:14">
+      <x:c r="A1585" s="0" t="s">
+        <x:v>1502</x:v>
+      </x:c>
+      <x:c r="B1585" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1586" spans="1:14">
+      <x:c r="A1586" s="0" t="s">
+        <x:v>1503</x:v>
+      </x:c>
+      <x:c r="B1586" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1587" spans="1:14">
+      <x:c r="A1587" s="0" t="s">
+        <x:v>1504</x:v>
+      </x:c>
+      <x:c r="B1587" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1588" spans="1:14">
+      <x:c r="A1588" s="0" t="s">
+        <x:v>1505</x:v>
+      </x:c>
+      <x:c r="B1588" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1589" spans="1:14">
+      <x:c r="A1589" s="0" t="s">
+        <x:v>1506</x:v>
+      </x:c>
+      <x:c r="B1589" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1590" spans="1:14">
+      <x:c r="A1590" s="0" t="s">
+        <x:v>1507</x:v>
+      </x:c>
+      <x:c r="B1590" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1591" spans="1:14">
+      <x:c r="A1591" s="0" t="s">
+        <x:v>1508</x:v>
+      </x:c>
+      <x:c r="B1591" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1592" spans="1:14">
+      <x:c r="A1592" s="0" t="s">
+        <x:v>1509</x:v>
+      </x:c>
+      <x:c r="B1592" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1593" spans="1:14">
+      <x:c r="A1593" s="0" t="s">
+        <x:v>1510</x:v>
+      </x:c>
+      <x:c r="B1593" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1594" spans="1:14">
+      <x:c r="A1594" s="0" t="s">
+        <x:v>1511</x:v>
+      </x:c>
+      <x:c r="B1594" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1595" spans="1:14">
+      <x:c r="A1595" s="0" t="s">
+        <x:v>1512</x:v>
+      </x:c>
+      <x:c r="B1595" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1596" spans="1:14">
+      <x:c r="A1596" s="0" t="s">
+        <x:v>1513</x:v>
+      </x:c>
+      <x:c r="B1596" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1597" spans="1:14">
+      <x:c r="A1597" s="0" t="s">
+        <x:v>1514</x:v>
+      </x:c>
+      <x:c r="B1597" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1598" spans="1:14">
+      <x:c r="A1598" s="0" t="s">
+        <x:v>1515</x:v>
+      </x:c>
+      <x:c r="B1598" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1599" spans="1:14">
+      <x:c r="A1599" s="0" t="s">
+        <x:v>1516</x:v>
+      </x:c>
+      <x:c r="B1599" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1600" spans="1:14">
+      <x:c r="A1600" s="0" t="s">
+        <x:v>1517</x:v>
+      </x:c>
+      <x:c r="B1600" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1601" spans="1:14">
+      <x:c r="A1601" s="0" t="s">
+        <x:v>1518</x:v>
+      </x:c>
+      <x:c r="B1601" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1602" spans="1:14">
+      <x:c r="A1602" s="0" t="s">
+        <x:v>1519</x:v>
+      </x:c>
+      <x:c r="B1602" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1603" spans="1:14">
+      <x:c r="A1603" s="0" t="s">
+        <x:v>1520</x:v>
+      </x:c>
+      <x:c r="B1603" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1604" spans="1:14">
+      <x:c r="A1604" s="0" t="s">
+        <x:v>1521</x:v>
+      </x:c>
+      <x:c r="B1604" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1605" spans="1:14">
+      <x:c r="A1605" s="0" t="s">
+        <x:v>1522</x:v>
+      </x:c>
+      <x:c r="B1605" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1606" spans="1:14">
+      <x:c r="A1606" s="0" t="s">
+        <x:v>1523</x:v>
+      </x:c>
+      <x:c r="B1606" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1607" spans="1:14">
+      <x:c r="A1607" s="0" t="s">
+        <x:v>1524</x:v>
+      </x:c>
+      <x:c r="B1607" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1608" spans="1:14">
+      <x:c r="A1608" s="0" t="s">
+        <x:v>1525</x:v>
+      </x:c>
+      <x:c r="B1608" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1609" spans="1:14">
+      <x:c r="A1609" s="0" t="s">
+        <x:v>1526</x:v>
+      </x:c>
+      <x:c r="B1609" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1610" spans="1:14">
+      <x:c r="A1610" s="0" t="s">
+        <x:v>1527</x:v>
+      </x:c>
+      <x:c r="B1610" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1611" spans="1:14">
+      <x:c r="A1611" s="0" t="s">
+        <x:v>1528</x:v>
+      </x:c>
+      <x:c r="B1611" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1612" spans="1:14">
+      <x:c r="A1612" s="0" t="s">
+        <x:v>1529</x:v>
+      </x:c>
+      <x:c r="B1612" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1613" spans="1:14">
+      <x:c r="A1613" s="0" t="s">
+        <x:v>1530</x:v>
+      </x:c>
+      <x:c r="B1613" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1614" spans="1:14">
+      <x:c r="A1614" s="0" t="s">
+        <x:v>1531</x:v>
+      </x:c>
+      <x:c r="B1614" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1615" spans="1:14">
+      <x:c r="A1615" s="0" t="s">
+        <x:v>1532</x:v>
+      </x:c>
+      <x:c r="B1615" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1616" spans="1:14">
+      <x:c r="A1616" s="0" t="s">
+        <x:v>1533</x:v>
+      </x:c>
+      <x:c r="B1616" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1617" spans="1:14">
+      <x:c r="A1617" s="0" t="s">
+        <x:v>1534</x:v>
+      </x:c>
+      <x:c r="B1617" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1618" spans="1:14">
+      <x:c r="A1618" s="0" t="s">
+        <x:v>1535</x:v>
+      </x:c>
+      <x:c r="B1618" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1619" spans="1:14">
+      <x:c r="A1619" s="0" t="s">
+        <x:v>1536</x:v>
+      </x:c>
+      <x:c r="B1619" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1620" spans="1:14">
+      <x:c r="A1620" s="0" t="s">
+        <x:v>1537</x:v>
+      </x:c>
+      <x:c r="B1620" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1621" spans="1:14">
+      <x:c r="A1621" s="0" t="s">
+        <x:v>1538</x:v>
+      </x:c>
+      <x:c r="B1621" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1622" spans="1:14">
+      <x:c r="A1622" s="0" t="s">
+        <x:v>1539</x:v>
+      </x:c>
+      <x:c r="B1622" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1623" spans="1:14">
+      <x:c r="A1623" s="0" t="s">
+        <x:v>1540</x:v>
+      </x:c>
+      <x:c r="B1623" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1624" spans="1:14">
+      <x:c r="A1624" s="0" t="s">
+        <x:v>1541</x:v>
+      </x:c>
+      <x:c r="B1624" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1625" spans="1:14">
+      <x:c r="A1625" s="0" t="s">
+        <x:v>1542</x:v>
+      </x:c>
+      <x:c r="B1625" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1626" spans="1:14">
+      <x:c r="A1626" s="0" t="s">
+        <x:v>1543</x:v>
+      </x:c>
+      <x:c r="B1626" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1627" spans="1:14">
+      <x:c r="A1627" s="0" t="s">
+        <x:v>1544</x:v>
+      </x:c>
+      <x:c r="B1627" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1628" spans="1:14">
+      <x:c r="A1628" s="0" t="s">
+        <x:v>1545</x:v>
+      </x:c>
+      <x:c r="B1628" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1629" spans="1:14">
+      <x:c r="A1629" s="0" t="s">
+        <x:v>1546</x:v>
+      </x:c>
+      <x:c r="B1629" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1630" spans="1:14">
+      <x:c r="A1630" s="0" t="s">
+        <x:v>1547</x:v>
+      </x:c>
+      <x:c r="B1630" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1631" spans="1:14">
+      <x:c r="A1631" s="0" t="s">
+        <x:v>1548</x:v>
+      </x:c>
+      <x:c r="B1631" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1632" spans="1:14">
+      <x:c r="A1632" s="0" t="s">
+        <x:v>1549</x:v>
+      </x:c>
+      <x:c r="B1632" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1633" spans="1:14">
+      <x:c r="A1633" s="0" t="s">
+        <x:v>1550</x:v>
+      </x:c>
+      <x:c r="B1633" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1634" spans="1:14">
+      <x:c r="A1634" s="0" t="s">
+        <x:v>1551</x:v>
+      </x:c>
+      <x:c r="B1634" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1635" spans="1:14">
+      <x:c r="A1635" s="0" t="s">
+        <x:v>1552</x:v>
+      </x:c>
+      <x:c r="B1635" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1636" spans="1:14">
+      <x:c r="A1636" s="0" t="s">
+        <x:v>1553</x:v>
+      </x:c>
+      <x:c r="B1636" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1637" spans="1:14">
+      <x:c r="A1637" s="0" t="s">
+        <x:v>1554</x:v>
+      </x:c>
+      <x:c r="B1637" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1638" spans="1:14">
+      <x:c r="A1638" s="0" t="s">
+        <x:v>1555</x:v>
+      </x:c>
+      <x:c r="B1638" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1639" spans="1:14">
+      <x:c r="A1639" s="0" t="s">
+        <x:v>1556</x:v>
+      </x:c>
+      <x:c r="B1639" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1640" spans="1:14">
+      <x:c r="A1640" s="0" t="s">
+        <x:v>1557</x:v>
+      </x:c>
+      <x:c r="B1640" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1641" spans="1:14">
+      <x:c r="A1641" s="0" t="s">
+        <x:v>1558</x:v>
+      </x:c>
+      <x:c r="B1641" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1642" spans="1:14">
+      <x:c r="A1642" s="0" t="s">
+        <x:v>1559</x:v>
+      </x:c>
+      <x:c r="B1642" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1643" spans="1:14">
+      <x:c r="A1643" s="0" t="s">
+        <x:v>1560</x:v>
+      </x:c>
+      <x:c r="B1643" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1644" spans="1:14">
+      <x:c r="A1644" s="0" t="s">
+        <x:v>1561</x:v>
+      </x:c>
+      <x:c r="B1644" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1645" spans="1:14">
+      <x:c r="A1645" s="0" t="s">
+        <x:v>1562</x:v>
+      </x:c>
+      <x:c r="B1645" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1646" spans="1:14">
+      <x:c r="A1646" s="0" t="s">
+        <x:v>1563</x:v>
+      </x:c>
+      <x:c r="B1646" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1647" spans="1:14">
+      <x:c r="A1647" s="0" t="s">
+        <x:v>1564</x:v>
+      </x:c>
+      <x:c r="B1647" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1648" spans="1:14">
+      <x:c r="A1648" s="0" t="s">
+        <x:v>1565</x:v>
+      </x:c>
+      <x:c r="B1648" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1649" spans="1:14">
+      <x:c r="A1649" s="0" t="s">
+        <x:v>1566</x:v>
+      </x:c>
+      <x:c r="B1649" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1650" spans="1:14">
+      <x:c r="A1650" s="0" t="s">
+        <x:v>1567</x:v>
+      </x:c>
+      <x:c r="B1650" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1651" spans="1:14">
+      <x:c r="A1651" s="0" t="s">
+        <x:v>1568</x:v>
+      </x:c>
+      <x:c r="B1651" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1652" spans="1:14">
+      <x:c r="A1652" s="0" t="s">
+        <x:v>1569</x:v>
+      </x:c>
+      <x:c r="B1652" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1653" spans="1:14">
+      <x:c r="A1653" s="0" t="s">
+        <x:v>1570</x:v>
+      </x:c>
+      <x:c r="B1653" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1654" spans="1:14">
+      <x:c r="A1654" s="0" t="s">
+        <x:v>1571</x:v>
+      </x:c>
+      <x:c r="B1654" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1655" spans="1:14">
+      <x:c r="A1655" s="0" t="s">
+        <x:v>1572</x:v>
+      </x:c>
+      <x:c r="B1655" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1656" spans="1:14">
+      <x:c r="A1656" s="0" t="s">
+        <x:v>1573</x:v>
+      </x:c>
+      <x:c r="B1656" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1657" spans="1:14">
+      <x:c r="A1657" s="0" t="s">
+        <x:v>1574</x:v>
+      </x:c>
+      <x:c r="B1657" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1658" spans="1:14">
+      <x:c r="A1658" s="0" t="s">
+        <x:v>1575</x:v>
+      </x:c>
+      <x:c r="B1658" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1659" spans="1:14">
+      <x:c r="A1659" s="0" t="s">
+        <x:v>1576</x:v>
+      </x:c>
+      <x:c r="B1659" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1660" spans="1:14">
+      <x:c r="A1660" s="0" t="s">
+        <x:v>1577</x:v>
+      </x:c>
+      <x:c r="B1660" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1661" spans="1:14">
+      <x:c r="A1661" s="0" t="s">
+        <x:v>1578</x:v>
+      </x:c>
+      <x:c r="B1661" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1662" spans="1:14">
+      <x:c r="A1662" s="0" t="s">
+        <x:v>1579</x:v>
+      </x:c>
+      <x:c r="B1662" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1663" spans="1:14">
+      <x:c r="A1663" s="0" t="s">
+        <x:v>1580</x:v>
+      </x:c>
+      <x:c r="B1663" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1664" spans="1:14">
+      <x:c r="A1664" s="0" t="s">
+        <x:v>1581</x:v>
+      </x:c>
+      <x:c r="B1664" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1665" spans="1:14">
+      <x:c r="A1665" s="0" t="s">
+        <x:v>1582</x:v>
+      </x:c>
+      <x:c r="B1665" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1666" spans="1:14">
+      <x:c r="A1666" s="0" t="s">
+        <x:v>1583</x:v>
+      </x:c>
+      <x:c r="B1666" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1667" spans="1:14">
+      <x:c r="A1667" s="0" t="s">
+        <x:v>1584</x:v>
+      </x:c>
+      <x:c r="B1667" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1668" spans="1:14">
+      <x:c r="A1668" s="0" t="s">
+        <x:v>1585</x:v>
+      </x:c>
+      <x:c r="B1668" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1669" spans="1:14">
+      <x:c r="A1669" s="0" t="s">
+        <x:v>1586</x:v>
+      </x:c>
+      <x:c r="B1669" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1670" spans="1:14">
+      <x:c r="A1670" s="0" t="s">
+        <x:v>1587</x:v>
+      </x:c>
+      <x:c r="B1670" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1671" spans="1:14">
+      <x:c r="A1671" s="0" t="s">
+        <x:v>1588</x:v>
+      </x:c>
+      <x:c r="B1671" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1672" spans="1:14">
+      <x:c r="A1672" s="0" t="s">
+        <x:v>1589</x:v>
+      </x:c>
+      <x:c r="B1672" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1673" spans="1:14">
+      <x:c r="A1673" s="0" t="s">
+        <x:v>1590</x:v>
+      </x:c>
+      <x:c r="B1673" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1674" spans="1:14">
+      <x:c r="A1674" s="0" t="s">
+        <x:v>1591</x:v>
+      </x:c>
+      <x:c r="B1674" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1675" spans="1:14">
+      <x:c r="A1675" s="0" t="s">
+        <x:v>1592</x:v>
+      </x:c>
+      <x:c r="B1675" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1677" spans="1:14">
+      <x:c r="A1677" s="0" t="s">
+        <x:v>1423</x:v>
+      </x:c>
+      <x:c r="B1677" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1678" spans="1:14">
+      <x:c r="A1678" s="0" t="s">
+        <x:v>1468</x:v>
+      </x:c>
+      <x:c r="B1678" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1679" spans="1:14">
+      <x:c r="A1679" s="0" t="s">
+        <x:v>1529</x:v>
+      </x:c>
+      <x:c r="B1679" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1680" spans="1:14">
+      <x:c r="A1680" s="0" t="s">
+        <x:v>1536</x:v>
+      </x:c>
+      <x:c r="B1680" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1681" spans="1:14">
+      <x:c r="A1681" s="0" t="s">
+        <x:v>1538</x:v>
+      </x:c>
+      <x:c r="B1681" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1682" spans="1:14">
+      <x:c r="A1682" s="0" t="s">
+        <x:v>1555</x:v>
+      </x:c>
+      <x:c r="B1682" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1683" spans="1:14">
+      <x:c r="A1683" s="0" t="s">
+        <x:v>1574</x:v>
+      </x:c>
+      <x:c r="B1683" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1684" spans="1:14">
+      <x:c r="A1684" s="0" t="s">
+        <x:v>1579</x:v>
+      </x:c>
+      <x:c r="B1684" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1685" spans="1:14">
+      <x:c r="A1685" s="0" t="s">
+        <x:v>1593</x:v>
+      </x:c>
+      <x:c r="B1685" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1686" spans="1:14">
+      <x:c r="A1686" s="0" t="s">
+        <x:v>1594</x:v>
+      </x:c>
+      <x:c r="B1686" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1687" spans="1:14">
+      <x:c r="A1687" s="0" t="s">
+        <x:v>1595</x:v>
+      </x:c>
+      <x:c r="B1687" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1688" spans="1:14">
+      <x:c r="A1688" s="0" t="s">
+        <x:v>1596</x:v>
+      </x:c>
+      <x:c r="B1688" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1689" spans="1:14">
+      <x:c r="A1689" s="0" t="s">
+        <x:v>1597</x:v>
+      </x:c>
+      <x:c r="B1689" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1690" spans="1:14">
+      <x:c r="A1690" s="0" t="s">
+        <x:v>1598</x:v>
+      </x:c>
+      <x:c r="B1690" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1691" spans="1:14">
+      <x:c r="A1691" s="0" t="s">
+        <x:v>1599</x:v>
+      </x:c>
+      <x:c r="B1691" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1692" spans="1:14">
+      <x:c r="A1692" s="0" t="s">
+        <x:v>1600</x:v>
+      </x:c>
+      <x:c r="B1692" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1693" spans="1:14">
+      <x:c r="A1693" s="0" t="s">
+        <x:v>1601</x:v>
+      </x:c>
+      <x:c r="B1693" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1694" spans="1:14">
+      <x:c r="A1694" s="0" t="s">
+        <x:v>1602</x:v>
+      </x:c>
+      <x:c r="B1694" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1695" spans="1:14">
+      <x:c r="A1695" s="0" t="s">
+        <x:v>1603</x:v>
+      </x:c>
+      <x:c r="B1695" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1696" spans="1:14">
+      <x:c r="A1696" s="0" t="s">
+        <x:v>1604</x:v>
+      </x:c>
+      <x:c r="B1696" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1697" spans="1:14">
+      <x:c r="A1697" s="0" t="s">
+        <x:v>1605</x:v>
+      </x:c>
+      <x:c r="B1697" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1698" spans="1:14">
+      <x:c r="A1698" s="0" t="s">
+        <x:v>1606</x:v>
+      </x:c>
+      <x:c r="B1698" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1699" spans="1:14">
+      <x:c r="A1699" s="0" t="s">
+        <x:v>1607</x:v>
+      </x:c>
+      <x:c r="B1699" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1700" spans="1:14">
+      <x:c r="A1700" s="0" t="s">
+        <x:v>1608</x:v>
+      </x:c>
+      <x:c r="B1700" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1701" spans="1:14">
+      <x:c r="A1701" s="0" t="s">
+        <x:v>1609</x:v>
+      </x:c>
+      <x:c r="B1701" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1702" spans="1:14">
+      <x:c r="A1702" s="0" t="s">
+        <x:v>1610</x:v>
+      </x:c>
+      <x:c r="B1702" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1703" spans="1:14">
+      <x:c r="A1703" s="0" t="s">
+        <x:v>1611</x:v>
+      </x:c>
+      <x:c r="B1703" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1704" spans="1:14">
+      <x:c r="A1704" s="0" t="s">
+        <x:v>1612</x:v>
+      </x:c>
+      <x:c r="B1704" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1705" spans="1:14">
+      <x:c r="A1705" s="0" t="s">
+        <x:v>1613</x:v>
+      </x:c>
+      <x:c r="B1705" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1706" spans="1:14">
+      <x:c r="A1706" s="0" t="s">
+        <x:v>1614</x:v>
+      </x:c>
+      <x:c r="B1706" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1707" spans="1:14">
+      <x:c r="A1707" s="0" t="s">
+        <x:v>1615</x:v>
+      </x:c>
+      <x:c r="B1707" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1708" spans="1:14">
+      <x:c r="A1708" s="0" t="s">
+        <x:v>1616</x:v>
+      </x:c>
+      <x:c r="B1708" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1709" spans="1:14">
+      <x:c r="A1709" s="0" t="s">
+        <x:v>1617</x:v>
+      </x:c>
+      <x:c r="B1709" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1710" spans="1:14">
+      <x:c r="A1710" s="0" t="s">
+        <x:v>1618</x:v>
+      </x:c>
+      <x:c r="B1710" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1711" spans="1:14">
+      <x:c r="A1711" s="0" t="s">
+        <x:v>1619</x:v>
+      </x:c>
+      <x:c r="B1711" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1712" spans="1:14">
+      <x:c r="A1712" s="0" t="s">
+        <x:v>1620</x:v>
+      </x:c>
+      <x:c r="B1712" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1713" spans="1:14">
+      <x:c r="A1713" s="0" t="s">
+        <x:v>1621</x:v>
+      </x:c>
+      <x:c r="B1713" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1714" spans="1:14">
+      <x:c r="A1714" s="0" t="s">
+        <x:v>1622</x:v>
+      </x:c>
+      <x:c r="B1714" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1715" spans="1:14">
+      <x:c r="A1715" s="0" t="s">
+        <x:v>1623</x:v>
+      </x:c>
+      <x:c r="B1715" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1716" spans="1:14">
+      <x:c r="A1716" s="0" t="s">
+        <x:v>1624</x:v>
+      </x:c>
+      <x:c r="B1716" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1717" spans="1:14">
+      <x:c r="A1717" s="0" t="s">
+        <x:v>1625</x:v>
+      </x:c>
+      <x:c r="B1717" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1718" spans="1:14">
+      <x:c r="A1718" s="0" t="s">
+        <x:v>1626</x:v>
+      </x:c>
+      <x:c r="B1718" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1719" spans="1:14">
+      <x:c r="A1719" s="0" t="s">
+        <x:v>1627</x:v>
+      </x:c>
+      <x:c r="B1719" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1720" spans="1:14">
+      <x:c r="A1720" s="0" t="s">
+        <x:v>1628</x:v>
+      </x:c>
+      <x:c r="B1720" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1721" spans="1:14">
+      <x:c r="A1721" s="0" t="s">
+        <x:v>1629</x:v>
+      </x:c>
+      <x:c r="B1721" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1722" spans="1:14">
+      <x:c r="A1722" s="0" t="s">
+        <x:v>1630</x:v>
+      </x:c>
+      <x:c r="B1722" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1723" spans="1:14">
+      <x:c r="A1723" s="0" t="s">
+        <x:v>1631</x:v>
+      </x:c>
+      <x:c r="B1723" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1724" spans="1:14">
+      <x:c r="A1724" s="0" t="s">
+        <x:v>1632</x:v>
+      </x:c>
+      <x:c r="B1724" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1725" spans="1:14">
+      <x:c r="A1725" s="0" t="s">
+        <x:v>1633</x:v>
+      </x:c>
+      <x:c r="B1725" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1726" spans="1:14">
+      <x:c r="A1726" s="0" t="s">
+        <x:v>1634</x:v>
+      </x:c>
+      <x:c r="B1726" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1727" spans="1:14">
+      <x:c r="A1727" s="0" t="s">
+        <x:v>1635</x:v>
+      </x:c>
+      <x:c r="B1727" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1728" spans="1:14">
+      <x:c r="A1728" s="0" t="s">
+        <x:v>1636</x:v>
+      </x:c>
+      <x:c r="B1728" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1729" spans="1:14">
+      <x:c r="A1729" s="0" t="s">
+        <x:v>1637</x:v>
+      </x:c>
+      <x:c r="B1729" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1730" spans="1:14">
+      <x:c r="A1730" s="0" t="s">
+        <x:v>1638</x:v>
+      </x:c>
+      <x:c r="B1730" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1731" spans="1:14">
+      <x:c r="A1731" s="0" t="s">
+        <x:v>1639</x:v>
+      </x:c>
+      <x:c r="B1731" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1732" spans="1:14">
+      <x:c r="A1732" s="0" t="s">
+        <x:v>1640</x:v>
+      </x:c>
+      <x:c r="B1732" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1733" spans="1:14">
+      <x:c r="A1733" s="0" t="s">
+        <x:v>1641</x:v>
+      </x:c>
+      <x:c r="B1733" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1734" spans="1:14">
+      <x:c r="A1734" s="0" t="s">
+        <x:v>1642</x:v>
+      </x:c>
+      <x:c r="B1734" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1735" spans="1:14">
+      <x:c r="A1735" s="0" t="s">
+        <x:v>1643</x:v>
+      </x:c>
+      <x:c r="B1735" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1736" spans="1:14">
+      <x:c r="A1736" s="0" t="s">
+        <x:v>1644</x:v>
+      </x:c>
+      <x:c r="B1736" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1737" spans="1:14">
+      <x:c r="A1737" s="0" t="s">
+        <x:v>1645</x:v>
+      </x:c>
+      <x:c r="B1737" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1738" spans="1:14">
+      <x:c r="A1738" s="0" t="s">
+        <x:v>1646</x:v>
+      </x:c>
+      <x:c r="B1738" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1739" spans="1:14">
+      <x:c r="A1739" s="0" t="s">
+        <x:v>1647</x:v>
+      </x:c>
+      <x:c r="B1739" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1740" spans="1:14">
+      <x:c r="A1740" s="0" t="s">
+        <x:v>1648</x:v>
+      </x:c>
+      <x:c r="B1740" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1741" spans="1:14">
+      <x:c r="A1741" s="0" t="s">
+        <x:v>1649</x:v>
+      </x:c>
+      <x:c r="B1741" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1742" spans="1:14">
+      <x:c r="A1742" s="0" t="s">
+        <x:v>1650</x:v>
+      </x:c>
+      <x:c r="B1742" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1743" spans="1:14">
+      <x:c r="A1743" s="0" t="s">
+        <x:v>1651</x:v>
+      </x:c>
+      <x:c r="B1743" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1744" spans="1:14">
+      <x:c r="A1744" s="0" t="s">
+        <x:v>1652</x:v>
+      </x:c>
+      <x:c r="B1744" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1745" spans="1:14">
+      <x:c r="A1745" s="0" t="s">
+        <x:v>1653</x:v>
+      </x:c>
+      <x:c r="B1745" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1746" spans="1:14">
+      <x:c r="A1746" s="0" t="s">
+        <x:v>1654</x:v>
+      </x:c>
+      <x:c r="B1746" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1747" spans="1:14">
+      <x:c r="A1747" s="0" t="s">
+        <x:v>1655</x:v>
+      </x:c>
+      <x:c r="B1747" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1748" spans="1:14">
+      <x:c r="A1748" s="0" t="s">
+        <x:v>1656</x:v>
+      </x:c>
+      <x:c r="B1748" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1749" spans="1:14">
+      <x:c r="A1749" s="0" t="s">
+        <x:v>1657</x:v>
+      </x:c>
+      <x:c r="B1749" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1750" spans="1:14">
+      <x:c r="A1750" s="0" t="s">
+        <x:v>1658</x:v>
+      </x:c>
+      <x:c r="B1750" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1751" spans="1:14">
+      <x:c r="A1751" s="0" t="s">
+        <x:v>1659</x:v>
+      </x:c>
+      <x:c r="B1751" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1752" spans="1:14">
+      <x:c r="A1752" s="0" t="s">
+        <x:v>1660</x:v>
+      </x:c>
+      <x:c r="B1752" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1753" spans="1:14">
+      <x:c r="A1753" s="0" t="s">
+        <x:v>1661</x:v>
+      </x:c>
+      <x:c r="B1753" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1754" spans="1:14">
+      <x:c r="A1754" s="0" t="s">
+        <x:v>1662</x:v>
+      </x:c>
+      <x:c r="B1754" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1755" spans="1:14">
+      <x:c r="A1755" s="0" t="s">
+        <x:v>1663</x:v>
+      </x:c>
+      <x:c r="B1755" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1756" spans="1:14">
+      <x:c r="A1756" s="0" t="s">
+        <x:v>1664</x:v>
+      </x:c>
+      <x:c r="B1756" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1757" spans="1:14">
+      <x:c r="A1757" s="0" t="s">
+        <x:v>1665</x:v>
+      </x:c>
+      <x:c r="B1757" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1758" spans="1:14">
+      <x:c r="A1758" s="0" t="s">
+        <x:v>1666</x:v>
+      </x:c>
+      <x:c r="B1758" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1759" spans="1:14">
+      <x:c r="A1759" s="0" t="s">
+        <x:v>1667</x:v>
+      </x:c>
+      <x:c r="B1759" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1760" spans="1:14">
+      <x:c r="A1760" s="0" t="s">
+        <x:v>1668</x:v>
+      </x:c>
+      <x:c r="B1760" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1761" spans="1:14">
+      <x:c r="A1761" s="0" t="s">
+        <x:v>1669</x:v>
+      </x:c>
+      <x:c r="B1761" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1762" spans="1:14">
+      <x:c r="A1762" s="0" t="s">
+        <x:v>1670</x:v>
+      </x:c>
+      <x:c r="B1762" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1763" spans="1:14">
+      <x:c r="A1763" s="0" t="s">
+        <x:v>1671</x:v>
+      </x:c>
+      <x:c r="B1763" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1764" spans="1:14">
+      <x:c r="A1764" s="0" t="s">
+        <x:v>1672</x:v>
+      </x:c>
+      <x:c r="B1764" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1765" spans="1:14">
+      <x:c r="A1765" s="0" t="s">
+        <x:v>1673</x:v>
+      </x:c>
+      <x:c r="B1765" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1766" spans="1:14">
+      <x:c r="A1766" s="0" t="s">
+        <x:v>1674</x:v>
+      </x:c>
+      <x:c r="B1766" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1767" spans="1:14">
+      <x:c r="A1767" s="0" t="s">
+        <x:v>1675</x:v>
+      </x:c>
+      <x:c r="B1767" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1768" spans="1:14">
+      <x:c r="A1768" s="0" t="s">
+        <x:v>1676</x:v>
+      </x:c>
+      <x:c r="B1768" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1769" spans="1:14">
+      <x:c r="A1769" s="0" t="s">
+        <x:v>1677</x:v>
+      </x:c>
+      <x:c r="B1769" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1770" spans="1:14">
+      <x:c r="A1770" s="0" t="s">
+        <x:v>1678</x:v>
+      </x:c>
+      <x:c r="B1770" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1771" spans="1:14">
+      <x:c r="A1771" s="0" t="s">
+        <x:v>1679</x:v>
+      </x:c>
+      <x:c r="B1771" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1772" spans="1:14">
+      <x:c r="A1772" s="0" t="s">
+        <x:v>1680</x:v>
+      </x:c>
+      <x:c r="B1772" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1773" spans="1:14">
+      <x:c r="A1773" s="0" t="s">
+        <x:v>1681</x:v>
+      </x:c>
+      <x:c r="B1773" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1774" spans="1:14">
+      <x:c r="A1774" s="0" t="s">
+        <x:v>1682</x:v>
+      </x:c>
+      <x:c r="B1774" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1775" spans="1:14">
+      <x:c r="A1775" s="0" t="s">
+        <x:v>1683</x:v>
+      </x:c>
+      <x:c r="B1775" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1776" spans="1:14">
+      <x:c r="A1776" s="0" t="s">
+        <x:v>1684</x:v>
+      </x:c>
+      <x:c r="B1776" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1777" spans="1:14">
+      <x:c r="A1777" s="0" t="s">
+        <x:v>1685</x:v>
+      </x:c>
+      <x:c r="B1777" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1778" spans="1:14">
+      <x:c r="A1778" s="0" t="s">
+        <x:v>1686</x:v>
+      </x:c>
+      <x:c r="B1778" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1779" spans="1:14">
+      <x:c r="A1779" s="0" t="s">
+        <x:v>1687</x:v>
+      </x:c>
+      <x:c r="B1779" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1780" spans="1:14">
+      <x:c r="A1780" s="0" t="s">
+        <x:v>1688</x:v>
+      </x:c>
+      <x:c r="B1780" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1781" spans="1:14">
+      <x:c r="A1781" s="0" t="s">
+        <x:v>1689</x:v>
+      </x:c>
+      <x:c r="B1781" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1782" spans="1:14">
+      <x:c r="A1782" s="0" t="s">
+        <x:v>1690</x:v>
+      </x:c>
+      <x:c r="B1782" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1783" spans="1:14">
+      <x:c r="A1783" s="0" t="s">
+        <x:v>1691</x:v>
+      </x:c>
+      <x:c r="B1783" s="3" t="s">
+        <x:v>1692</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="1818">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1969">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -5603,6 +5603,459 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/handbags/clutches/cult-gaia-bamboo-handle-bag-fzs4o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christopher-esber-silk-long-dress-g04fw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/ganni-plaid-print-mock-neck-blouse-g0ilh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/alice-mccall-patterned-mini-dress-g18cu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/neous-mules-fzlrf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/ganni-floral-print-mini-dress-w-tags-fnfwd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/olivia-von-halle-animal-print-long-dress-fl3a1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/doen-printed-midi-length-dress-fuvti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/alexandre-vauthier-plunge-neckline-long-dress-fszkk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/toteme-scoop-neck-long-dress-fmyhu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/miaou-floral-print-crew-neck-crop-top-fl1mn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-silk-long-dress-flm9c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/khaite-v-neck-long-sleeve-bodysuit-f7igd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/la-ligne-striped-v-neck-sweater-fh8pn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-colorblock-pattern-long-dress-fik8p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/anine-bing-open-front-sweater-fjek1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/rhode-crew-neck-mini-dress-fitbh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/batsheva-mock-neck-mini-dress-fi448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-mock-neck-sleeveless-blouse-fco0e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-mini-dress-fl3cf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/loungewear/live-the-process-sweatpants-fgj2a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/mach-mach-leather-crystal-embellishments-sandals-fehw3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-halterneck-long-dress-w-tags-fecwq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-square-neckline-mini-dress-fgau1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/pyer-moss-x-reebok-mock-neck-three-quarter-sleeve-crop-top-fcvd7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/by-far-embossed-leather-boots-f3dkh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-mini-dress-f78e2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/ganni-crew-neck-sleeveless-top-eymug</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/the-frankie-shop-wide-leg-pants-ffhxo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/farm-rio-printed-bateau-neckline-sweater-w-tags-fc2xu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/khaite-turtleneck-long-dress-fc5q2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/rixo-floral-print-long-dress-fbq3r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/amina-muaddi-2020-naima-slides-f4l3z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/farm-rio-floral-print-square-neckline-blouse-f1vlw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-midi-length-dress-f8wnv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/toteme-crew-neck-long-sleeve-sweatshirt-f4kfe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/by-malene-birger-scoop-neck-sleeveless-top-w-tags-f350a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/pumps/cult-gaia-mules-f2w7x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/jacquemus-woven-knit-fur-headband-f5rty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/a-w-a-k-e-mode-long-skirt-ew2d8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jeans/ganni-high-rise-wide-leg-jeans-f1l4h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/khaite-patent-leather-mesh-accents-chelsea-boots-ewf9a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-silk-floral-print-blouse-f29as</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-v-neck-long-dress-et4zd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/r13-denim-jacket-es64g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/olivia-von-halle-silk-long-dress-ewdai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/jacquemus-crew-neck-short-sleeve-t-shirt-exhsv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jeans/natasha-zinko-high-rise-straight-leg-jeans-ezp0k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-long-dress-evu3y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jeans/r13-kick-fit-long-wide-leg-jeans-exa2i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/rixo-silk-floral-print-blouse-epqjt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-mini-dress-w-tags-ets1o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-silk-long-dress-evctj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/nanushka-printed-mock-neck-top-et215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/staud-plaid-print-knee-length-dress-w-tags-enww4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/isa-arfen-printed-mini-dress-eqopt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jeans/khaite-mid-rise-skinny-leg-jeans-eoekn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/ganni-floral-print-long-dress-w-tags-e6x8g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-mini-dress-elaqq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/farm-rio-floral-print-mock-neck-sweatshirt-ekzca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-halterneck-midi-length-dress-ejxc4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/staud-floral-print-knee-length-dress-ec1q2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-silk-long-dress-ebowx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-mini-dress-ehirh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-eac2l</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/acler-printed-mini-dress-ec1y9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-plaid-print-crew-neck-top-ec02s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/staud-leather-slides-e5pd6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-skinny-leg-jeans-eakvz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/loungewear/la-ligne-sweatpants-eam8y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/hellessy-blazer-e53gq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/lemaire-animal-print-knee-length-dress-e433j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/magda-butrym-silk-long-sleeve-button-up-top-w-tags-dy4zy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/amina-muaddi-zula-crystal-embellishments-sandals-e3k3x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/rachel-comey-jacket-w-tags-djm0o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/ganni-printed-jacket-d9wl1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/sea-new-york-floral-print-v-neck-jumpsuit-d3zu1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/r13-animal-print-evening-jacket-fkb93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/stine-goya-floral-print-long-dress-w-tags-fi2vp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/acler-printed-mini-skirt-fj2ab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jeans/khaite-mid-rise-wide-leg-jeans-fyv16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/doen-printed-crew-neck-blouse-fzhny</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/loungewear/sleeper-feather-trim-pajamas-fvygp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-printed-v-neck-blouse-fub2c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/jacquemus-v-neck-long-sleeve-crop-top-fpey6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/brock-collection-floral-print-long-dress-fzrm7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/loungewear/wales-bonner-printed-crochet-trim-sweatpants-fxjkk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/doen-striped-mock-neck-crop-top-w-tags-fzn9i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/doen-plaid-print-crew-neck-crop-top-fzn2l</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/stand-studio-faux-fur-coat-fvlvi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/staud-square-neckline-long-dress-fx1pb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/sleeper-cape-w-tags-fvcq5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/doen-floral-print-crew-neck-blouse-fxk4b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/gabriela-hearst-cashmere-crew-neck-top-fxnib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/bevza-skinny-leg-pants-fxdwm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/gentle-monster-debby-round-sunglasses-fy6r2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/loungewear/olivia-von-halle-silk-printed-pajamas-fx5j1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-silk-long-dress-fn20v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/apparis-faux-fur-coat-fynzh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/mini-bags/telfar-vegan-leather-mini-bag-g1ms2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/acler-asymmetrical-long-sleeve-sweatshirt-w-tags-g1ez8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/toteme-silk-midi-length-skirt-fyf07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/staud-long-sleeve-crop-top-fytc7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/sea-new-york-v-neck-jumpsuit-fyvjd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/the-elder-statesman-paisley-print-scarf-fvuht</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jeans/khaite-high-rise-wide-leg-jeans-w-tags-fnolk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jeans/khaite-high-rise-straight-leg-jeans-fz4yz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/christopher-esber-scoop-neck-long-dress-fsb17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/alessandra-rich-mini-skirt-fk5sq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-printed-long-dress-fvr9t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/rotate-birger-christensen-plunge-neckline-long-dress-fxlbo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/doen-mock-neck-mini-dress-w-tags-fxpsf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/rotate-birger-christensen-blazer-w-tags-fxnn3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/doen-scoop-neck-short-sleeve-t-shirt-fxhes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/doen-floral-print-crew-neck-blouse-fl8ox</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/rhode-bateau-neckline-mini-dress-fvl8h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/anine-bing-skinny-leg-pants-fy3gz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/eckhaus-latta-crew-neck-long-sleeve-crop-top-fvnc3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/ganni-wool-beanie-fy63v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-crew-neck-long-sleeve-top-fp0fw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/sea-new-york-bolero-fowox</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/alessandra-rich-striped-midi-length-skirt-fu09v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-long-dress-w-tags-fyauf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-straight-leg-jeans-fx1dk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/nanushka-long-sleeve-polo-fydsn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/r13-straight-leg-pants-fybu4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/rosetta-getty-turtleneck-sweater-fxk0q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/loungewear/the-elder-statesman-cashmere-sweatpants-w-tags-fuz0s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sneakers/new-balance-x-staud-suede-colorblock-pattern-athletic-sneakers-w-tags-fu506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/rachel-comey-printed-crew-neck-sweater-fyjkp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/mini-bags/jacquemus-leather-mini-bag-fxpd9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/r13-floral-print-long-sleeve-button-up-top-fx9rd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/stine-goya-printed-bateau-neckline-blouse-fxdeb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/loungewear/the-frankie-shop-sweatpants-fwzhn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-long-dress-fyanb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/rachel-comey-blazer-fy3tv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/staud-trench-coat-w-tags-fxul7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/loungewear/stine-goya-printed-robe-fvezh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/dion-lee-wide-leg-pants-fr9cj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/doen-printed-long-dress-fs6wk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/staud-wide-leg-pants-fmdw2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-long-dress-fwh23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/ganni-v-neck-long-dress-fwzhs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/jacquemus-v-neck-sweater-fxi6h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/ganni-plaid-print-short-sleeve-button-up-top-fwkr5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/alessandra-rich-striped-evening-jacket-fmnav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/staud-strapless-mini-dress-fuymp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/ganni-printed-scoop-neck-t-shirt-fuz0a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/rachel-comey-v-neck-sweater-fw1d8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-floral-print-mini-skirt-fw76h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-v-neck-mini-dress-w-tags-fo6i2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/doen-bateau-neckline-three-quarter-sleeve-crop-top-fd326</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -21013,7 +21466,1215 @@
         <x:v>1816</x:v>
       </x:c>
       <x:c r="B1880" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1882" spans="1:14">
+      <x:c r="A1882" s="0" t="s">
         <x:v>1817</x:v>
+      </x:c>
+      <x:c r="B1882" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1883" spans="1:14">
+      <x:c r="A1883" s="0" t="s">
+        <x:v>1818</x:v>
+      </x:c>
+      <x:c r="B1883" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1884" spans="1:14">
+      <x:c r="A1884" s="0" t="s">
+        <x:v>1819</x:v>
+      </x:c>
+      <x:c r="B1884" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1885" spans="1:14">
+      <x:c r="A1885" s="0" t="s">
+        <x:v>1820</x:v>
+      </x:c>
+      <x:c r="B1885" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1886" spans="1:14">
+      <x:c r="A1886" s="0" t="s">
+        <x:v>1821</x:v>
+      </x:c>
+      <x:c r="B1886" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1887" spans="1:14">
+      <x:c r="A1887" s="0" t="s">
+        <x:v>1822</x:v>
+      </x:c>
+      <x:c r="B1887" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1888" spans="1:14">
+      <x:c r="A1888" s="0" t="s">
+        <x:v>1823</x:v>
+      </x:c>
+      <x:c r="B1888" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1889" spans="1:14">
+      <x:c r="A1889" s="0" t="s">
+        <x:v>1824</x:v>
+      </x:c>
+      <x:c r="B1889" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1890" spans="1:14">
+      <x:c r="A1890" s="0" t="s">
+        <x:v>1825</x:v>
+      </x:c>
+      <x:c r="B1890" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1891" spans="1:14">
+      <x:c r="A1891" s="0" t="s">
+        <x:v>1826</x:v>
+      </x:c>
+      <x:c r="B1891" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1892" spans="1:14">
+      <x:c r="A1892" s="0" t="s">
+        <x:v>1827</x:v>
+      </x:c>
+      <x:c r="B1892" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1893" spans="1:14">
+      <x:c r="A1893" s="0" t="s">
+        <x:v>1828</x:v>
+      </x:c>
+      <x:c r="B1893" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1894" spans="1:14">
+      <x:c r="A1894" s="0" t="s">
+        <x:v>1829</x:v>
+      </x:c>
+      <x:c r="B1894" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1895" spans="1:14">
+      <x:c r="A1895" s="0" t="s">
+        <x:v>1830</x:v>
+      </x:c>
+      <x:c r="B1895" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1896" spans="1:14">
+      <x:c r="A1896" s="0" t="s">
+        <x:v>1831</x:v>
+      </x:c>
+      <x:c r="B1896" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1897" spans="1:14">
+      <x:c r="A1897" s="0" t="s">
+        <x:v>1832</x:v>
+      </x:c>
+      <x:c r="B1897" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1898" spans="1:14">
+      <x:c r="A1898" s="0" t="s">
+        <x:v>1833</x:v>
+      </x:c>
+      <x:c r="B1898" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1899" spans="1:14">
+      <x:c r="A1899" s="0" t="s">
+        <x:v>1834</x:v>
+      </x:c>
+      <x:c r="B1899" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1900" spans="1:14">
+      <x:c r="A1900" s="0" t="s">
+        <x:v>1835</x:v>
+      </x:c>
+      <x:c r="B1900" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1901" spans="1:14">
+      <x:c r="A1901" s="0" t="s">
+        <x:v>1836</x:v>
+      </x:c>
+      <x:c r="B1901" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1902" spans="1:14">
+      <x:c r="A1902" s="0" t="s">
+        <x:v>1837</x:v>
+      </x:c>
+      <x:c r="B1902" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1903" spans="1:14">
+      <x:c r="A1903" s="0" t="s">
+        <x:v>1838</x:v>
+      </x:c>
+      <x:c r="B1903" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1904" spans="1:14">
+      <x:c r="A1904" s="0" t="s">
+        <x:v>1839</x:v>
+      </x:c>
+      <x:c r="B1904" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1905" spans="1:14">
+      <x:c r="A1905" s="0" t="s">
+        <x:v>1840</x:v>
+      </x:c>
+      <x:c r="B1905" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1906" spans="1:14">
+      <x:c r="A1906" s="0" t="s">
+        <x:v>1841</x:v>
+      </x:c>
+      <x:c r="B1906" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1907" spans="1:14">
+      <x:c r="A1907" s="0" t="s">
+        <x:v>1842</x:v>
+      </x:c>
+      <x:c r="B1907" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1908" spans="1:14">
+      <x:c r="A1908" s="0" t="s">
+        <x:v>1843</x:v>
+      </x:c>
+      <x:c r="B1908" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1909" spans="1:14">
+      <x:c r="A1909" s="0" t="s">
+        <x:v>1844</x:v>
+      </x:c>
+      <x:c r="B1909" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1910" spans="1:14">
+      <x:c r="A1910" s="0" t="s">
+        <x:v>1845</x:v>
+      </x:c>
+      <x:c r="B1910" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1911" spans="1:14">
+      <x:c r="A1911" s="0" t="s">
+        <x:v>1846</x:v>
+      </x:c>
+      <x:c r="B1911" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1912" spans="1:14">
+      <x:c r="A1912" s="0" t="s">
+        <x:v>1847</x:v>
+      </x:c>
+      <x:c r="B1912" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1913" spans="1:14">
+      <x:c r="A1913" s="0" t="s">
+        <x:v>1848</x:v>
+      </x:c>
+      <x:c r="B1913" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1914" spans="1:14">
+      <x:c r="A1914" s="0" t="s">
+        <x:v>1849</x:v>
+      </x:c>
+      <x:c r="B1914" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1915" spans="1:14">
+      <x:c r="A1915" s="0" t="s">
+        <x:v>1850</x:v>
+      </x:c>
+      <x:c r="B1915" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1916" spans="1:14">
+      <x:c r="A1916" s="0" t="s">
+        <x:v>1851</x:v>
+      </x:c>
+      <x:c r="B1916" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1917" spans="1:14">
+      <x:c r="A1917" s="0" t="s">
+        <x:v>1852</x:v>
+      </x:c>
+      <x:c r="B1917" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1918" spans="1:14">
+      <x:c r="A1918" s="0" t="s">
+        <x:v>1853</x:v>
+      </x:c>
+      <x:c r="B1918" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1919" spans="1:14">
+      <x:c r="A1919" s="0" t="s">
+        <x:v>1854</x:v>
+      </x:c>
+      <x:c r="B1919" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1920" spans="1:14">
+      <x:c r="A1920" s="0" t="s">
+        <x:v>1855</x:v>
+      </x:c>
+      <x:c r="B1920" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1921" spans="1:14">
+      <x:c r="A1921" s="0" t="s">
+        <x:v>1856</x:v>
+      </x:c>
+      <x:c r="B1921" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1922" spans="1:14">
+      <x:c r="A1922" s="0" t="s">
+        <x:v>1857</x:v>
+      </x:c>
+      <x:c r="B1922" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1923" spans="1:14">
+      <x:c r="A1923" s="0" t="s">
+        <x:v>1858</x:v>
+      </x:c>
+      <x:c r="B1923" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1924" spans="1:14">
+      <x:c r="A1924" s="0" t="s">
+        <x:v>1859</x:v>
+      </x:c>
+      <x:c r="B1924" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1925" spans="1:14">
+      <x:c r="A1925" s="0" t="s">
+        <x:v>1860</x:v>
+      </x:c>
+      <x:c r="B1925" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1926" spans="1:14">
+      <x:c r="A1926" s="0" t="s">
+        <x:v>1861</x:v>
+      </x:c>
+      <x:c r="B1926" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1927" spans="1:14">
+      <x:c r="A1927" s="0" t="s">
+        <x:v>1862</x:v>
+      </x:c>
+      <x:c r="B1927" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1928" spans="1:14">
+      <x:c r="A1928" s="0" t="s">
+        <x:v>1863</x:v>
+      </x:c>
+      <x:c r="B1928" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1929" spans="1:14">
+      <x:c r="A1929" s="0" t="s">
+        <x:v>1864</x:v>
+      </x:c>
+      <x:c r="B1929" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1930" spans="1:14">
+      <x:c r="A1930" s="0" t="s">
+        <x:v>1865</x:v>
+      </x:c>
+      <x:c r="B1930" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1931" spans="1:14">
+      <x:c r="A1931" s="0" t="s">
+        <x:v>1866</x:v>
+      </x:c>
+      <x:c r="B1931" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1932" spans="1:14">
+      <x:c r="A1932" s="0" t="s">
+        <x:v>1867</x:v>
+      </x:c>
+      <x:c r="B1932" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1933" spans="1:14">
+      <x:c r="A1933" s="0" t="s">
+        <x:v>1868</x:v>
+      </x:c>
+      <x:c r="B1933" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1934" spans="1:14">
+      <x:c r="A1934" s="0" t="s">
+        <x:v>1869</x:v>
+      </x:c>
+      <x:c r="B1934" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1935" spans="1:14">
+      <x:c r="A1935" s="0" t="s">
+        <x:v>1870</x:v>
+      </x:c>
+      <x:c r="B1935" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1936" spans="1:14">
+      <x:c r="A1936" s="0" t="s">
+        <x:v>1871</x:v>
+      </x:c>
+      <x:c r="B1936" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1937" spans="1:14">
+      <x:c r="A1937" s="0" t="s">
+        <x:v>1872</x:v>
+      </x:c>
+      <x:c r="B1937" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1938" spans="1:14">
+      <x:c r="A1938" s="0" t="s">
+        <x:v>1873</x:v>
+      </x:c>
+      <x:c r="B1938" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1939" spans="1:14">
+      <x:c r="A1939" s="0" t="s">
+        <x:v>1874</x:v>
+      </x:c>
+      <x:c r="B1939" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1940" spans="1:14">
+      <x:c r="A1940" s="0" t="s">
+        <x:v>1875</x:v>
+      </x:c>
+      <x:c r="B1940" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1941" spans="1:14">
+      <x:c r="A1941" s="0" t="s">
+        <x:v>1876</x:v>
+      </x:c>
+      <x:c r="B1941" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1942" spans="1:14">
+      <x:c r="A1942" s="0" t="s">
+        <x:v>1877</x:v>
+      </x:c>
+      <x:c r="B1942" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1943" spans="1:14">
+      <x:c r="A1943" s="0" t="s">
+        <x:v>1878</x:v>
+      </x:c>
+      <x:c r="B1943" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1944" spans="1:14">
+      <x:c r="A1944" s="0" t="s">
+        <x:v>1879</x:v>
+      </x:c>
+      <x:c r="B1944" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1945" spans="1:14">
+      <x:c r="A1945" s="0" t="s">
+        <x:v>1880</x:v>
+      </x:c>
+      <x:c r="B1945" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1946" spans="1:14">
+      <x:c r="A1946" s="0" t="s">
+        <x:v>1881</x:v>
+      </x:c>
+      <x:c r="B1946" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1947" spans="1:14">
+      <x:c r="A1947" s="0" t="s">
+        <x:v>1882</x:v>
+      </x:c>
+      <x:c r="B1947" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1948" spans="1:14">
+      <x:c r="A1948" s="0" t="s">
+        <x:v>1883</x:v>
+      </x:c>
+      <x:c r="B1948" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1949" spans="1:14">
+      <x:c r="A1949" s="0" t="s">
+        <x:v>1884</x:v>
+      </x:c>
+      <x:c r="B1949" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1950" spans="1:14">
+      <x:c r="A1950" s="0" t="s">
+        <x:v>1885</x:v>
+      </x:c>
+      <x:c r="B1950" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1951" spans="1:14">
+      <x:c r="A1951" s="0" t="s">
+        <x:v>1886</x:v>
+      </x:c>
+      <x:c r="B1951" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1952" spans="1:14">
+      <x:c r="A1952" s="0" t="s">
+        <x:v>1887</x:v>
+      </x:c>
+      <x:c r="B1952" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1953" spans="1:14">
+      <x:c r="A1953" s="0" t="s">
+        <x:v>1888</x:v>
+      </x:c>
+      <x:c r="B1953" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1954" spans="1:14">
+      <x:c r="A1954" s="0" t="s">
+        <x:v>1889</x:v>
+      </x:c>
+      <x:c r="B1954" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1955" spans="1:14">
+      <x:c r="A1955" s="0" t="s">
+        <x:v>1890</x:v>
+      </x:c>
+      <x:c r="B1955" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1956" spans="1:14">
+      <x:c r="A1956" s="0" t="s">
+        <x:v>1891</x:v>
+      </x:c>
+      <x:c r="B1956" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1957" spans="1:14">
+      <x:c r="A1957" s="0" t="s">
+        <x:v>1892</x:v>
+      </x:c>
+      <x:c r="B1957" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1958" spans="1:14">
+      <x:c r="A1958" s="0" t="s">
+        <x:v>1893</x:v>
+      </x:c>
+      <x:c r="B1958" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1959" spans="1:14">
+      <x:c r="A1959" s="0" t="s">
+        <x:v>1894</x:v>
+      </x:c>
+      <x:c r="B1959" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1960" spans="1:14">
+      <x:c r="A1960" s="0" t="s">
+        <x:v>1895</x:v>
+      </x:c>
+      <x:c r="B1960" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1961" spans="1:14">
+      <x:c r="A1961" s="0" t="s">
+        <x:v>1896</x:v>
+      </x:c>
+      <x:c r="B1961" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1962" spans="1:14">
+      <x:c r="A1962" s="0" t="s">
+        <x:v>1897</x:v>
+      </x:c>
+      <x:c r="B1962" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1963" spans="1:14">
+      <x:c r="A1963" s="0" t="s">
+        <x:v>1898</x:v>
+      </x:c>
+      <x:c r="B1963" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1964" spans="1:14">
+      <x:c r="A1964" s="0" t="s">
+        <x:v>1899</x:v>
+      </x:c>
+      <x:c r="B1964" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1965" spans="1:14">
+      <x:c r="A1965" s="0" t="s">
+        <x:v>1900</x:v>
+      </x:c>
+      <x:c r="B1965" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1966" spans="1:14">
+      <x:c r="A1966" s="0" t="s">
+        <x:v>1901</x:v>
+      </x:c>
+      <x:c r="B1966" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1967" spans="1:14">
+      <x:c r="A1967" s="0" t="s">
+        <x:v>1902</x:v>
+      </x:c>
+      <x:c r="B1967" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1968" spans="1:14">
+      <x:c r="A1968" s="0" t="s">
+        <x:v>1903</x:v>
+      </x:c>
+      <x:c r="B1968" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1969" spans="1:14">
+      <x:c r="A1969" s="0" t="s">
+        <x:v>1904</x:v>
+      </x:c>
+      <x:c r="B1969" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1970" spans="1:14">
+      <x:c r="A1970" s="0" t="s">
+        <x:v>1905</x:v>
+      </x:c>
+      <x:c r="B1970" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1971" spans="1:14">
+      <x:c r="A1971" s="0" t="s">
+        <x:v>1906</x:v>
+      </x:c>
+      <x:c r="B1971" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1972" spans="1:14">
+      <x:c r="A1972" s="0" t="s">
+        <x:v>1907</x:v>
+      </x:c>
+      <x:c r="B1972" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1973" spans="1:14">
+      <x:c r="A1973" s="0" t="s">
+        <x:v>1908</x:v>
+      </x:c>
+      <x:c r="B1973" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1974" spans="1:14">
+      <x:c r="A1974" s="0" t="s">
+        <x:v>1909</x:v>
+      </x:c>
+      <x:c r="B1974" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1975" spans="1:14">
+      <x:c r="A1975" s="0" t="s">
+        <x:v>1910</x:v>
+      </x:c>
+      <x:c r="B1975" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1976" spans="1:14">
+      <x:c r="A1976" s="0" t="s">
+        <x:v>1911</x:v>
+      </x:c>
+      <x:c r="B1976" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1977" spans="1:14">
+      <x:c r="A1977" s="0" t="s">
+        <x:v>1912</x:v>
+      </x:c>
+      <x:c r="B1977" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1978" spans="1:14">
+      <x:c r="A1978" s="0" t="s">
+        <x:v>1913</x:v>
+      </x:c>
+      <x:c r="B1978" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1979" spans="1:14">
+      <x:c r="A1979" s="0" t="s">
+        <x:v>1914</x:v>
+      </x:c>
+      <x:c r="B1979" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1980" spans="1:14">
+      <x:c r="A1980" s="0" t="s">
+        <x:v>1915</x:v>
+      </x:c>
+      <x:c r="B1980" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1981" spans="1:14">
+      <x:c r="A1981" s="0" t="s">
+        <x:v>1916</x:v>
+      </x:c>
+      <x:c r="B1981" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1982" spans="1:14">
+      <x:c r="A1982" s="0" t="s">
+        <x:v>1917</x:v>
+      </x:c>
+      <x:c r="B1982" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1983" spans="1:14">
+      <x:c r="A1983" s="0" t="s">
+        <x:v>1918</x:v>
+      </x:c>
+      <x:c r="B1983" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1984" spans="1:14">
+      <x:c r="A1984" s="0" t="s">
+        <x:v>1919</x:v>
+      </x:c>
+      <x:c r="B1984" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1985" spans="1:14">
+      <x:c r="A1985" s="0" t="s">
+        <x:v>1920</x:v>
+      </x:c>
+      <x:c r="B1985" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1986" spans="1:14">
+      <x:c r="A1986" s="0" t="s">
+        <x:v>1921</x:v>
+      </x:c>
+      <x:c r="B1986" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1987" spans="1:14">
+      <x:c r="A1987" s="0" t="s">
+        <x:v>1922</x:v>
+      </x:c>
+      <x:c r="B1987" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1988" spans="1:14">
+      <x:c r="A1988" s="0" t="s">
+        <x:v>1923</x:v>
+      </x:c>
+      <x:c r="B1988" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1989" spans="1:14">
+      <x:c r="A1989" s="0" t="s">
+        <x:v>1924</x:v>
+      </x:c>
+      <x:c r="B1989" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1990" spans="1:14">
+      <x:c r="A1990" s="0" t="s">
+        <x:v>1925</x:v>
+      </x:c>
+      <x:c r="B1990" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1991" spans="1:14">
+      <x:c r="A1991" s="0" t="s">
+        <x:v>1926</x:v>
+      </x:c>
+      <x:c r="B1991" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1992" spans="1:14">
+      <x:c r="A1992" s="0" t="s">
+        <x:v>1927</x:v>
+      </x:c>
+      <x:c r="B1992" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1993" spans="1:14">
+      <x:c r="A1993" s="0" t="s">
+        <x:v>1928</x:v>
+      </x:c>
+      <x:c r="B1993" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1994" spans="1:14">
+      <x:c r="A1994" s="0" t="s">
+        <x:v>1929</x:v>
+      </x:c>
+      <x:c r="B1994" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1995" spans="1:14">
+      <x:c r="A1995" s="0" t="s">
+        <x:v>1930</x:v>
+      </x:c>
+      <x:c r="B1995" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1996" spans="1:14">
+      <x:c r="A1996" s="0" t="s">
+        <x:v>1931</x:v>
+      </x:c>
+      <x:c r="B1996" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1997" spans="1:14">
+      <x:c r="A1997" s="0" t="s">
+        <x:v>1932</x:v>
+      </x:c>
+      <x:c r="B1997" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1998" spans="1:14">
+      <x:c r="A1998" s="0" t="s">
+        <x:v>1933</x:v>
+      </x:c>
+      <x:c r="B1998" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1999" spans="1:14">
+      <x:c r="A1999" s="0" t="s">
+        <x:v>1934</x:v>
+      </x:c>
+      <x:c r="B1999" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2000" spans="1:14">
+      <x:c r="A2000" s="0" t="s">
+        <x:v>1935</x:v>
+      </x:c>
+      <x:c r="B2000" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2001" spans="1:14">
+      <x:c r="A2001" s="0" t="s">
+        <x:v>1936</x:v>
+      </x:c>
+      <x:c r="B2001" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2002" spans="1:14">
+      <x:c r="A2002" s="0" t="s">
+        <x:v>1937</x:v>
+      </x:c>
+      <x:c r="B2002" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2003" spans="1:14">
+      <x:c r="A2003" s="0" t="s">
+        <x:v>1938</x:v>
+      </x:c>
+      <x:c r="B2003" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2004" spans="1:14">
+      <x:c r="A2004" s="0" t="s">
+        <x:v>1939</x:v>
+      </x:c>
+      <x:c r="B2004" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2005" spans="1:14">
+      <x:c r="A2005" s="0" t="s">
+        <x:v>1940</x:v>
+      </x:c>
+      <x:c r="B2005" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2006" spans="1:14">
+      <x:c r="A2006" s="0" t="s">
+        <x:v>1941</x:v>
+      </x:c>
+      <x:c r="B2006" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2007" spans="1:14">
+      <x:c r="A2007" s="0" t="s">
+        <x:v>1942</x:v>
+      </x:c>
+      <x:c r="B2007" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2008" spans="1:14">
+      <x:c r="A2008" s="0" t="s">
+        <x:v>1943</x:v>
+      </x:c>
+      <x:c r="B2008" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2009" spans="1:14">
+      <x:c r="A2009" s="0" t="s">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="B2009" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2010" spans="1:14">
+      <x:c r="A2010" s="0" t="s">
+        <x:v>1945</x:v>
+      </x:c>
+      <x:c r="B2010" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2011" spans="1:14">
+      <x:c r="A2011" s="0" t="s">
+        <x:v>1946</x:v>
+      </x:c>
+      <x:c r="B2011" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2012" spans="1:14">
+      <x:c r="A2012" s="0" t="s">
+        <x:v>1947</x:v>
+      </x:c>
+      <x:c r="B2012" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2013" spans="1:14">
+      <x:c r="A2013" s="0" t="s">
+        <x:v>1948</x:v>
+      </x:c>
+      <x:c r="B2013" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2014" spans="1:14">
+      <x:c r="A2014" s="0" t="s">
+        <x:v>1949</x:v>
+      </x:c>
+      <x:c r="B2014" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2015" spans="1:14">
+      <x:c r="A2015" s="0" t="s">
+        <x:v>1950</x:v>
+      </x:c>
+      <x:c r="B2015" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2016" spans="1:14">
+      <x:c r="A2016" s="0" t="s">
+        <x:v>1951</x:v>
+      </x:c>
+      <x:c r="B2016" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2017" spans="1:14">
+      <x:c r="A2017" s="0" t="s">
+        <x:v>1952</x:v>
+      </x:c>
+      <x:c r="B2017" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2018" spans="1:14">
+      <x:c r="A2018" s="0" t="s">
+        <x:v>1953</x:v>
+      </x:c>
+      <x:c r="B2018" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2019" spans="1:14">
+      <x:c r="A2019" s="0" t="s">
+        <x:v>1954</x:v>
+      </x:c>
+      <x:c r="B2019" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2020" spans="1:14">
+      <x:c r="A2020" s="0" t="s">
+        <x:v>1955</x:v>
+      </x:c>
+      <x:c r="B2020" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2021" spans="1:14">
+      <x:c r="A2021" s="0" t="s">
+        <x:v>1956</x:v>
+      </x:c>
+      <x:c r="B2021" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2022" spans="1:14">
+      <x:c r="A2022" s="0" t="s">
+        <x:v>1957</x:v>
+      </x:c>
+      <x:c r="B2022" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2023" spans="1:14">
+      <x:c r="A2023" s="0" t="s">
+        <x:v>1958</x:v>
+      </x:c>
+      <x:c r="B2023" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2024" spans="1:14">
+      <x:c r="A2024" s="0" t="s">
+        <x:v>1959</x:v>
+      </x:c>
+      <x:c r="B2024" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2025" spans="1:14">
+      <x:c r="A2025" s="0" t="s">
+        <x:v>1960</x:v>
+      </x:c>
+      <x:c r="B2025" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2026" spans="1:14">
+      <x:c r="A2026" s="0" t="s">
+        <x:v>1961</x:v>
+      </x:c>
+      <x:c r="B2026" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2027" spans="1:14">
+      <x:c r="A2027" s="0" t="s">
+        <x:v>1962</x:v>
+      </x:c>
+      <x:c r="B2027" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2028" spans="1:14">
+      <x:c r="A2028" s="0" t="s">
+        <x:v>1963</x:v>
+      </x:c>
+      <x:c r="B2028" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2029" spans="1:14">
+      <x:c r="A2029" s="0" t="s">
+        <x:v>1964</x:v>
+      </x:c>
+      <x:c r="B2029" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2030" spans="1:14">
+      <x:c r="A2030" s="0" t="s">
+        <x:v>1965</x:v>
+      </x:c>
+      <x:c r="B2030" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2031" spans="1:14">
+      <x:c r="A2031" s="0" t="s">
+        <x:v>1966</x:v>
+      </x:c>
+      <x:c r="B2031" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2032" spans="1:14">
+      <x:c r="A2032" s="0" t="s">
+        <x:v>1967</x:v>
+      </x:c>
+      <x:c r="B2032" s="3" t="s">
+        <x:v>1968</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1969">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="2083">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -6056,6 +6056,348 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/clothing/tops/doen-bateau-neckline-three-quarter-sleeve-crop-top-fd326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/sandals/chanel-vintage-tweed-pattern-slingback-sandals-fzwmv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/chanel-caviar-medallion-tote-fym5f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-antigua-cabas-gm-fzuif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/yves-saint-laurent-rive-gauche-vintage-wide-leg-pants-fxu1h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/fendi-vintage-mini-pochette-g0akv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/chanel-vintage-2005-waist-belt-g0mye</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/belts/chanel-vintage-1990-chain-link-belt-fx0q4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/chanel-vintage-2002-fur-coat-fy8lb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/valentino-vintage-2000-s-down-coat-fynfh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/jean-paul-gaultier-vintage-2004-tunic-g0se7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/d-g-vintage-mini-skirt-frh3u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/wallets/chanel-vintage-2006-2008-compact-wallet-fw9d6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/burberry-s-vintage-trench-coat-fywzu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-ellipse-pm-fm1dq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/skirts/gucci-vintage-midi-length-skirt-fl3ri</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/suits-and-sets/issey-miyake-vintage-late-1980-s-early-1990-s-skirt-set-ftndc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/pants/gianni-versace-vintage-straight-leg-pants-e8qk5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-vintage-late-1990-s-early-2000-s-fur-jacket-e4xas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/bath-and-body/body-oils/everyday-oil-mainstay-blend-8-oz-dk50r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/bath-and-body/body-wash/joanna-vargas-vitamin-c-face-wash-enk76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/tools-and-accessories/well-kept-exfoliating-washcloth-e97f4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/bath-and-body/hand-soap-and-moisturizers/grown-alchemist-hand-wash-sweet-orange-cedarwood-sage-300ml-eo44i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/bath-and-body/hand-soap-and-moisturizers/nopalera-cactus-soap-in-planta-futura-e2wc7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/hair-care/shampoo-and-conditioner/ceremonia-guava-rescue-spray-dgdke</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/fragrance/spicy/boy-smells-cowboy-kush-eau-de-parfum-etg55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/fragrance/spicy/boy-smells-hinoki-fantome-eau-de-parfum-etfvo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/makeup/lips/henne-organics-desire-luxury-lip-tint-elhwk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/makeup/lips/henne-organics-bare-luxury-lip-tint-elhyb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/makeup/lips/henne-organics-muse-luxury-lip-tint-elht2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/tools-and-accessories/lanshin-rose-quartz-sculpting-spoon-eml2z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/makeup/lips/henne-organics-intrigue-luxury-lip-tint-elhv2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/hair-care/brushes-and-combs/machete-no-4-comb-orchid-ekry2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/ubeauty-resurfacing-compound-adrj9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/makeup/lips/dr-devgan-platinum-lip-plump-spf-30-do7mw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/fragrance/woody/cra-yon-sand-service-50ml-eau-de-parfum-ef3ve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/fragrance/fresh/cra-yon-vanilla-ceo-50ml-eau-de-parfum-ef3su</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/masks-and-exfoliators/nopalera-cactus-flower-exfoliant-e2wa6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/bath-and-body/body-moisturizers/lauren-s-all-purpose-classic-jar-e6p57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/serums/joanna-vargas-rescue-serum-ah655</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/bath-and-body/body-wash/corpus-natural-body-wash-no-green-c9kmq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/bath-and-body/hand-soap-and-moisturizers/nopalera-cactus-soap-in-flor-de-mayo-e2wbx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/fragrance/spicy/19-69-chinese-tobacco-eau-de-parfum-bjpbe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/joanna-vargas-daily-serum-9szi8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/fragrance/woody/19-69-rainbow-bar-eau-de-parfum-bjqcn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/hair-care/hair-masks/ceremonia-pequi-curl-activator-200ml-e4nbv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/bath-and-body/mason-pearson-popular-mixture-hair-brush-c7ilb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/face-oils/rowse-rosehip-oil-dt2o3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/bath-and-body/body-oils/kindred-black-a-woman-is-fire-all-natural-perfume-dk4r8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/bath-and-body/hand-soap-and-moisturizers/claus-porto-gift-box-9-deco-soaps-c7j30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/masks-and-exfoliators/knc-beauty-star-eye-mask-set-dan7g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/hair-care/crown-affair-scrunchie-no-001-pack-of-3-do7rh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/face-oils/mara-algae-moringa-universal-face-oil-adv37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/masks-and-exfoliators/joanna-vargas-forever-glow-anti-aging-face-mask-anmgs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/tools-and-accessories/sounds-gua-sha-rose-quartz-doj67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/makeup/lips/henne-organics-bare-luxury-lip-tint-c9ixw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/hair-care/shampoo-and-conditioner/ceremonia-champu-de-yucca-witch-hazel-dgdns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/hair-care/shampoo-and-conditioner/ceremonia-guava-leave-in-conditioner-dgdfw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/moisturizers/ubeauty-the-super-smart-hydrator-adlq7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/makeup/face/saie-sunglow-glowy-super-gel-luminizer-cph58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/hair-care/brushes-and-combs/crown-affair-brush-no-001-c9j4f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/bath-and-body/body-wash/austin-austin-neroli-petitgrain-body-soap-ag1yl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/makeup/olio-e-osso-balm-no-3-crimson-adpys</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/fragrance/ormaie-l-ivree-bleue-edp-50ml-c4deb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/bath-and-body/body-wash/corpus-natural-body-wash-third-rose-c9k6c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/makeup/face/saie-dreamy-liquid-blush-cph6d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/tools-and-accessories/gilded-body-the-marble-body-brush-calacatta-viola-d8yk7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/tools-and-accessories/gilded-body-the-marble-body-brush-lichen-flower-d8yo5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/hair-care/brushes-and-combs/crown-affair-the-comb-no-002-d7cr7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/hair-care/hair-masks/crown-affair-the-renewal-mask-d7cuo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/bath-and-body/hand-soap-and-moisturizers/austin-austin-palmarosa-vetiver-hand-soap-c9kru</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/fragrance/fresh/d-s-durga-i-don-t-know-what-eau-de-parfum-100ml-ci9r9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/fragrance/fresh/d-s-durga-i-don-t-know-what-eau-de-parfum-50ml-cia1y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/fragrance/floral/d-s-durga-jazmin-yucatan-eau-de-parfum-50ml-ci9z2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/makeup/face/saie-rosy-liquid-blush-cphs2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/makeup/face/saie-the-big-makeup-brush-cpgi8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/makeup/face/saie-starglow-glowy-super-gel-luminizer-cpife</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/makeup/lips/henne-organics-desire-luxury-lip-tint-d371r</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/fragrance/floral/regime-des-fleurs-chloe-sevigny-little-flower-eau-de-parfum-ca6e3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/fragrance/woody/d-s-durga-debaser-pocket-perfume-cxoi5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/bath-and-body/body-wash/flamingo-estate-body-wash-ci6bw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/skincare/moisturizers/kindred-black-damiana-aphrodisiac-lip-skin-balm-cibes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/hair-care/brushes-and-combs/crown-affair-the-comb-no-001-ck67i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/beauty/hair-care/brushes-and-combs/crown-affair-the-comb-no-002-bzc9c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/prada-puffer-trapper-hat-elj8v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/jeremy-scott-x-linda-farrow-shield-tinted-sunglasses-eu3m0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/vetements-down-coat-w-tags-bvn4p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/emilio-pucci-vintage-late-1960-s-early-1970-s-jumpsuit-esw9y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/winter-accessories/prada-woven-gloves-eodj2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/bogner-embroidered-ski-hat-e6m69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/loewe-paula-s-ibiza-printed-scarf-evl4a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/bottega-veneta-down-jacket-fyvl7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-vintage-shield-sunglasses-foza1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-pillow-comfort-lv-monogram-snow-boots-d60xd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-jacket-g1o2t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/home/sports/snow-gear/burton-family-tree-straight-chuter-camber-splitboard-cnw30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/stand-studio-down-jacket-w-tags-ez7dh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/coats/chanel-vintage-1990-performance-coat-fku5t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/cartier-oversize-tinted-sunglasses-f1kvq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/winter-accessories/saint-laurent-leather-winter-gloves-g1j91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/knitwear/fendi-v-neck-sweater-fusdc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/chanel-wool-beanie-w-tags-ff4cw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/winter-accessories/celine-winter-gloves-ff9gl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-summer-trunks-keepall-bandouliere-50-djox5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/emilio-pucci-vintage-2000-s-jacket-fyr4w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/chanel-2022-cashmere-cc-beanie-w-tags-funzo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/hats/the-elder-statesman-cashmere-beanie-fxtpd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/hermes-casaque-optique-cashmere-muffler-fw3vj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/handbags/backpacks/chanel-coco-neige-shearling-backpack-erpye</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/tops/eckhaus-latta-floral-print-turtleneck-crop-top-g126o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/prada-nylon-printed-scarf-fsqfz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-shield-gradient-sunglasses-g0y15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/clothing/jackets/moncler-grenoble-houndstooth-print-down-jacket-fzr4v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/home/sports/snow-gear/head-wc-rebels-racing-skis-c7brq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/women/accessories/winter-accessories/chanel-2020-cashmere-fingerless-gloves-w-tags-ftvep</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -22674,7 +23016,919 @@
         <x:v>1967</x:v>
       </x:c>
       <x:c r="B2032" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2034" spans="1:14">
+      <x:c r="A2034" s="0" t="s">
         <x:v>1968</x:v>
+      </x:c>
+      <x:c r="B2034" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2035" spans="1:14">
+      <x:c r="A2035" s="0" t="s">
+        <x:v>1969</x:v>
+      </x:c>
+      <x:c r="B2035" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2036" spans="1:14">
+      <x:c r="A2036" s="0" t="s">
+        <x:v>1970</x:v>
+      </x:c>
+      <x:c r="B2036" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2037" spans="1:14">
+      <x:c r="A2037" s="0" t="s">
+        <x:v>1971</x:v>
+      </x:c>
+      <x:c r="B2037" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2038" spans="1:14">
+      <x:c r="A2038" s="0" t="s">
+        <x:v>1972</x:v>
+      </x:c>
+      <x:c r="B2038" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2039" spans="1:14">
+      <x:c r="A2039" s="0" t="s">
+        <x:v>1973</x:v>
+      </x:c>
+      <x:c r="B2039" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2040" spans="1:14">
+      <x:c r="A2040" s="0" t="s">
+        <x:v>1974</x:v>
+      </x:c>
+      <x:c r="B2040" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2041" spans="1:14">
+      <x:c r="A2041" s="0" t="s">
+        <x:v>1975</x:v>
+      </x:c>
+      <x:c r="B2041" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2042" spans="1:14">
+      <x:c r="A2042" s="0" t="s">
+        <x:v>1976</x:v>
+      </x:c>
+      <x:c r="B2042" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2043" spans="1:14">
+      <x:c r="A2043" s="0" t="s">
+        <x:v>1977</x:v>
+      </x:c>
+      <x:c r="B2043" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2044" spans="1:14">
+      <x:c r="A2044" s="0" t="s">
+        <x:v>1978</x:v>
+      </x:c>
+      <x:c r="B2044" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2045" spans="1:14">
+      <x:c r="A2045" s="0" t="s">
+        <x:v>1979</x:v>
+      </x:c>
+      <x:c r="B2045" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2046" spans="1:14">
+      <x:c r="A2046" s="0" t="s">
+        <x:v>1980</x:v>
+      </x:c>
+      <x:c r="B2046" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2047" spans="1:14">
+      <x:c r="A2047" s="0" t="s">
+        <x:v>1981</x:v>
+      </x:c>
+      <x:c r="B2047" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2048" spans="1:14">
+      <x:c r="A2048" s="0" t="s">
+        <x:v>1982</x:v>
+      </x:c>
+      <x:c r="B2048" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2049" spans="1:14">
+      <x:c r="A2049" s="0" t="s">
+        <x:v>1983</x:v>
+      </x:c>
+      <x:c r="B2049" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2050" spans="1:14">
+      <x:c r="A2050" s="0" t="s">
+        <x:v>1984</x:v>
+      </x:c>
+      <x:c r="B2050" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2051" spans="1:14">
+      <x:c r="A2051" s="0" t="s">
+        <x:v>1985</x:v>
+      </x:c>
+      <x:c r="B2051" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2053" spans="1:14">
+      <x:c r="A2053" s="0" t="s">
+        <x:v>1986</x:v>
+      </x:c>
+      <x:c r="B2053" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2054" spans="1:14">
+      <x:c r="A2054" s="0" t="s">
+        <x:v>1987</x:v>
+      </x:c>
+      <x:c r="B2054" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2056" spans="1:14">
+      <x:c r="A2056" s="0" t="s">
+        <x:v>1988</x:v>
+      </x:c>
+      <x:c r="B2056" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2057" spans="1:14">
+      <x:c r="A2057" s="0" t="s">
+        <x:v>1989</x:v>
+      </x:c>
+      <x:c r="B2057" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2058" spans="1:14">
+      <x:c r="A2058" s="0" t="s">
+        <x:v>1990</x:v>
+      </x:c>
+      <x:c r="B2058" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2059" spans="1:14">
+      <x:c r="A2059" s="0" t="s">
+        <x:v>1991</x:v>
+      </x:c>
+      <x:c r="B2059" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2060" spans="1:14">
+      <x:c r="A2060" s="0" t="s">
+        <x:v>1992</x:v>
+      </x:c>
+      <x:c r="B2060" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2061" spans="1:14">
+      <x:c r="A2061" s="0" t="s">
+        <x:v>1993</x:v>
+      </x:c>
+      <x:c r="B2061" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2062" spans="1:14">
+      <x:c r="A2062" s="0" t="s">
+        <x:v>1994</x:v>
+      </x:c>
+      <x:c r="B2062" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2063" spans="1:14">
+      <x:c r="A2063" s="0" t="s">
+        <x:v>1995</x:v>
+      </x:c>
+      <x:c r="B2063" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2064" spans="1:14">
+      <x:c r="A2064" s="0" t="s">
+        <x:v>1996</x:v>
+      </x:c>
+      <x:c r="B2064" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2065" spans="1:14">
+      <x:c r="A2065" s="0" t="s">
+        <x:v>1997</x:v>
+      </x:c>
+      <x:c r="B2065" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2066" spans="1:14">
+      <x:c r="A2066" s="0" t="s">
+        <x:v>1998</x:v>
+      </x:c>
+      <x:c r="B2066" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2067" spans="1:14">
+      <x:c r="A2067" s="0" t="s">
+        <x:v>1999</x:v>
+      </x:c>
+      <x:c r="B2067" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2068" spans="1:14">
+      <x:c r="A2068" s="0" t="s">
+        <x:v>2000</x:v>
+      </x:c>
+      <x:c r="B2068" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2069" spans="1:14">
+      <x:c r="A2069" s="0" t="s">
+        <x:v>2001</x:v>
+      </x:c>
+      <x:c r="B2069" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2070" spans="1:14">
+      <x:c r="A2070" s="0" t="s">
+        <x:v>2002</x:v>
+      </x:c>
+      <x:c r="B2070" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2071" spans="1:14">
+      <x:c r="A2071" s="0" t="s">
+        <x:v>2003</x:v>
+      </x:c>
+      <x:c r="B2071" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2072" spans="1:14">
+      <x:c r="A2072" s="0" t="s">
+        <x:v>2004</x:v>
+      </x:c>
+      <x:c r="B2072" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2073" spans="1:14">
+      <x:c r="A2073" s="0" t="s">
+        <x:v>2005</x:v>
+      </x:c>
+      <x:c r="B2073" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2074" spans="1:14">
+      <x:c r="A2074" s="0" t="s">
+        <x:v>2006</x:v>
+      </x:c>
+      <x:c r="B2074" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2075" spans="1:14">
+      <x:c r="A2075" s="0" t="s">
+        <x:v>2007</x:v>
+      </x:c>
+      <x:c r="B2075" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2076" spans="1:14">
+      <x:c r="A2076" s="0" t="s">
+        <x:v>2008</x:v>
+      </x:c>
+      <x:c r="B2076" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2077" spans="1:14">
+      <x:c r="A2077" s="0" t="s">
+        <x:v>2009</x:v>
+      </x:c>
+      <x:c r="B2077" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2078" spans="1:14">
+      <x:c r="A2078" s="0" t="s">
+        <x:v>2010</x:v>
+      </x:c>
+      <x:c r="B2078" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2079" spans="1:14">
+      <x:c r="A2079" s="0" t="s">
+        <x:v>2011</x:v>
+      </x:c>
+      <x:c r="B2079" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2080" spans="1:14">
+      <x:c r="A2080" s="0" t="s">
+        <x:v>2012</x:v>
+      </x:c>
+      <x:c r="B2080" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2081" spans="1:14">
+      <x:c r="A2081" s="0" t="s">
+        <x:v>2013</x:v>
+      </x:c>
+      <x:c r="B2081" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2082" spans="1:14">
+      <x:c r="A2082" s="0" t="s">
+        <x:v>2014</x:v>
+      </x:c>
+      <x:c r="B2082" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2083" spans="1:14">
+      <x:c r="A2083" s="0" t="s">
+        <x:v>2015</x:v>
+      </x:c>
+      <x:c r="B2083" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2084" spans="1:14">
+      <x:c r="A2084" s="0" t="s">
+        <x:v>2016</x:v>
+      </x:c>
+      <x:c r="B2084" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2085" spans="1:14">
+      <x:c r="A2085" s="0" t="s">
+        <x:v>2017</x:v>
+      </x:c>
+      <x:c r="B2085" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2086" spans="1:14">
+      <x:c r="A2086" s="0" t="s">
+        <x:v>2018</x:v>
+      </x:c>
+      <x:c r="B2086" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2087" spans="1:14">
+      <x:c r="A2087" s="0" t="s">
+        <x:v>2019</x:v>
+      </x:c>
+      <x:c r="B2087" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2088" spans="1:14">
+      <x:c r="A2088" s="0" t="s">
+        <x:v>2020</x:v>
+      </x:c>
+      <x:c r="B2088" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2089" spans="1:14">
+      <x:c r="A2089" s="0" t="s">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B2089" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2090" spans="1:14">
+      <x:c r="A2090" s="0" t="s">
+        <x:v>2022</x:v>
+      </x:c>
+      <x:c r="B2090" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2091" spans="1:14">
+      <x:c r="A2091" s="0" t="s">
+        <x:v>2023</x:v>
+      </x:c>
+      <x:c r="B2091" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2092" spans="1:14">
+      <x:c r="A2092" s="0" t="s">
+        <x:v>2024</x:v>
+      </x:c>
+      <x:c r="B2092" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2093" spans="1:14">
+      <x:c r="A2093" s="0" t="s">
+        <x:v>2025</x:v>
+      </x:c>
+      <x:c r="B2093" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2094" spans="1:14">
+      <x:c r="A2094" s="0" t="s">
+        <x:v>2026</x:v>
+      </x:c>
+      <x:c r="B2094" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2095" spans="1:14">
+      <x:c r="A2095" s="0" t="s">
+        <x:v>2027</x:v>
+      </x:c>
+      <x:c r="B2095" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2096" spans="1:14">
+      <x:c r="A2096" s="0" t="s">
+        <x:v>2028</x:v>
+      </x:c>
+      <x:c r="B2096" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2097" spans="1:14">
+      <x:c r="A2097" s="0" t="s">
+        <x:v>2029</x:v>
+      </x:c>
+      <x:c r="B2097" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2098" spans="1:14">
+      <x:c r="A2098" s="0" t="s">
+        <x:v>2030</x:v>
+      </x:c>
+      <x:c r="B2098" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2099" spans="1:14">
+      <x:c r="A2099" s="0" t="s">
+        <x:v>2031</x:v>
+      </x:c>
+      <x:c r="B2099" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2100" spans="1:14">
+      <x:c r="A2100" s="0" t="s">
+        <x:v>2032</x:v>
+      </x:c>
+      <x:c r="B2100" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2101" spans="1:14">
+      <x:c r="A2101" s="0" t="s">
+        <x:v>2033</x:v>
+      </x:c>
+      <x:c r="B2101" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2102" spans="1:14">
+      <x:c r="A2102" s="0" t="s">
+        <x:v>2034</x:v>
+      </x:c>
+      <x:c r="B2102" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2103" spans="1:14">
+      <x:c r="A2103" s="0" t="s">
+        <x:v>2035</x:v>
+      </x:c>
+      <x:c r="B2103" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2104" spans="1:14">
+      <x:c r="A2104" s="0" t="s">
+        <x:v>2036</x:v>
+      </x:c>
+      <x:c r="B2104" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2105" spans="1:14">
+      <x:c r="A2105" s="0" t="s">
+        <x:v>2037</x:v>
+      </x:c>
+      <x:c r="B2105" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2106" spans="1:14">
+      <x:c r="A2106" s="0" t="s">
+        <x:v>2038</x:v>
+      </x:c>
+      <x:c r="B2106" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2107" spans="1:14">
+      <x:c r="A2107" s="0" t="s">
+        <x:v>2039</x:v>
+      </x:c>
+      <x:c r="B2107" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2108" spans="1:14">
+      <x:c r="A2108" s="0" t="s">
+        <x:v>2040</x:v>
+      </x:c>
+      <x:c r="B2108" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2109" spans="1:14">
+      <x:c r="A2109" s="0" t="s">
+        <x:v>2041</x:v>
+      </x:c>
+      <x:c r="B2109" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2110" spans="1:14">
+      <x:c r="A2110" s="0" t="s">
+        <x:v>2042</x:v>
+      </x:c>
+      <x:c r="B2110" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2111" spans="1:14">
+      <x:c r="A2111" s="0" t="s">
+        <x:v>2043</x:v>
+      </x:c>
+      <x:c r="B2111" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2112" spans="1:14">
+      <x:c r="A2112" s="0" t="s">
+        <x:v>2044</x:v>
+      </x:c>
+      <x:c r="B2112" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2113" spans="1:14">
+      <x:c r="A2113" s="0" t="s">
+        <x:v>2045</x:v>
+      </x:c>
+      <x:c r="B2113" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2114" spans="1:14">
+      <x:c r="A2114" s="0" t="s">
+        <x:v>2046</x:v>
+      </x:c>
+      <x:c r="B2114" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2115" spans="1:14">
+      <x:c r="A2115" s="0" t="s">
+        <x:v>2047</x:v>
+      </x:c>
+      <x:c r="B2115" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2116" spans="1:14">
+      <x:c r="A2116" s="0" t="s">
+        <x:v>2048</x:v>
+      </x:c>
+      <x:c r="B2116" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2117" spans="1:14">
+      <x:c r="A2117" s="0" t="s">
+        <x:v>2049</x:v>
+      </x:c>
+      <x:c r="B2117" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2118" spans="1:14">
+      <x:c r="A2118" s="0" t="s">
+        <x:v>2050</x:v>
+      </x:c>
+      <x:c r="B2118" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2120" spans="1:14">
+      <x:c r="A2120" s="0" t="s">
+        <x:v>2051</x:v>
+      </x:c>
+      <x:c r="B2120" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2121" spans="1:14">
+      <x:c r="A2121" s="0" t="s">
+        <x:v>2052</x:v>
+      </x:c>
+      <x:c r="B2121" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2122" spans="1:14">
+      <x:c r="A2122" s="0" t="s">
+        <x:v>2053</x:v>
+      </x:c>
+      <x:c r="B2122" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2123" spans="1:14">
+      <x:c r="A2123" s="0" t="s">
+        <x:v>2054</x:v>
+      </x:c>
+      <x:c r="B2123" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2124" spans="1:14">
+      <x:c r="A2124" s="0" t="s">
+        <x:v>2055</x:v>
+      </x:c>
+      <x:c r="B2124" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2125" spans="1:14">
+      <x:c r="A2125" s="0" t="s">
+        <x:v>2056</x:v>
+      </x:c>
+      <x:c r="B2125" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2126" spans="1:14">
+      <x:c r="A2126" s="0" t="s">
+        <x:v>2057</x:v>
+      </x:c>
+      <x:c r="B2126" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2127" spans="1:14">
+      <x:c r="A2127" s="0" t="s">
+        <x:v>2058</x:v>
+      </x:c>
+      <x:c r="B2127" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2128" spans="1:14">
+      <x:c r="A2128" s="0" t="s">
+        <x:v>2059</x:v>
+      </x:c>
+      <x:c r="B2128" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2130" spans="1:14">
+      <x:c r="A2130" s="0" t="s">
+        <x:v>2060</x:v>
+      </x:c>
+      <x:c r="B2130" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2131" spans="1:14">
+      <x:c r="A2131" s="0" t="s">
+        <x:v>2061</x:v>
+      </x:c>
+      <x:c r="B2131" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2132" spans="1:14">
+      <x:c r="A2132" s="0" t="s">
+        <x:v>2062</x:v>
+      </x:c>
+      <x:c r="B2132" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2133" spans="1:14">
+      <x:c r="A2133" s="0" t="s">
+        <x:v>2063</x:v>
+      </x:c>
+      <x:c r="B2133" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2134" spans="1:14">
+      <x:c r="A2134" s="0" t="s">
+        <x:v>2064</x:v>
+      </x:c>
+      <x:c r="B2134" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2135" spans="1:14">
+      <x:c r="A2135" s="0" t="s">
+        <x:v>2065</x:v>
+      </x:c>
+      <x:c r="B2135" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2136" spans="1:14">
+      <x:c r="A2136" s="0" t="s">
+        <x:v>2066</x:v>
+      </x:c>
+      <x:c r="B2136" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2137" spans="1:14">
+      <x:c r="A2137" s="0" t="s">
+        <x:v>2067</x:v>
+      </x:c>
+      <x:c r="B2137" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2138" spans="1:14">
+      <x:c r="A2138" s="0" t="s">
+        <x:v>2068</x:v>
+      </x:c>
+      <x:c r="B2138" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2139" spans="1:14">
+      <x:c r="A2139" s="0" t="s">
+        <x:v>2069</x:v>
+      </x:c>
+      <x:c r="B2139" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2140" spans="1:14">
+      <x:c r="A2140" s="0" t="s">
+        <x:v>2070</x:v>
+      </x:c>
+      <x:c r="B2140" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2141" spans="1:14">
+      <x:c r="A2141" s="0" t="s">
+        <x:v>2071</x:v>
+      </x:c>
+      <x:c r="B2141" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2142" spans="1:14">
+      <x:c r="A2142" s="0" t="s">
+        <x:v>2072</x:v>
+      </x:c>
+      <x:c r="B2142" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2143" spans="1:14">
+      <x:c r="A2143" s="0" t="s">
+        <x:v>2073</x:v>
+      </x:c>
+      <x:c r="B2143" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2144" spans="1:14">
+      <x:c r="A2144" s="0" t="s">
+        <x:v>2074</x:v>
+      </x:c>
+      <x:c r="B2144" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2145" spans="1:14">
+      <x:c r="A2145" s="0" t="s">
+        <x:v>2075</x:v>
+      </x:c>
+      <x:c r="B2145" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2146" spans="1:14">
+      <x:c r="A2146" s="0" t="s">
+        <x:v>2076</x:v>
+      </x:c>
+      <x:c r="B2146" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2147" spans="1:14">
+      <x:c r="A2147" s="0" t="s">
+        <x:v>2077</x:v>
+      </x:c>
+      <x:c r="B2147" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2148" spans="1:14">
+      <x:c r="A2148" s="0" t="s">
+        <x:v>2078</x:v>
+      </x:c>
+      <x:c r="B2148" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2149" spans="1:14">
+      <x:c r="A2149" s="0" t="s">
+        <x:v>2079</x:v>
+      </x:c>
+      <x:c r="B2149" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2150" spans="1:14">
+      <x:c r="A2150" s="0" t="s">
+        <x:v>2080</x:v>
+      </x:c>
+      <x:c r="B2150" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2151" spans="1:14">
+      <x:c r="A2151" s="0" t="s">
+        <x:v>2081</x:v>
+      </x:c>
+      <x:c r="B2151" s="3" t="s">
+        <x:v>2082</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="2083">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="2133">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -6398,6 +6398,156 @@
   </x:si>
   <x:si>
     <x:t>https://www.therealreal.com/products/women/accessories/winter-accessories/chanel-2020-cashmere-fingerless-gloves-w-tags-ftvep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/barbour-utility-jacket-g1iok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/versace-jeans-windbreaker-g1how</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/moose-knuckles-parka-g1675</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/stone-island-utility-jacket-g0sie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/woolrich-puffer-coat-g1is1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/moose-knuckles-puffer-coat-g1iiu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/ralph-lauren-purple-label-vest-g19sr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/theory-leather-moto-jacket-g0ptw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/givenchy-lambskin-moto-jacket-g0nxr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/loro-piana-cashmere-overcoat-g0nux</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/theory-overcoat-g0f26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/kith-graphic-print-windbreaker-g0qg7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/kent-curwen-bomber-jacket-g0p85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/diesel-graphic-print-denim-jacket-g0oya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/allsaints-denim-jacket-w-tags-g0m3c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/bottega-veneta-vest-fziae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/a-p-c-x-louis-w-calf-leather-bomber-jacket-g15ij</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/a-p-c-overcoat-g0tqh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/canali-peacoat-g0sem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/john-varvatos-utility-jacket-g0oxh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/loro-piana-parka-g15wl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/palm-angels-graphic-print-bomber-jacket-g0lpo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/gloverall-shearling-peacoat-g0suu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/canali-utility-jacket-g0sfq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/diesel-parka-g0vn5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/icecream-printed-parka-g1k50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/golden-bear-overcoat-g175x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/burberry-london-trench-coat-g1j8b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/saint-laurent-2014-utility-jacket-g013t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/ermenegildo-zegna-overcoat-g0vp3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/saks-fifth-avenue-overcoat-g0sw7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/luciano-barbera-parka-g0qak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/stone-island-windbreaker-g0sew</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/stone-island-utility-jacket-g0scp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/ted-baker-jacket-g0osk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/andrew-marc-leather-moto-jacket-g0so7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/hermes-overcoat-g1ina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/franck-namani-utility-jacket-g0k72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/moncler-2020-cevenne-puffer-coat-g08fs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/john-elliott-jacket-g0q91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/versace-peacoat-g0q79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/the-north-face-x-supreme-2018-metallic-mountain-parka-parka-g0yer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/gucci-printed-performance-jacket-w-tags-e3ofr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/aime-leon-dore-chainstitch-lamb-leather-moto-jacket-fwzo2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/gucci-colorblock-pattern-performance-jacket-fxl3q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/gucci-web-accent-windbreaker-fwkuh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/gucci-2020-micro-gg-monogram-bomber-jacket-w-tags-fyqf0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/balenciaga-2018-windbreaker-fwvgu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/moncler-graphic-print-windbreaker-fyn2e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/off-white-x-nike-2018-mercurial-nrg-windbreaker-fwfjr</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
@@ -23928,7 +24078,415 @@
         <x:v>2081</x:v>
       </x:c>
       <x:c r="B2151" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2153" spans="1:14">
+      <x:c r="A2153" s="0" t="s">
         <x:v>2082</x:v>
+      </x:c>
+      <x:c r="B2153" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2154" spans="1:14">
+      <x:c r="A2154" s="0" t="s">
+        <x:v>2083</x:v>
+      </x:c>
+      <x:c r="B2154" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2155" spans="1:14">
+      <x:c r="A2155" s="0" t="s">
+        <x:v>2084</x:v>
+      </x:c>
+      <x:c r="B2155" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2156" spans="1:14">
+      <x:c r="A2156" s="0" t="s">
+        <x:v>2085</x:v>
+      </x:c>
+      <x:c r="B2156" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2157" spans="1:14">
+      <x:c r="A2157" s="0" t="s">
+        <x:v>2086</x:v>
+      </x:c>
+      <x:c r="B2157" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2158" spans="1:14">
+      <x:c r="A2158" s="0" t="s">
+        <x:v>2087</x:v>
+      </x:c>
+      <x:c r="B2158" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2159" spans="1:14">
+      <x:c r="A2159" s="0" t="s">
+        <x:v>2088</x:v>
+      </x:c>
+      <x:c r="B2159" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2160" spans="1:14">
+      <x:c r="A2160" s="0" t="s">
+        <x:v>2089</x:v>
+      </x:c>
+      <x:c r="B2160" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2161" spans="1:14">
+      <x:c r="A2161" s="0" t="s">
+        <x:v>2090</x:v>
+      </x:c>
+      <x:c r="B2161" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2162" spans="1:14">
+      <x:c r="A2162" s="0" t="s">
+        <x:v>2091</x:v>
+      </x:c>
+      <x:c r="B2162" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2163" spans="1:14">
+      <x:c r="A2163" s="0" t="s">
+        <x:v>2092</x:v>
+      </x:c>
+      <x:c r="B2163" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2164" spans="1:14">
+      <x:c r="A2164" s="0" t="s">
+        <x:v>2093</x:v>
+      </x:c>
+      <x:c r="B2164" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2165" spans="1:14">
+      <x:c r="A2165" s="0" t="s">
+        <x:v>2094</x:v>
+      </x:c>
+      <x:c r="B2165" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2166" spans="1:14">
+      <x:c r="A2166" s="0" t="s">
+        <x:v>2095</x:v>
+      </x:c>
+      <x:c r="B2166" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2167" spans="1:14">
+      <x:c r="A2167" s="0" t="s">
+        <x:v>2096</x:v>
+      </x:c>
+      <x:c r="B2167" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2168" spans="1:14">
+      <x:c r="A2168" s="0" t="s">
+        <x:v>2097</x:v>
+      </x:c>
+      <x:c r="B2168" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2169" spans="1:14">
+      <x:c r="A2169" s="0" t="s">
+        <x:v>2098</x:v>
+      </x:c>
+      <x:c r="B2169" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2170" spans="1:14">
+      <x:c r="A2170" s="0" t="s">
+        <x:v>2099</x:v>
+      </x:c>
+      <x:c r="B2170" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2171" spans="1:14">
+      <x:c r="A2171" s="0" t="s">
+        <x:v>2100</x:v>
+      </x:c>
+      <x:c r="B2171" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2172" spans="1:14">
+      <x:c r="A2172" s="0" t="s">
+        <x:v>2101</x:v>
+      </x:c>
+      <x:c r="B2172" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2173" spans="1:14">
+      <x:c r="A2173" s="0" t="s">
+        <x:v>2102</x:v>
+      </x:c>
+      <x:c r="B2173" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2174" spans="1:14">
+      <x:c r="A2174" s="0" t="s">
+        <x:v>2103</x:v>
+      </x:c>
+      <x:c r="B2174" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2175" spans="1:14">
+      <x:c r="A2175" s="0" t="s">
+        <x:v>2104</x:v>
+      </x:c>
+      <x:c r="B2175" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2176" spans="1:14">
+      <x:c r="A2176" s="0" t="s">
+        <x:v>2105</x:v>
+      </x:c>
+      <x:c r="B2176" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2177" spans="1:14">
+      <x:c r="A2177" s="0" t="s">
+        <x:v>2106</x:v>
+      </x:c>
+      <x:c r="B2177" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2178" spans="1:14">
+      <x:c r="A2178" s="0" t="s">
+        <x:v>2107</x:v>
+      </x:c>
+      <x:c r="B2178" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2179" spans="1:14">
+      <x:c r="A2179" s="0" t="s">
+        <x:v>2108</x:v>
+      </x:c>
+      <x:c r="B2179" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2180" spans="1:14">
+      <x:c r="A2180" s="0" t="s">
+        <x:v>2109</x:v>
+      </x:c>
+      <x:c r="B2180" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2181" spans="1:14">
+      <x:c r="A2181" s="0" t="s">
+        <x:v>2110</x:v>
+      </x:c>
+      <x:c r="B2181" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2182" spans="1:14">
+      <x:c r="A2182" s="0" t="s">
+        <x:v>2111</x:v>
+      </x:c>
+      <x:c r="B2182" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2183" spans="1:14">
+      <x:c r="A2183" s="0" t="s">
+        <x:v>2112</x:v>
+      </x:c>
+      <x:c r="B2183" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2184" spans="1:14">
+      <x:c r="A2184" s="0" t="s">
+        <x:v>2113</x:v>
+      </x:c>
+      <x:c r="B2184" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2185" spans="1:14">
+      <x:c r="A2185" s="0" t="s">
+        <x:v>2114</x:v>
+      </x:c>
+      <x:c r="B2185" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2186" spans="1:14">
+      <x:c r="A2186" s="0" t="s">
+        <x:v>2115</x:v>
+      </x:c>
+      <x:c r="B2186" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2187" spans="1:14">
+      <x:c r="A2187" s="0" t="s">
+        <x:v>2116</x:v>
+      </x:c>
+      <x:c r="B2187" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2188" spans="1:14">
+      <x:c r="A2188" s="0" t="s">
+        <x:v>2117</x:v>
+      </x:c>
+      <x:c r="B2188" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2189" spans="1:14">
+      <x:c r="A2189" s="0" t="s">
+        <x:v>2118</x:v>
+      </x:c>
+      <x:c r="B2189" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2190" spans="1:14">
+      <x:c r="A2190" s="0" t="s">
+        <x:v>2119</x:v>
+      </x:c>
+      <x:c r="B2190" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2191" spans="1:14">
+      <x:c r="A2191" s="0" t="s">
+        <x:v>2120</x:v>
+      </x:c>
+      <x:c r="B2191" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2192" spans="1:14">
+      <x:c r="A2192" s="0" t="s">
+        <x:v>2121</x:v>
+      </x:c>
+      <x:c r="B2192" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2193" spans="1:14">
+      <x:c r="A2193" s="0" t="s">
+        <x:v>2122</x:v>
+      </x:c>
+      <x:c r="B2193" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2194" spans="1:14">
+      <x:c r="A2194" s="0" t="s">
+        <x:v>2123</x:v>
+      </x:c>
+      <x:c r="B2194" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2195" spans="1:14">
+      <x:c r="A2195" s="0" t="s">
+        <x:v>2124</x:v>
+      </x:c>
+      <x:c r="B2195" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2196" spans="1:14">
+      <x:c r="A2196" s="0" t="s">
+        <x:v>2125</x:v>
+      </x:c>
+      <x:c r="B2196" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2197" spans="1:14">
+      <x:c r="A2197" s="0" t="s">
+        <x:v>2126</x:v>
+      </x:c>
+      <x:c r="B2197" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2198" spans="1:14">
+      <x:c r="A2198" s="0" t="s">
+        <x:v>2127</x:v>
+      </x:c>
+      <x:c r="B2198" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2199" spans="1:14">
+      <x:c r="A2199" s="0" t="s">
+        <x:v>2128</x:v>
+      </x:c>
+      <x:c r="B2199" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2200" spans="1:14">
+      <x:c r="A2200" s="0" t="s">
+        <x:v>2129</x:v>
+      </x:c>
+      <x:c r="B2200" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2201" spans="1:14">
+      <x:c r="A2201" s="0" t="s">
+        <x:v>2130</x:v>
+      </x:c>
+      <x:c r="B2201" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2202" spans="1:14">
+      <x:c r="A2202" s="0" t="s">
+        <x:v>2131</x:v>
+      </x:c>
+      <x:c r="B2202" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2204" spans="1:14">
+      <x:c r="A2204" s="0" t="s">
+        <x:v>2087</x:v>
+      </x:c>
+      <x:c r="B2204" s="3" t="s">
+        <x:v>2132</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Extraction/assets/errors_file.xlsx
+++ b/Extraction/assets/errors_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="2133">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="2160">
   <x:si>
     <x:t>url</x:t>
   </x:si>
@@ -6550,16 +6550,89 @@
     <x:t>https://www.therealreal.com/products/men/clothing/outerwear/off-white-x-nike-2018-mercurial-nrg-windbreaker-fwfjr</x:t>
   </x:si>
   <x:si>
-    <x:t>UiPath.UIAutomationNext.Exceptions.NodeNotFoundException: Could not find the user-interface (UI) element for this action.
-Possible solutions:
- •  Ensure application is opened and the UI element is visible on the screen at execution time
- •  Edit the Target of the UI activity and use Validation to debug the issue.
- •  If needed, re-indicate the element as its properties might have changed
- •  Use "Check state" activity to check the application state before executing the action
- •  Increase the "Delay before" value to allow time to the application to render entirely and become responsive
-   at UiPath.UIAutomationNext.Activities.TargetCommonLogic.GetSearchResultAsync(IRuntimeContext runtimeContext, ITargetAnchorable target, CancellationToken token)
-   at UiPath.UIAutomationNext.Activities.TargetBase.SearchNodeAsync(IRuntimeContext runtimeContext, ITargetAnchorable target, CancellationToken token)
-   at UiPath.UIAutomationNext.Activities.NGetText.ExecuteAsync(AsyncCodeActivityContext context, CancellationToken token)
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/gucci-printed-windbreaker-fynba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/burberry-jacket-fyo9m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/polo-ralph-lauren-virgin-wool-overcoat-fqvi7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/nike-parka-fxy9e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/the-north-face-jacket-fxzyb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/courreges-colorblock-pattern-vest-fmyyv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/moncler-montgenevre-puffer-coat-fy8ue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/burberry-brit-trench-coat-fxitr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/rag-bone-calf-leather-moto-jacket-fsk88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/prada-vintage-2000-s-overcoat-fw3sk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/burberry-s-lambswool-peacoat-fybxy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/allsaints-moto-jacket-fynvk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/gucci-2020-leather-trucker-jacket-w-tags-frceu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/burberry-brit-trench-coat-g1chz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/canada-goose-vest-fp07z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/moncler-plaid-print-utility-jacket-fn0xk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/undercover-moto-jacket-fm3ck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/givenchy-striped-varsity-jacket-fm955</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/diesel-graphic-print-windbreaker-ftsvf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/gucci-x-mlb-graphic-print-windbreaker-fs05x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/allsaints-trucker-jacket-ftsy1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/polo-ralph-lauren-graphic-print-jacket-frjya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/diesel-leather-moto-jacket-fo8qe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/the-north-face-parka-fr6en</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/caruso-lambskin-vest-fiybd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/saint-laurent-plaid-trucker-plaid-print-trucker-jacket-fu3v9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.therealreal.com/products/men/clothing/outerwear/valentino-graphic-print-bomber-jacket-fnmqq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath.UIAutomationNext.Exceptions.UiAutomationException: Could not determine the browser tab on which to navigate.
+   at UiPath.UIAutomationNext.Activities.NGoToUrl.ExecuteAsync(AsyncCodeActivityContext context, CancellationToken cancellationToken)
    at UiPath.Shared.Activities.AsyncTaskCodeActivityImplementation.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
    at UiPath.Shared.Activities.AsyncTaskCodeActivity.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
    at UiPath.Shared.Activities.ContinuableAsyncCodeActivity.EndExecute(AsyncCodeActivityContext context, IAsyncResult result)
@@ -24486,7 +24559,231 @@
         <x:v>2087</x:v>
       </x:c>
       <x:c r="B2204" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2206" spans="1:14">
+      <x:c r="A2206" s="0" t="s">
+        <x:v>2126</x:v>
+      </x:c>
+      <x:c r="B2206" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2207" spans="1:14">
+      <x:c r="A2207" s="0" t="s">
         <x:v>2132</x:v>
+      </x:c>
+      <x:c r="B2207" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2208" spans="1:14">
+      <x:c r="A2208" s="0" t="s">
+        <x:v>2133</x:v>
+      </x:c>
+      <x:c r="B2208" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2209" spans="1:14">
+      <x:c r="A2209" s="0" t="s">
+        <x:v>2134</x:v>
+      </x:c>
+      <x:c r="B2209" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2210" spans="1:14">
+      <x:c r="A2210" s="0" t="s">
+        <x:v>2135</x:v>
+      </x:c>
+      <x:c r="B2210" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2211" spans="1:14">
+      <x:c r="A2211" s="0" t="s">
+        <x:v>2136</x:v>
+      </x:c>
+      <x:c r="B2211" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2212" spans="1:14">
+      <x:c r="A2212" s="0" t="s">
+        <x:v>2137</x:v>
+      </x:c>
+      <x:c r="B2212" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2213" spans="1:14">
+      <x:c r="A2213" s="0" t="s">
+        <x:v>2138</x:v>
+      </x:c>
+      <x:c r="B2213" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2214" spans="1:14">
+      <x:c r="A2214" s="0" t="s">
+        <x:v>2139</x:v>
+      </x:c>
+      <x:c r="B2214" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2215" spans="1:14">
+      <x:c r="A2215" s="0" t="s">
+        <x:v>2140</x:v>
+      </x:c>
+      <x:c r="B2215" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2216" spans="1:14">
+      <x:c r="A2216" s="0" t="s">
+        <x:v>2141</x:v>
+      </x:c>
+      <x:c r="B2216" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2217" spans="1:14">
+      <x:c r="A2217" s="0" t="s">
+        <x:v>2142</x:v>
+      </x:c>
+      <x:c r="B2217" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2218" spans="1:14">
+      <x:c r="A2218" s="0" t="s">
+        <x:v>2143</x:v>
+      </x:c>
+      <x:c r="B2218" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2219" spans="1:14">
+      <x:c r="A2219" s="0" t="s">
+        <x:v>2144</x:v>
+      </x:c>
+      <x:c r="B2219" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2220" spans="1:14">
+      <x:c r="A2220" s="0" t="s">
+        <x:v>2145</x:v>
+      </x:c>
+      <x:c r="B2220" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2221" spans="1:14">
+      <x:c r="A2221" s="0" t="s">
+        <x:v>2146</x:v>
+      </x:c>
+      <x:c r="B2221" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2222" spans="1:14">
+      <x:c r="A2222" s="0" t="s">
+        <x:v>2147</x:v>
+      </x:c>
+      <x:c r="B2222" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2223" spans="1:14">
+      <x:c r="A2223" s="0" t="s">
+        <x:v>2148</x:v>
+      </x:c>
+      <x:c r="B2223" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2224" spans="1:14">
+      <x:c r="A2224" s="0" t="s">
+        <x:v>2149</x:v>
+      </x:c>
+      <x:c r="B2224" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2225" spans="1:14">
+      <x:c r="A2225" s="0" t="s">
+        <x:v>2150</x:v>
+      </x:c>
+      <x:c r="B2225" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2226" spans="1:14">
+      <x:c r="A2226" s="0" t="s">
+        <x:v>2151</x:v>
+      </x:c>
+      <x:c r="B2226" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2227" spans="1:14">
+      <x:c r="A2227" s="0" t="s">
+        <x:v>2152</x:v>
+      </x:c>
+      <x:c r="B2227" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2228" spans="1:14">
+      <x:c r="A2228" s="0" t="s">
+        <x:v>2153</x:v>
+      </x:c>
+      <x:c r="B2228" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2229" spans="1:14">
+      <x:c r="A2229" s="0" t="s">
+        <x:v>2154</x:v>
+      </x:c>
+      <x:c r="B2229" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2230" spans="1:14">
+      <x:c r="A2230" s="0" t="s">
+        <x:v>2155</x:v>
+      </x:c>
+      <x:c r="B2230" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2231" spans="1:14">
+      <x:c r="A2231" s="0" t="s">
+        <x:v>2156</x:v>
+      </x:c>
+      <x:c r="B2231" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2232" spans="1:14">
+      <x:c r="A2232" s="0" t="s">
+        <x:v>2157</x:v>
+      </x:c>
+      <x:c r="B2232" s="3" t="s">
+        <x:v>1388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2233" spans="1:14">
+      <x:c r="A2233" s="0" t="s">
+        <x:v>2158</x:v>
+      </x:c>
+      <x:c r="B2233" s="3" t="s">
+        <x:v>2159</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
